--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,7 +21,7 @@
     <sheet name="To Check" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1450</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1448</definedName>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
     <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1005</definedName>
   </definedNames>
@@ -25890,10 +25890,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R1450"/>
+  <dimension ref="B1:R1448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
-      <selection activeCell="A864" sqref="A864:XFD864"/>
+    <sheetView tabSelected="1" topLeftCell="A1083" workbookViewId="0">
+      <selection activeCell="A1097" sqref="A1097:XFD1098"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50161,53 +50161,47 @@
     </row>
     <row r="1097" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1097" s="1" t="s">
-        <v>924</v>
+        <v>949</v>
       </c>
       <c r="C1097" t="s">
-        <v>925</v>
+        <v>950</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="E1097" t="s">
-        <v>3901</v>
+        <v>2426</v>
       </c>
       <c r="L1097" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1097" t="s">
-        <v>3902</v>
+        <v>5238</v>
       </c>
       <c r="Q1097" t="s">
-        <v>3907</v>
+        <v>952</v>
       </c>
     </row>
     <row r="1098" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1098" s="1" t="s">
-        <v>926</v>
+        <v>953</v>
       </c>
       <c r="C1098" t="s">
-        <v>925</v>
+        <v>950</v>
       </c>
       <c r="D1098" s="1" t="s">
-        <v>2</v>
+        <v>951</v>
       </c>
       <c r="E1098" t="s">
-        <v>3901</v>
+        <v>2426</v>
       </c>
       <c r="L1098" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M1098" t="s">
-        <v>3902</v>
+        <v>5238</v>
       </c>
       <c r="Q1098" t="s">
-        <v>3908</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1099" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1099" s="1" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C1099" t="s">
         <v>950</v>
@@ -50222,12 +50216,12 @@
         <v>5238</v>
       </c>
       <c r="Q1099" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1100" s="1" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="C1100" t="s">
         <v>950</v>
@@ -50241,13 +50235,16 @@
       <c r="L1100" t="s">
         <v>5238</v>
       </c>
+      <c r="M1100" t="s">
+        <v>542</v>
+      </c>
       <c r="Q1100" t="s">
-        <v>954</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1101" s="1" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C1101" t="s">
         <v>950</v>
@@ -50261,13 +50258,16 @@
       <c r="L1101" t="s">
         <v>5238</v>
       </c>
+      <c r="M1101" t="s">
+        <v>542</v>
+      </c>
       <c r="Q1101" t="s">
-        <v>956</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="1102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1102" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C1102" t="s">
         <v>950</v>
@@ -50285,12 +50285,12 @@
         <v>542</v>
       </c>
       <c r="Q1102" t="s">
-        <v>3922</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1103" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1103" s="1" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C1103" t="s">
         <v>950</v>
@@ -50308,12 +50308,12 @@
         <v>542</v>
       </c>
       <c r="Q1103" t="s">
-        <v>3923</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="1104" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1104" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C1104" t="s">
         <v>950</v>
@@ -50331,12 +50331,12 @@
         <v>542</v>
       </c>
       <c r="Q1104" t="s">
-        <v>3924</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1105" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1105" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C1105" t="s">
         <v>950</v>
@@ -50354,12 +50354,12 @@
         <v>542</v>
       </c>
       <c r="Q1105" t="s">
-        <v>3925</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="1106" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1106" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C1106" t="s">
         <v>950</v>
@@ -50377,12 +50377,15 @@
         <v>542</v>
       </c>
       <c r="Q1106" t="s">
-        <v>3926</v>
+        <v>3928</v>
+      </c>
+      <c r="R1106" t="s">
+        <v>4998</v>
       </c>
     </row>
     <row r="1107" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1107" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C1107" t="s">
         <v>950</v>
@@ -50400,12 +50403,15 @@
         <v>542</v>
       </c>
       <c r="Q1107" t="s">
-        <v>3927</v>
+        <v>3929</v>
+      </c>
+      <c r="R1107" t="s">
+        <v>4998</v>
       </c>
     </row>
     <row r="1108" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1108" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C1108" t="s">
         <v>950</v>
@@ -50423,7 +50429,7 @@
         <v>542</v>
       </c>
       <c r="Q1108" t="s">
-        <v>3928</v>
+        <v>3930</v>
       </c>
       <c r="R1108" t="s">
         <v>4998</v>
@@ -50431,7 +50437,7 @@
     </row>
     <row r="1109" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1109" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C1109" t="s">
         <v>950</v>
@@ -50449,15 +50455,12 @@
         <v>542</v>
       </c>
       <c r="Q1109" t="s">
-        <v>3929</v>
-      </c>
-      <c r="R1109" t="s">
-        <v>4998</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="1110" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1110" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C1110" t="s">
         <v>950</v>
@@ -50475,15 +50478,12 @@
         <v>542</v>
       </c>
       <c r="Q1110" t="s">
-        <v>3930</v>
-      </c>
-      <c r="R1110" t="s">
-        <v>4998</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1111" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1111" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C1111" t="s">
         <v>950</v>
@@ -50501,12 +50501,15 @@
         <v>542</v>
       </c>
       <c r="Q1111" t="s">
-        <v>3931</v>
+        <v>3933</v>
+      </c>
+      <c r="R1111" t="s">
+        <v>4998</v>
       </c>
     </row>
     <row r="1112" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1112" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C1112" t="s">
         <v>950</v>
@@ -50524,12 +50527,15 @@
         <v>542</v>
       </c>
       <c r="Q1112" t="s">
-        <v>3932</v>
+        <v>3934</v>
+      </c>
+      <c r="R1112" t="s">
+        <v>4998</v>
       </c>
     </row>
     <row r="1113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1113" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C1113" t="s">
         <v>950</v>
@@ -50547,7 +50553,7 @@
         <v>542</v>
       </c>
       <c r="Q1113" t="s">
-        <v>3933</v>
+        <v>3935</v>
       </c>
       <c r="R1113" t="s">
         <v>4998</v>
@@ -50555,7 +50561,7 @@
     </row>
     <row r="1114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1114" s="1" t="s">
-        <v>969</v>
+        <v>5469</v>
       </c>
       <c r="C1114" t="s">
         <v>950</v>
@@ -50573,7 +50579,7 @@
         <v>542</v>
       </c>
       <c r="Q1114" t="s">
-        <v>3934</v>
+        <v>5470</v>
       </c>
       <c r="R1114" t="s">
         <v>4998</v>
@@ -50581,7 +50587,7 @@
     </row>
     <row r="1115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1115" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C1115" t="s">
         <v>950</v>
@@ -50599,7 +50605,7 @@
         <v>542</v>
       </c>
       <c r="Q1115" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="R1115" t="s">
         <v>4998</v>
@@ -50607,7 +50613,7 @@
     </row>
     <row r="1116" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1116" s="1" t="s">
-        <v>5469</v>
+        <v>972</v>
       </c>
       <c r="C1116" t="s">
         <v>950</v>
@@ -50625,7 +50631,7 @@
         <v>542</v>
       </c>
       <c r="Q1116" t="s">
-        <v>5470</v>
+        <v>3937</v>
       </c>
       <c r="R1116" t="s">
         <v>4998</v>
@@ -50633,7 +50639,7 @@
     </row>
     <row r="1117" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1117" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C1117" t="s">
         <v>950</v>
@@ -50651,7 +50657,7 @@
         <v>542</v>
       </c>
       <c r="Q1117" t="s">
-        <v>3936</v>
+        <v>3938</v>
       </c>
       <c r="R1117" t="s">
         <v>4998</v>
@@ -50659,7 +50665,7 @@
     </row>
     <row r="1118" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1118" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C1118" t="s">
         <v>950</v>
@@ -50677,15 +50683,12 @@
         <v>542</v>
       </c>
       <c r="Q1118" t="s">
-        <v>3937</v>
-      </c>
-      <c r="R1118" t="s">
-        <v>4998</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1119" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1119" s="1" t="s">
-        <v>973</v>
+        <v>5471</v>
       </c>
       <c r="C1119" t="s">
         <v>950</v>
@@ -50703,18 +50706,15 @@
         <v>542</v>
       </c>
       <c r="Q1119" t="s">
-        <v>3938</v>
-      </c>
-      <c r="R1119" t="s">
-        <v>4998</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="1120" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1120" s="1" t="s">
-        <v>974</v>
+        <v>5473</v>
       </c>
       <c r="C1120" t="s">
-        <v>950</v>
+        <v>5474</v>
       </c>
       <c r="D1120" s="1" t="s">
         <v>951</v>
@@ -50729,15 +50729,15 @@
         <v>542</v>
       </c>
       <c r="Q1120" t="s">
-        <v>4699</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="1121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1121" s="1" t="s">
-        <v>5471</v>
+        <v>5476</v>
       </c>
       <c r="C1121" t="s">
-        <v>950</v>
+        <v>5474</v>
       </c>
       <c r="D1121" s="1" t="s">
         <v>951</v>
@@ -50752,12 +50752,12 @@
         <v>542</v>
       </c>
       <c r="Q1121" t="s">
-        <v>5472</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="1122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1122" s="1" t="s">
-        <v>5473</v>
+        <v>5478</v>
       </c>
       <c r="C1122" t="s">
         <v>5474</v>
@@ -50775,12 +50775,12 @@
         <v>542</v>
       </c>
       <c r="Q1122" t="s">
-        <v>5475</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="1123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1123" s="1" t="s">
-        <v>5476</v>
+        <v>5480</v>
       </c>
       <c r="C1123" t="s">
         <v>5474</v>
@@ -50798,12 +50798,12 @@
         <v>542</v>
       </c>
       <c r="Q1123" t="s">
-        <v>5477</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="1124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1124" s="1" t="s">
-        <v>5478</v>
+        <v>5482</v>
       </c>
       <c r="C1124" t="s">
         <v>5474</v>
@@ -50821,58 +50821,58 @@
         <v>542</v>
       </c>
       <c r="Q1124" t="s">
-        <v>5479</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="1125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1125" s="1" t="s">
-        <v>5480</v>
+        <v>983</v>
       </c>
       <c r="C1125" t="s">
-        <v>5474</v>
+        <v>980</v>
       </c>
       <c r="D1125" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E1125" t="s">
         <v>951</v>
-      </c>
-      <c r="E1125" t="s">
-        <v>2426</v>
       </c>
       <c r="L1125" t="s">
         <v>5238</v>
       </c>
       <c r="M1125" t="s">
-        <v>542</v>
+        <v>5484</v>
       </c>
       <c r="Q1125" t="s">
-        <v>5481</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1126" s="1" t="s">
-        <v>5482</v>
+        <v>984</v>
       </c>
       <c r="C1126" t="s">
-        <v>5474</v>
+        <v>980</v>
       </c>
       <c r="D1126" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E1126" t="s">
         <v>951</v>
-      </c>
-      <c r="E1126" t="s">
-        <v>2426</v>
       </c>
       <c r="L1126" t="s">
         <v>5238</v>
       </c>
       <c r="M1126" t="s">
-        <v>542</v>
+        <v>5484</v>
       </c>
       <c r="Q1126" t="s">
-        <v>5483</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1127" s="1" t="s">
-        <v>983</v>
+        <v>5485</v>
       </c>
       <c r="C1127" t="s">
         <v>980</v>
@@ -50890,12 +50890,12 @@
         <v>5484</v>
       </c>
       <c r="Q1127" t="s">
-        <v>4700</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="1128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1128" s="1" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C1128" t="s">
         <v>980</v>
@@ -50904,7 +50904,7 @@
         <v>981</v>
       </c>
       <c r="E1128" t="s">
-        <v>951</v>
+        <v>5487</v>
       </c>
       <c r="L1128" t="s">
         <v>5238</v>
@@ -50913,12 +50913,12 @@
         <v>5484</v>
       </c>
       <c r="Q1128" t="s">
-        <v>4701</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1129" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1129" s="1" t="s">
-        <v>5485</v>
+        <v>1009</v>
       </c>
       <c r="C1129" t="s">
         <v>980</v>
@@ -50927,7 +50927,7 @@
         <v>981</v>
       </c>
       <c r="E1129" t="s">
-        <v>951</v>
+        <v>5487</v>
       </c>
       <c r="L1129" t="s">
         <v>5238</v>
@@ -50936,12 +50936,12 @@
         <v>5484</v>
       </c>
       <c r="Q1129" t="s">
-        <v>5486</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1130" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1130" s="1" t="s">
-        <v>979</v>
+        <v>1011</v>
       </c>
       <c r="C1130" t="s">
         <v>980</v>
@@ -50959,12 +50959,12 @@
         <v>5484</v>
       </c>
       <c r="Q1130" t="s">
-        <v>982</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1131" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1131" s="1" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="C1131" t="s">
         <v>980</v>
@@ -50973,7 +50973,7 @@
         <v>981</v>
       </c>
       <c r="E1131" t="s">
-        <v>5487</v>
+        <v>951</v>
       </c>
       <c r="L1131" t="s">
         <v>5238</v>
@@ -50982,12 +50982,12 @@
         <v>5484</v>
       </c>
       <c r="Q1131" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1132" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1132" s="1" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
       <c r="C1132" t="s">
         <v>980</v>
@@ -50996,7 +50996,7 @@
         <v>981</v>
       </c>
       <c r="E1132" t="s">
-        <v>5487</v>
+        <v>951</v>
       </c>
       <c r="L1132" t="s">
         <v>5238</v>
@@ -51005,12 +51005,12 @@
         <v>5484</v>
       </c>
       <c r="Q1132" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1133" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1133" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C1133" t="s">
         <v>980</v>
@@ -51019,7 +51019,7 @@
         <v>981</v>
       </c>
       <c r="E1133" t="s">
-        <v>951</v>
+        <v>5487</v>
       </c>
       <c r="L1133" t="s">
         <v>5238</v>
@@ -51028,12 +51028,12 @@
         <v>5484</v>
       </c>
       <c r="Q1133" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1134" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1134" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C1134" t="s">
         <v>980</v>
@@ -51042,7 +51042,7 @@
         <v>981</v>
       </c>
       <c r="E1134" t="s">
-        <v>951</v>
+        <v>5487</v>
       </c>
       <c r="L1134" t="s">
         <v>5238</v>
@@ -51051,12 +51051,12 @@
         <v>5484</v>
       </c>
       <c r="Q1134" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1135" s="1" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="C1135" t="s">
         <v>980</v>
@@ -51065,7 +51065,7 @@
         <v>981</v>
       </c>
       <c r="E1135" t="s">
-        <v>5487</v>
+        <v>951</v>
       </c>
       <c r="L1135" t="s">
         <v>5238</v>
@@ -51074,12 +51074,12 @@
         <v>5484</v>
       </c>
       <c r="Q1135" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1136" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1136" s="1" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="C1136" t="s">
         <v>980</v>
@@ -51088,7 +51088,7 @@
         <v>981</v>
       </c>
       <c r="E1136" t="s">
-        <v>5487</v>
+        <v>951</v>
       </c>
       <c r="L1136" t="s">
         <v>5238</v>
@@ -51097,12 +51097,12 @@
         <v>5484</v>
       </c>
       <c r="Q1136" t="s">
-        <v>992</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1137" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1137" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C1137" t="s">
         <v>980</v>
@@ -51120,12 +51120,12 @@
         <v>5484</v>
       </c>
       <c r="Q1137" t="s">
-        <v>1000</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="1138" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1138" s="1" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="C1138" t="s">
         <v>980</v>
@@ -51134,7 +51134,7 @@
         <v>981</v>
       </c>
       <c r="E1138" t="s">
-        <v>951</v>
+        <v>5487</v>
       </c>
       <c r="L1138" t="s">
         <v>5238</v>
@@ -51143,12 +51143,12 @@
         <v>5484</v>
       </c>
       <c r="Q1138" t="s">
-        <v>3942</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1139" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1139" s="1" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="C1139" t="s">
         <v>980</v>
@@ -51157,7 +51157,7 @@
         <v>981</v>
       </c>
       <c r="E1139" t="s">
-        <v>951</v>
+        <v>5487</v>
       </c>
       <c r="L1139" t="s">
         <v>5238</v>
@@ -51166,12 +51166,12 @@
         <v>5484</v>
       </c>
       <c r="Q1139" t="s">
-        <v>3943</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1140" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1140" s="1" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="C1140" t="s">
         <v>980</v>
@@ -51180,7 +51180,7 @@
         <v>981</v>
       </c>
       <c r="E1140" t="s">
-        <v>5487</v>
+        <v>951</v>
       </c>
       <c r="L1140" t="s">
         <v>5238</v>
@@ -51189,12 +51189,12 @@
         <v>5484</v>
       </c>
       <c r="Q1140" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1141" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1141" s="1" t="s">
-        <v>987</v>
+        <v>1003</v>
       </c>
       <c r="C1141" t="s">
         <v>980</v>
@@ -51203,7 +51203,7 @@
         <v>981</v>
       </c>
       <c r="E1141" t="s">
-        <v>5487</v>
+        <v>951</v>
       </c>
       <c r="L1141" t="s">
         <v>5238</v>
@@ -51212,12 +51212,12 @@
         <v>5484</v>
       </c>
       <c r="Q1141" t="s">
-        <v>988</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1142" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1142" s="1" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="C1142" t="s">
         <v>980</v>
@@ -51235,12 +51235,12 @@
         <v>5484</v>
       </c>
       <c r="Q1142" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1143" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1143" s="1" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C1143" t="s">
         <v>980</v>
@@ -51258,12 +51258,12 @@
         <v>5484</v>
       </c>
       <c r="Q1143" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1144" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1144" s="1" t="s">
-        <v>1005</v>
+        <v>5488</v>
       </c>
       <c r="C1144" t="s">
         <v>980</v>
@@ -51281,12 +51281,12 @@
         <v>5484</v>
       </c>
       <c r="Q1144" t="s">
-        <v>1006</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="1145" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1145" s="1" t="s">
-        <v>1007</v>
+        <v>5490</v>
       </c>
       <c r="C1145" t="s">
         <v>980</v>
@@ -51304,12 +51304,12 @@
         <v>5484</v>
       </c>
       <c r="Q1145" t="s">
-        <v>1008</v>
+        <v>5491</v>
       </c>
     </row>
     <row r="1146" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1146" s="1" t="s">
-        <v>5488</v>
+        <v>1013</v>
       </c>
       <c r="C1146" t="s">
         <v>980</v>
@@ -51318,7 +51318,7 @@
         <v>981</v>
       </c>
       <c r="E1146" t="s">
-        <v>951</v>
+        <v>5487</v>
       </c>
       <c r="L1146" t="s">
         <v>5238</v>
@@ -51327,12 +51327,12 @@
         <v>5484</v>
       </c>
       <c r="Q1146" t="s">
-        <v>5489</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1147" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1147" s="1" t="s">
-        <v>5490</v>
+        <v>5492</v>
       </c>
       <c r="C1147" t="s">
         <v>980</v>
@@ -51341,7 +51341,7 @@
         <v>981</v>
       </c>
       <c r="E1147" t="s">
-        <v>951</v>
+        <v>5487</v>
       </c>
       <c r="L1147" t="s">
         <v>5238</v>
@@ -51350,15 +51350,15 @@
         <v>5484</v>
       </c>
       <c r="Q1147" t="s">
-        <v>5491</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="1148" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1148" s="1" t="s">
-        <v>1013</v>
+        <v>5494</v>
       </c>
       <c r="C1148" t="s">
-        <v>980</v>
+        <v>1016</v>
       </c>
       <c r="D1148" s="1" t="s">
         <v>981</v>
@@ -51373,15 +51373,15 @@
         <v>5484</v>
       </c>
       <c r="Q1148" t="s">
-        <v>1014</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="1149" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1149" s="1" t="s">
-        <v>5492</v>
+        <v>1015</v>
       </c>
       <c r="C1149" t="s">
-        <v>980</v>
+        <v>1016</v>
       </c>
       <c r="D1149" s="1" t="s">
         <v>981</v>
@@ -51396,58 +51396,55 @@
         <v>5484</v>
       </c>
       <c r="Q1149" t="s">
-        <v>5493</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1150" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1150" s="1" t="s">
-        <v>5494</v>
+        <v>1018</v>
       </c>
       <c r="C1150" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D1150" s="1" t="s">
-        <v>981</v>
+        <v>1020</v>
       </c>
       <c r="E1150" t="s">
-        <v>5487</v>
+        <v>3899</v>
       </c>
       <c r="L1150" t="s">
-        <v>5238</v>
+        <v>542</v>
       </c>
       <c r="M1150" t="s">
-        <v>5484</v>
+        <v>352</v>
       </c>
       <c r="Q1150" t="s">
-        <v>5495</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1151" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1151" s="1" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C1151" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D1151" s="1" t="s">
-        <v>981</v>
+        <v>1020</v>
       </c>
       <c r="E1151" t="s">
-        <v>5487</v>
+        <v>3899</v>
       </c>
       <c r="L1151" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1151" t="s">
-        <v>5484</v>
+        <v>542</v>
       </c>
       <c r="Q1151" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1152" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1152" s="1" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="C1152" t="s">
         <v>1019</v>
@@ -51465,12 +51462,12 @@
         <v>352</v>
       </c>
       <c r="Q1152" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="1153" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1153" s="1" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C1153" t="s">
         <v>1019</v>
@@ -51484,13 +51481,16 @@
       <c r="L1153" t="s">
         <v>542</v>
       </c>
+      <c r="M1153" t="s">
+        <v>352</v>
+      </c>
       <c r="Q1153" t="s">
-        <v>1022</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1154" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1154" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C1154" t="s">
         <v>1019</v>
@@ -51504,16 +51504,13 @@
       <c r="L1154" t="s">
         <v>542</v>
       </c>
-      <c r="M1154" t="s">
-        <v>352</v>
-      </c>
       <c r="Q1154" t="s">
-        <v>3945</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1155" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1155" s="1" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C1155" t="s">
         <v>1019</v>
@@ -51527,16 +51524,13 @@
       <c r="L1155" t="s">
         <v>542</v>
       </c>
-      <c r="M1155" t="s">
-        <v>352</v>
-      </c>
       <c r="Q1155" t="s">
-        <v>3946</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1156" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1156" s="1" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="C1156" t="s">
         <v>1019</v>
@@ -51550,13 +51544,16 @@
       <c r="L1156" t="s">
         <v>542</v>
       </c>
+      <c r="M1156" t="s">
+        <v>352</v>
+      </c>
       <c r="Q1156" t="s">
-        <v>1026</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1157" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1157" s="1" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C1157" t="s">
         <v>1019</v>
@@ -51567,16 +51564,22 @@
       <c r="E1157" t="s">
         <v>3899</v>
       </c>
+      <c r="F1157" t="s">
+        <v>3899</v>
+      </c>
       <c r="L1157" t="s">
-        <v>542</v>
+        <v>2605</v>
+      </c>
+      <c r="M1157" t="s">
+        <v>1155</v>
       </c>
       <c r="Q1157" t="s">
-        <v>1028</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1158" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1158" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C1158" t="s">
         <v>1019</v>
@@ -51587,19 +51590,22 @@
       <c r="E1158" t="s">
         <v>3899</v>
       </c>
+      <c r="F1158" t="s">
+        <v>3899</v>
+      </c>
       <c r="L1158" t="s">
-        <v>542</v>
+        <v>2605</v>
       </c>
       <c r="M1158" t="s">
-        <v>352</v>
+        <v>1155</v>
       </c>
       <c r="Q1158" t="s">
-        <v>4702</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1159" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1159" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C1159" t="s">
         <v>1019</v>
@@ -51620,12 +51626,12 @@
         <v>1155</v>
       </c>
       <c r="Q1159" t="s">
-        <v>3947</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1160" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1160" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C1160" t="s">
         <v>1019</v>
@@ -51636,22 +51642,19 @@
       <c r="E1160" t="s">
         <v>3899</v>
       </c>
-      <c r="F1160" t="s">
-        <v>3899</v>
-      </c>
       <c r="L1160" t="s">
-        <v>2605</v>
+        <v>542</v>
       </c>
       <c r="M1160" t="s">
-        <v>1155</v>
+        <v>352</v>
       </c>
       <c r="Q1160" t="s">
-        <v>3948</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="1161" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1161" s="1" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C1161" t="s">
         <v>1019</v>
@@ -51672,12 +51675,12 @@
         <v>1155</v>
       </c>
       <c r="Q1161" t="s">
-        <v>3949</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1162" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1162" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C1162" t="s">
         <v>1019</v>
@@ -51691,85 +51694,88 @@
       <c r="L1162" t="s">
         <v>542</v>
       </c>
-      <c r="M1162" t="s">
-        <v>352</v>
-      </c>
       <c r="Q1162" t="s">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="1163" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1163" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C1163" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D1163" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E1163" t="s">
-        <v>3899</v>
-      </c>
-      <c r="F1163" t="s">
-        <v>3899</v>
-      </c>
-      <c r="L1163" t="s">
-        <v>2605</v>
-      </c>
-      <c r="M1163" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q1163" t="s">
-        <v>3951</v>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1163" s="3" t="s">
+        <v>5511</v>
+      </c>
+      <c r="C1163" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1163" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1163" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1163" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1163" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q1163" s="6" t="s">
+        <v>5512</v>
       </c>
     </row>
     <row r="1164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1164" s="1" t="s">
-        <v>1035</v>
+        <v>1098</v>
       </c>
       <c r="C1164" t="s">
-        <v>1019</v>
+        <v>1099</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>1020</v>
+        <v>2</v>
       </c>
       <c r="E1164" t="s">
-        <v>3899</v>
+        <v>2426</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>2426</v>
       </c>
       <c r="L1164" t="s">
-        <v>542</v>
+        <v>55</v>
+      </c>
+      <c r="M1164" t="s">
+        <v>2605</v>
       </c>
       <c r="Q1164" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1165" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1165" s="3" t="s">
-        <v>5511</v>
-      </c>
-      <c r="C1165" s="6" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1165" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1165" t="s">
         <v>1099</v>
       </c>
-      <c r="D1165" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1165" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1165" s="6" t="s">
+      <c r="D1165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L1165" t="s">
         <v>55</v>
       </c>
-      <c r="M1165" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q1165" s="6" t="s">
-        <v>5512</v>
+      <c r="M1165" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q1165" t="s">
+        <v>3977</v>
       </c>
     </row>
     <row r="1166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1166" s="1" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="C1166" t="s">
         <v>1099</v>
@@ -51790,12 +51796,12 @@
         <v>2605</v>
       </c>
       <c r="Q1166" t="s">
-        <v>3976</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1167" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C1167" t="s">
         <v>1099</v>
@@ -51816,12 +51822,12 @@
         <v>2605</v>
       </c>
       <c r="Q1167" t="s">
-        <v>3977</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1168" s="1" t="s">
-        <v>1101</v>
+        <v>5513</v>
       </c>
       <c r="C1168" t="s">
         <v>1099</v>
@@ -51835,6 +51841,9 @@
       <c r="F1168" t="s">
         <v>2426</v>
       </c>
+      <c r="G1168" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1168" t="s">
         <v>55</v>
       </c>
@@ -51842,12 +51851,12 @@
         <v>2605</v>
       </c>
       <c r="Q1168" t="s">
-        <v>3978</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="1169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1169" s="1" t="s">
-        <v>1102</v>
+        <v>5515</v>
       </c>
       <c r="C1169" t="s">
         <v>1099</v>
@@ -51861,6 +51870,9 @@
       <c r="F1169" t="s">
         <v>2426</v>
       </c>
+      <c r="G1169" t="s">
+        <v>2426</v>
+      </c>
       <c r="L1169" t="s">
         <v>55</v>
       </c>
@@ -51868,12 +51880,12 @@
         <v>2605</v>
       </c>
       <c r="Q1169" t="s">
-        <v>4708</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="1170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1170" s="1" t="s">
-        <v>5513</v>
+        <v>5517</v>
       </c>
       <c r="C1170" t="s">
         <v>1099</v>
@@ -51897,12 +51909,12 @@
         <v>2605</v>
       </c>
       <c r="Q1170" t="s">
-        <v>5514</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="1171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1171" s="1" t="s">
-        <v>5515</v>
+        <v>5519</v>
       </c>
       <c r="C1171" t="s">
         <v>1099</v>
@@ -51926,70 +51938,70 @@
         <v>2605</v>
       </c>
       <c r="Q1171" t="s">
-        <v>5516</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="1172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1172" s="1" t="s">
-        <v>5517</v>
+        <v>5526</v>
       </c>
       <c r="C1172" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1172" s="1" t="s">
-        <v>2</v>
+        <v>5527</v>
+      </c>
+      <c r="D1172" s="1">
+        <v>68000</v>
       </c>
       <c r="E1172" t="s">
         <v>2426</v>
       </c>
-      <c r="F1172" t="s">
-        <v>2426</v>
+      <c r="F1172">
+        <v>68000</v>
       </c>
       <c r="G1172" t="s">
         <v>2426</v>
       </c>
       <c r="L1172" t="s">
-        <v>55</v>
+        <v>5505</v>
       </c>
       <c r="M1172" t="s">
-        <v>2605</v>
+        <v>3974</v>
       </c>
       <c r="Q1172" t="s">
-        <v>5518</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="1173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1173" s="1" t="s">
-        <v>5519</v>
+        <v>5529</v>
       </c>
       <c r="C1173" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1173" s="1" t="s">
-        <v>2</v>
+        <v>5527</v>
+      </c>
+      <c r="D1173" s="1">
+        <v>68000</v>
       </c>
       <c r="E1173" t="s">
         <v>2426</v>
       </c>
-      <c r="F1173" t="s">
-        <v>2426</v>
+      <c r="F1173">
+        <v>68000</v>
       </c>
       <c r="G1173" t="s">
         <v>2426</v>
       </c>
       <c r="L1173" t="s">
-        <v>55</v>
+        <v>5505</v>
       </c>
       <c r="M1173" t="s">
-        <v>2605</v>
+        <v>3974</v>
       </c>
       <c r="Q1173" t="s">
-        <v>5520</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="1174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1174" s="1" t="s">
-        <v>5526</v>
+        <v>5531</v>
       </c>
       <c r="C1174" t="s">
         <v>5527</v>
@@ -52013,12 +52025,12 @@
         <v>3974</v>
       </c>
       <c r="Q1174" t="s">
-        <v>5528</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="1175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1175" s="1" t="s">
-        <v>5529</v>
+        <v>5533</v>
       </c>
       <c r="C1175" t="s">
         <v>5527</v>
@@ -52042,70 +52054,58 @@
         <v>3974</v>
       </c>
       <c r="Q1175" t="s">
-        <v>5530</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="1176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1176" s="1" t="s">
-        <v>5531</v>
+        <v>1129</v>
       </c>
       <c r="C1176" t="s">
-        <v>5527</v>
+        <v>1130</v>
       </c>
       <c r="D1176" s="1">
         <v>68000</v>
       </c>
       <c r="E1176" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1176">
-        <v>68000</v>
-      </c>
-      <c r="G1176" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1176" t="s">
-        <v>5505</v>
+        <v>5238</v>
       </c>
       <c r="M1176" t="s">
-        <v>3974</v>
+        <v>3986</v>
       </c>
       <c r="Q1176" t="s">
-        <v>5532</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="1177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1177" s="1" t="s">
-        <v>5533</v>
+        <v>1131</v>
       </c>
       <c r="C1177" t="s">
-        <v>5527</v>
+        <v>1130</v>
       </c>
       <c r="D1177" s="1">
         <v>68000</v>
       </c>
       <c r="E1177" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1177">
-        <v>68000</v>
-      </c>
-      <c r="G1177" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1177" t="s">
-        <v>5505</v>
+        <v>5238</v>
       </c>
       <c r="M1177" t="s">
-        <v>3974</v>
+        <v>3986</v>
       </c>
       <c r="Q1177" t="s">
-        <v>5534</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1178" s="1" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C1178" t="s">
         <v>1130</v>
@@ -52123,12 +52123,12 @@
         <v>3986</v>
       </c>
       <c r="Q1178" t="s">
-        <v>3987</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1179" s="1" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C1179" t="s">
         <v>1130</v>
@@ -52146,21 +52146,24 @@
         <v>3986</v>
       </c>
       <c r="Q1179" t="s">
-        <v>3988</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1180" s="1" t="s">
-        <v>1132</v>
+        <v>5535</v>
       </c>
       <c r="C1180" t="s">
-        <v>1130</v>
+        <v>5536</v>
       </c>
       <c r="D1180" s="1">
         <v>68000</v>
       </c>
       <c r="E1180" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1180">
+        <v>68000</v>
       </c>
       <c r="L1180" t="s">
         <v>5238</v>
@@ -52169,21 +52172,24 @@
         <v>3986</v>
       </c>
       <c r="Q1180" t="s">
-        <v>3989</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="1181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1181" s="1" t="s">
-        <v>1133</v>
+        <v>5538</v>
       </c>
       <c r="C1181" t="s">
-        <v>1130</v>
+        <v>5536</v>
       </c>
       <c r="D1181" s="1">
         <v>68000</v>
       </c>
       <c r="E1181" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1181">
+        <v>68000</v>
       </c>
       <c r="L1181" t="s">
         <v>5238</v>
@@ -52192,12 +52198,12 @@
         <v>3986</v>
       </c>
       <c r="Q1181" t="s">
-        <v>3990</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="1182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1182" s="1" t="s">
-        <v>5535</v>
+        <v>5540</v>
       </c>
       <c r="C1182" t="s">
         <v>5536</v>
@@ -52218,156 +52224,144 @@
         <v>3986</v>
       </c>
       <c r="Q1182" t="s">
-        <v>5537</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="1183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1183" s="1" t="s">
-        <v>5538</v>
+        <v>5542</v>
       </c>
       <c r="C1183" t="s">
-        <v>5536</v>
+        <v>5543</v>
       </c>
       <c r="D1183" s="1">
         <v>68000</v>
       </c>
       <c r="E1183" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1183">
-        <v>68000</v>
+        <v>2</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>2</v>
       </c>
       <c r="L1183" t="s">
         <v>5238</v>
       </c>
       <c r="M1183" t="s">
-        <v>3986</v>
+        <v>4528</v>
       </c>
       <c r="Q1183" t="s">
-        <v>5539</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="1184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1184" s="1" t="s">
-        <v>5540</v>
+        <v>5545</v>
       </c>
       <c r="C1184" t="s">
-        <v>5536</v>
+        <v>5543</v>
       </c>
       <c r="D1184" s="1">
         <v>68000</v>
       </c>
       <c r="E1184" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1184">
-        <v>68000</v>
+        <v>2</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>2</v>
       </c>
       <c r="L1184" t="s">
         <v>5238</v>
       </c>
       <c r="M1184" t="s">
-        <v>3986</v>
+        <v>4528</v>
       </c>
       <c r="Q1184" t="s">
-        <v>5541</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="1185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1185" s="1" t="s">
-        <v>5542</v>
+        <v>5547</v>
       </c>
       <c r="C1185" t="s">
-        <v>5543</v>
+        <v>5548</v>
       </c>
       <c r="D1185" s="1">
         <v>68000</v>
       </c>
       <c r="E1185" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1185" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1185" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1185" t="s">
-        <v>4528</v>
+        <v>5549</v>
       </c>
       <c r="Q1185" t="s">
-        <v>5544</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="1186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1186" s="1" t="s">
-        <v>5545</v>
+        <v>5551</v>
       </c>
       <c r="C1186" t="s">
-        <v>5543</v>
+        <v>5548</v>
       </c>
       <c r="D1186" s="1">
         <v>68000</v>
       </c>
       <c r="E1186" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1186" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1186" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1186" t="s">
-        <v>4528</v>
+        <v>5549</v>
       </c>
       <c r="Q1186" t="s">
-        <v>5546</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="1187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1187" s="1" t="s">
-        <v>5547</v>
+        <v>1134</v>
       </c>
       <c r="C1187" t="s">
-        <v>5548</v>
+        <v>1135</v>
       </c>
       <c r="D1187" s="1">
         <v>68000</v>
       </c>
       <c r="E1187" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1187" t="s">
-        <v>5549</v>
+        <v>5238</v>
       </c>
       <c r="Q1187" t="s">
-        <v>5550</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="1188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1188" s="1" t="s">
-        <v>5551</v>
+        <v>5554</v>
       </c>
       <c r="C1188" t="s">
-        <v>5548</v>
+        <v>1135</v>
       </c>
       <c r="D1188" s="1">
         <v>68000</v>
       </c>
       <c r="E1188" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1188" t="s">
-        <v>5549</v>
+        <v>5238</v>
       </c>
       <c r="Q1188" t="s">
-        <v>5552</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="1189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1189" s="1" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C1189" t="s">
         <v>1135</v>
@@ -52382,12 +52376,12 @@
         <v>5238</v>
       </c>
       <c r="Q1189" t="s">
-        <v>5553</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1190" s="1" t="s">
-        <v>5554</v>
+        <v>1138</v>
       </c>
       <c r="C1190" t="s">
         <v>1135</v>
@@ -52399,18 +52393,18 @@
         <v>2</v>
       </c>
       <c r="L1190" t="s">
-        <v>5238</v>
+        <v>5505</v>
       </c>
       <c r="Q1190" t="s">
-        <v>5555</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1191" s="1" t="s">
-        <v>1136</v>
+        <v>5559</v>
       </c>
       <c r="C1191" t="s">
-        <v>1135</v>
+        <v>5560</v>
       </c>
       <c r="D1191" s="1">
         <v>68000</v>
@@ -52419,18 +52413,18 @@
         <v>2</v>
       </c>
       <c r="L1191" t="s">
-        <v>5238</v>
+        <v>5070</v>
       </c>
       <c r="Q1191" t="s">
-        <v>1137</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="1192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1192" s="1" t="s">
-        <v>1138</v>
+        <v>5562</v>
       </c>
       <c r="C1192" t="s">
-        <v>1135</v>
+        <v>5563</v>
       </c>
       <c r="D1192" s="1">
         <v>68000</v>
@@ -52439,18 +52433,18 @@
         <v>2</v>
       </c>
       <c r="L1192" t="s">
-        <v>5505</v>
+        <v>5549</v>
       </c>
       <c r="Q1192" t="s">
-        <v>1139</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="1193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1193" s="1" t="s">
-        <v>5559</v>
+        <v>5565</v>
       </c>
       <c r="C1193" t="s">
-        <v>5560</v>
+        <v>5563</v>
       </c>
       <c r="D1193" s="1">
         <v>68000</v>
@@ -52459,15 +52453,15 @@
         <v>2</v>
       </c>
       <c r="L1193" t="s">
-        <v>5070</v>
+        <v>5549</v>
       </c>
       <c r="Q1193" t="s">
-        <v>5561</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="1194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1194" s="1" t="s">
-        <v>5562</v>
+        <v>5567</v>
       </c>
       <c r="C1194" t="s">
         <v>5563</v>
@@ -52482,12 +52476,12 @@
         <v>5549</v>
       </c>
       <c r="Q1194" t="s">
-        <v>5564</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="1195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1195" s="1" t="s">
-        <v>5565</v>
+        <v>5569</v>
       </c>
       <c r="C1195" t="s">
         <v>5563</v>
@@ -52499,15 +52493,18 @@
         <v>2</v>
       </c>
       <c r="L1195" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1195" t="s">
+        <v>3986</v>
       </c>
       <c r="Q1195" t="s">
-        <v>5566</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="1196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1196" s="1" t="s">
-        <v>5567</v>
+        <v>5571</v>
       </c>
       <c r="C1196" t="s">
         <v>5563</v>
@@ -52519,15 +52516,18 @@
         <v>2</v>
       </c>
       <c r="L1196" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1196" t="s">
+        <v>3986</v>
       </c>
       <c r="Q1196" t="s">
-        <v>5568</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="1197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1197" s="1" t="s">
-        <v>5569</v>
+        <v>5573</v>
       </c>
       <c r="C1197" t="s">
         <v>5563</v>
@@ -52545,12 +52545,12 @@
         <v>3986</v>
       </c>
       <c r="Q1197" t="s">
-        <v>5570</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="1198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1198" s="1" t="s">
-        <v>5571</v>
+        <v>5575</v>
       </c>
       <c r="C1198" t="s">
         <v>5563</v>
@@ -52568,12 +52568,12 @@
         <v>3986</v>
       </c>
       <c r="Q1198" t="s">
-        <v>5572</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="1199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1199" s="1" t="s">
-        <v>5573</v>
+        <v>5577</v>
       </c>
       <c r="C1199" t="s">
         <v>5563</v>
@@ -52591,15 +52591,15 @@
         <v>3986</v>
       </c>
       <c r="Q1199" t="s">
-        <v>5574</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="1200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1200" s="1" t="s">
-        <v>5575</v>
+        <v>5579</v>
       </c>
       <c r="C1200" t="s">
-        <v>5563</v>
+        <v>5580</v>
       </c>
       <c r="D1200" s="1">
         <v>68000</v>
@@ -52614,15 +52614,15 @@
         <v>3986</v>
       </c>
       <c r="Q1200" t="s">
-        <v>5576</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="1201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1201" s="1" t="s">
-        <v>5577</v>
+        <v>5582</v>
       </c>
       <c r="C1201" t="s">
-        <v>5563</v>
+        <v>5580</v>
       </c>
       <c r="D1201" s="1">
         <v>68000</v>
@@ -52637,12 +52637,12 @@
         <v>3986</v>
       </c>
       <c r="Q1201" t="s">
-        <v>5578</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="1202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1202" s="1" t="s">
-        <v>5579</v>
+        <v>5584</v>
       </c>
       <c r="C1202" t="s">
         <v>5580</v>
@@ -52660,12 +52660,12 @@
         <v>3986</v>
       </c>
       <c r="Q1202" t="s">
-        <v>5581</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="1203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1203" s="1" t="s">
-        <v>5582</v>
+        <v>5586</v>
       </c>
       <c r="C1203" t="s">
         <v>5580</v>
@@ -52683,12 +52683,12 @@
         <v>3986</v>
       </c>
       <c r="Q1203" t="s">
-        <v>5583</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="1204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1204" s="1" t="s">
-        <v>5584</v>
+        <v>5588</v>
       </c>
       <c r="C1204" t="s">
         <v>5580</v>
@@ -52706,58 +52706,58 @@
         <v>3986</v>
       </c>
       <c r="Q1204" t="s">
-        <v>5585</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="1205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1205" s="1" t="s">
-        <v>5586</v>
+        <v>5590</v>
       </c>
       <c r="C1205" t="s">
-        <v>5580</v>
+        <v>5591</v>
       </c>
       <c r="D1205" s="1">
         <v>68000</v>
       </c>
       <c r="E1205" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1205">
+        <v>68000</v>
       </c>
       <c r="L1205" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1205" t="s">
-        <v>3986</v>
+        <v>5549</v>
       </c>
       <c r="Q1205" t="s">
-        <v>5587</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="1206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1206" s="1" t="s">
-        <v>5588</v>
+        <v>5593</v>
       </c>
       <c r="C1206" t="s">
-        <v>5580</v>
+        <v>5591</v>
       </c>
       <c r="D1206" s="1">
         <v>68000</v>
       </c>
       <c r="E1206" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1206">
+        <v>68000</v>
       </c>
       <c r="L1206" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1206" t="s">
-        <v>3986</v>
+        <v>5549</v>
       </c>
       <c r="Q1206" t="s">
-        <v>5589</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="1207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1207" s="1" t="s">
-        <v>5590</v>
+        <v>5595</v>
       </c>
       <c r="C1207" t="s">
         <v>5591</v>
@@ -52775,12 +52775,12 @@
         <v>5549</v>
       </c>
       <c r="Q1207" t="s">
-        <v>5592</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="1208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1208" s="1" t="s">
-        <v>5593</v>
+        <v>5597</v>
       </c>
       <c r="C1208" t="s">
         <v>5591</v>
@@ -52798,15 +52798,15 @@
         <v>5549</v>
       </c>
       <c r="Q1208" t="s">
-        <v>5594</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="1209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1209" s="1" t="s">
-        <v>5595</v>
+        <v>5599</v>
       </c>
       <c r="C1209" t="s">
-        <v>5591</v>
+        <v>5600</v>
       </c>
       <c r="D1209" s="1">
         <v>68000</v>
@@ -52814,22 +52814,19 @@
       <c r="E1209" t="s">
         <v>2426</v>
       </c>
-      <c r="F1209">
-        <v>68000</v>
-      </c>
       <c r="L1209" t="s">
-        <v>5549</v>
+        <v>5601</v>
       </c>
       <c r="Q1209" t="s">
-        <v>5596</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="1210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1210" s="1" t="s">
-        <v>5597</v>
+        <v>5603</v>
       </c>
       <c r="C1210" t="s">
-        <v>5591</v>
+        <v>5604</v>
       </c>
       <c r="D1210" s="1">
         <v>68000</v>
@@ -52843,16 +52840,19 @@
       <c r="L1210" t="s">
         <v>5549</v>
       </c>
+      <c r="M1210" t="s">
+        <v>77</v>
+      </c>
       <c r="Q1210" t="s">
-        <v>5598</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="1211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1211" s="1" t="s">
-        <v>5599</v>
+        <v>5606</v>
       </c>
       <c r="C1211" t="s">
-        <v>5600</v>
+        <v>5604</v>
       </c>
       <c r="D1211" s="1">
         <v>68000</v>
@@ -52860,16 +52860,22 @@
       <c r="E1211" t="s">
         <v>2426</v>
       </c>
+      <c r="F1211">
+        <v>68000</v>
+      </c>
       <c r="L1211" t="s">
-        <v>5601</v>
+        <v>5549</v>
+      </c>
+      <c r="M1211" t="s">
+        <v>77</v>
       </c>
       <c r="Q1211" t="s">
-        <v>5602</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="1212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1212" s="1" t="s">
-        <v>5603</v>
+        <v>5608</v>
       </c>
       <c r="C1212" t="s">
         <v>5604</v>
@@ -52890,24 +52896,21 @@
         <v>77</v>
       </c>
       <c r="Q1212" t="s">
-        <v>5605</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="1213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1213" s="1" t="s">
-        <v>5606</v>
+        <v>5610</v>
       </c>
       <c r="C1213" t="s">
-        <v>5604</v>
+        <v>5611</v>
       </c>
       <c r="D1213" s="1">
         <v>68000</v>
       </c>
       <c r="E1213" t="s">
         <v>2426</v>
-      </c>
-      <c r="F1213">
-        <v>68000</v>
       </c>
       <c r="L1213" t="s">
         <v>5549</v>
@@ -52916,24 +52919,21 @@
         <v>77</v>
       </c>
       <c r="Q1213" t="s">
-        <v>5607</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="1214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1214" s="1" t="s">
-        <v>5608</v>
+        <v>5613</v>
       </c>
       <c r="C1214" t="s">
-        <v>5604</v>
+        <v>5611</v>
       </c>
       <c r="D1214" s="1">
         <v>68000</v>
       </c>
       <c r="E1214" t="s">
         <v>2426</v>
-      </c>
-      <c r="F1214">
-        <v>68000</v>
       </c>
       <c r="L1214" t="s">
         <v>5549</v>
@@ -52942,12 +52942,12 @@
         <v>77</v>
       </c>
       <c r="Q1214" t="s">
-        <v>5609</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="1215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1215" s="1" t="s">
-        <v>5610</v>
+        <v>5615</v>
       </c>
       <c r="C1215" t="s">
         <v>5611</v>
@@ -52959,61 +52959,55 @@
         <v>2426</v>
       </c>
       <c r="L1215" t="s">
-        <v>5549</v>
-      </c>
-      <c r="M1215" t="s">
-        <v>77</v>
+        <v>5601</v>
       </c>
       <c r="Q1215" t="s">
-        <v>5612</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="1216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1216" s="1" t="s">
-        <v>5613</v>
+        <v>1159</v>
       </c>
       <c r="C1216" t="s">
-        <v>5611</v>
+        <v>5617</v>
       </c>
       <c r="D1216" s="1">
         <v>68000</v>
       </c>
       <c r="E1216" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1216" t="s">
         <v>5549</v>
       </c>
-      <c r="M1216" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1216" t="s">
-        <v>5614</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1217" s="1" t="s">
-        <v>5615</v>
+        <v>5618</v>
       </c>
       <c r="C1217" t="s">
-        <v>5611</v>
+        <v>5617</v>
       </c>
       <c r="D1217" s="1">
         <v>68000</v>
       </c>
       <c r="E1217" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1217" t="s">
-        <v>5601</v>
+        <v>5238</v>
       </c>
       <c r="Q1217" t="s">
-        <v>5616</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="1218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1218" s="1" t="s">
-        <v>1159</v>
+        <v>5620</v>
       </c>
       <c r="C1218" t="s">
         <v>5617</v>
@@ -53025,15 +53019,15 @@
         <v>2</v>
       </c>
       <c r="L1218" t="s">
-        <v>5549</v>
+        <v>5238</v>
       </c>
       <c r="Q1218" t="s">
-        <v>1160</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="1219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1219" s="1" t="s">
-        <v>5618</v>
+        <v>5622</v>
       </c>
       <c r="C1219" t="s">
         <v>5617</v>
@@ -53048,12 +53042,12 @@
         <v>5238</v>
       </c>
       <c r="Q1219" t="s">
-        <v>5619</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="1220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1220" s="1" t="s">
-        <v>5620</v>
+        <v>5624</v>
       </c>
       <c r="C1220" t="s">
         <v>5617</v>
@@ -53065,15 +53059,15 @@
         <v>2</v>
       </c>
       <c r="L1220" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="Q1220" t="s">
-        <v>5621</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="1221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1221" s="1" t="s">
-        <v>5622</v>
+        <v>5626</v>
       </c>
       <c r="C1221" t="s">
         <v>5617</v>
@@ -53085,18 +53079,18 @@
         <v>2</v>
       </c>
       <c r="L1221" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="Q1221" t="s">
-        <v>5623</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="1222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1222" s="1" t="s">
-        <v>5624</v>
+        <v>5639</v>
       </c>
       <c r="C1222" t="s">
-        <v>5617</v>
+        <v>5640</v>
       </c>
       <c r="D1222" s="1">
         <v>68000</v>
@@ -53108,15 +53102,15 @@
         <v>5549</v>
       </c>
       <c r="Q1222" t="s">
-        <v>5625</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="1223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1223" s="1" t="s">
-        <v>5626</v>
+        <v>5642</v>
       </c>
       <c r="C1223" t="s">
-        <v>5617</v>
+        <v>5640</v>
       </c>
       <c r="D1223" s="1">
         <v>68000</v>
@@ -53128,12 +53122,12 @@
         <v>5549</v>
       </c>
       <c r="Q1223" t="s">
-        <v>5627</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="1224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1224" s="1" t="s">
-        <v>5639</v>
+        <v>5644</v>
       </c>
       <c r="C1224" t="s">
         <v>5640</v>
@@ -53148,15 +53142,15 @@
         <v>5549</v>
       </c>
       <c r="Q1224" t="s">
-        <v>5641</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="1225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1225" s="1" t="s">
-        <v>5642</v>
+        <v>1206</v>
       </c>
       <c r="C1225" t="s">
-        <v>5640</v>
+        <v>1207</v>
       </c>
       <c r="D1225" s="1">
         <v>68000</v>
@@ -53165,18 +53159,18 @@
         <v>2</v>
       </c>
       <c r="L1225" t="s">
-        <v>5549</v>
+        <v>5070</v>
       </c>
       <c r="Q1225" t="s">
-        <v>5643</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1226" s="1" t="s">
-        <v>5644</v>
+        <v>1209</v>
       </c>
       <c r="C1226" t="s">
-        <v>5640</v>
+        <v>1207</v>
       </c>
       <c r="D1226" s="1">
         <v>68000</v>
@@ -53188,12 +53182,12 @@
         <v>5549</v>
       </c>
       <c r="Q1226" t="s">
-        <v>5645</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1227" s="1" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="C1227" t="s">
         <v>1207</v>
@@ -53205,15 +53199,15 @@
         <v>2</v>
       </c>
       <c r="L1227" t="s">
-        <v>5070</v>
+        <v>5549</v>
       </c>
       <c r="Q1227" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1228" s="1" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="C1228" t="s">
         <v>1207</v>
@@ -53228,12 +53222,12 @@
         <v>5549</v>
       </c>
       <c r="Q1228" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1229" s="1" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="C1229" t="s">
         <v>1207</v>
@@ -53248,12 +53242,12 @@
         <v>5549</v>
       </c>
       <c r="Q1229" t="s">
-        <v>1212</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="1230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1230" s="1" t="s">
-        <v>1213</v>
+        <v>5647</v>
       </c>
       <c r="C1230" t="s">
         <v>1207</v>
@@ -53268,12 +53262,12 @@
         <v>5549</v>
       </c>
       <c r="Q1230" t="s">
-        <v>1214</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="1231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1231" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C1231" t="s">
         <v>1207</v>
@@ -53288,12 +53282,12 @@
         <v>5549</v>
       </c>
       <c r="Q1231" t="s">
-        <v>5646</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="1232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1232" s="1" t="s">
-        <v>5647</v>
+        <v>1217</v>
       </c>
       <c r="C1232" t="s">
         <v>1207</v>
@@ -53308,12 +53302,12 @@
         <v>5549</v>
       </c>
       <c r="Q1232" t="s">
-        <v>5648</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1233" s="1" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C1233" t="s">
         <v>1207</v>
@@ -53328,12 +53322,12 @@
         <v>5549</v>
       </c>
       <c r="Q1233" t="s">
-        <v>5649</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1234" s="1" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="C1234" t="s">
         <v>1207</v>
@@ -53348,12 +53342,12 @@
         <v>5549</v>
       </c>
       <c r="Q1234" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1235" s="1" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="C1235" t="s">
         <v>1207</v>
@@ -53368,12 +53362,12 @@
         <v>5549</v>
       </c>
       <c r="Q1235" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1236" s="1" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="C1236" t="s">
         <v>1207</v>
@@ -53385,15 +53379,18 @@
         <v>2</v>
       </c>
       <c r="L1236" t="s">
-        <v>5549</v>
+        <v>5070</v>
+      </c>
+      <c r="M1236" t="s">
+        <v>3315</v>
       </c>
       <c r="Q1236" t="s">
-        <v>1222</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1237" s="1" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="C1237" t="s">
         <v>1207</v>
@@ -53408,12 +53405,12 @@
         <v>5549</v>
       </c>
       <c r="Q1237" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1238" s="1" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C1238" t="s">
         <v>1207</v>
@@ -53425,18 +53422,15 @@
         <v>2</v>
       </c>
       <c r="L1238" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1238" t="s">
-        <v>3315</v>
+        <v>5549</v>
       </c>
       <c r="Q1238" t="s">
-        <v>3998</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1239" s="1" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="C1239" t="s">
         <v>1207</v>
@@ -53448,15 +53442,18 @@
         <v>2</v>
       </c>
       <c r="L1239" t="s">
-        <v>5549</v>
+        <v>5070</v>
+      </c>
+      <c r="M1239" t="s">
+        <v>3315</v>
       </c>
       <c r="Q1239" t="s">
-        <v>1227</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="1240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1240" s="1" t="s">
-        <v>1228</v>
+        <v>5650</v>
       </c>
       <c r="C1240" t="s">
         <v>1207</v>
@@ -53468,15 +53465,15 @@
         <v>2</v>
       </c>
       <c r="L1240" t="s">
-        <v>5549</v>
+        <v>5601</v>
       </c>
       <c r="Q1240" t="s">
-        <v>1229</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="1241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1241" s="1" t="s">
-        <v>1230</v>
+        <v>5652</v>
       </c>
       <c r="C1241" t="s">
         <v>1207</v>
@@ -53488,18 +53485,15 @@
         <v>2</v>
       </c>
       <c r="L1241" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1241" t="s">
-        <v>3315</v>
+        <v>5549</v>
       </c>
       <c r="Q1241" t="s">
-        <v>3999</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="1242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1242" s="1" t="s">
-        <v>5650</v>
+        <v>1233</v>
       </c>
       <c r="C1242" t="s">
         <v>1207</v>
@@ -53511,15 +53505,15 @@
         <v>2</v>
       </c>
       <c r="L1242" t="s">
-        <v>5601</v>
+        <v>5549</v>
       </c>
       <c r="Q1242" t="s">
-        <v>5651</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1243" s="1" t="s">
-        <v>5652</v>
+        <v>5654</v>
       </c>
       <c r="C1243" t="s">
         <v>1207</v>
@@ -53534,12 +53528,12 @@
         <v>5549</v>
       </c>
       <c r="Q1243" t="s">
-        <v>5653</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="1244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1244" s="1" t="s">
-        <v>1233</v>
+        <v>5656</v>
       </c>
       <c r="C1244" t="s">
         <v>1207</v>
@@ -53554,12 +53548,12 @@
         <v>5549</v>
       </c>
       <c r="Q1244" t="s">
-        <v>1234</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="1245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1245" s="1" t="s">
-        <v>5654</v>
+        <v>1231</v>
       </c>
       <c r="C1245" t="s">
         <v>1207</v>
@@ -53571,15 +53565,15 @@
         <v>2</v>
       </c>
       <c r="L1245" t="s">
-        <v>5549</v>
+        <v>5601</v>
       </c>
       <c r="Q1245" t="s">
-        <v>5655</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1246" s="1" t="s">
-        <v>5656</v>
+        <v>3606</v>
       </c>
       <c r="C1246" t="s">
         <v>1207</v>
@@ -53591,15 +53585,15 @@
         <v>2</v>
       </c>
       <c r="L1246" t="s">
-        <v>5549</v>
+        <v>5601</v>
       </c>
       <c r="Q1246" t="s">
-        <v>5657</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1247" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C1247" t="s">
         <v>1207</v>
@@ -53611,15 +53605,15 @@
         <v>2</v>
       </c>
       <c r="L1247" t="s">
-        <v>5601</v>
+        <v>5549</v>
       </c>
       <c r="Q1247" t="s">
-        <v>4721</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="1248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1248" s="1" t="s">
-        <v>3606</v>
+        <v>5659</v>
       </c>
       <c r="C1248" t="s">
         <v>1207</v>
@@ -53631,15 +53625,15 @@
         <v>2</v>
       </c>
       <c r="L1248" t="s">
-        <v>5601</v>
+        <v>5549</v>
       </c>
       <c r="Q1248" t="s">
-        <v>4000</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="1249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1249" s="1" t="s">
-        <v>1232</v>
+        <v>5661</v>
       </c>
       <c r="C1249" t="s">
         <v>1207</v>
@@ -53654,52 +53648,64 @@
         <v>5549</v>
       </c>
       <c r="Q1249" t="s">
-        <v>5658</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="1250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1250" s="1" t="s">
-        <v>5659</v>
+        <v>5663</v>
       </c>
       <c r="C1250" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1250" s="1">
         <v>68000</v>
       </c>
       <c r="E1250" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1250">
+        <v>68000</v>
       </c>
       <c r="L1250" t="s">
         <v>5549</v>
       </c>
+      <c r="M1250" t="s">
+        <v>77</v>
+      </c>
       <c r="Q1250" t="s">
-        <v>5660</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="1251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1251" s="1" t="s">
-        <v>5661</v>
+        <v>5666</v>
       </c>
       <c r="C1251" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1251" s="1">
         <v>68000</v>
       </c>
       <c r="E1251" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1251">
+        <v>68000</v>
       </c>
       <c r="L1251" t="s">
         <v>5549</v>
       </c>
+      <c r="M1251" t="s">
+        <v>77</v>
+      </c>
       <c r="Q1251" t="s">
-        <v>5662</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="1252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1252" s="1" t="s">
-        <v>5663</v>
+        <v>5668</v>
       </c>
       <c r="C1252" t="s">
         <v>5664</v>
@@ -53716,16 +53722,13 @@
       <c r="L1252" t="s">
         <v>5549</v>
       </c>
-      <c r="M1252" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1252" t="s">
-        <v>5665</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="1253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1253" s="1" t="s">
-        <v>5666</v>
+        <v>5670</v>
       </c>
       <c r="C1253" t="s">
         <v>5664</v>
@@ -53742,16 +53745,13 @@
       <c r="L1253" t="s">
         <v>5549</v>
       </c>
-      <c r="M1253" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1253" t="s">
-        <v>5667</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="1254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1254" s="1" t="s">
-        <v>5668</v>
+        <v>5672</v>
       </c>
       <c r="C1254" t="s">
         <v>5664</v>
@@ -53769,12 +53769,12 @@
         <v>5549</v>
       </c>
       <c r="Q1254" t="s">
-        <v>5669</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1255" s="1" t="s">
-        <v>5670</v>
+        <v>5674</v>
       </c>
       <c r="C1255" t="s">
         <v>5664</v>
@@ -53792,12 +53792,12 @@
         <v>5549</v>
       </c>
       <c r="Q1255" t="s">
-        <v>5671</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="1256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1256" s="1" t="s">
-        <v>5672</v>
+        <v>5676</v>
       </c>
       <c r="C1256" t="s">
         <v>5664</v>
@@ -53815,12 +53815,12 @@
         <v>5549</v>
       </c>
       <c r="Q1256" t="s">
-        <v>5673</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="1257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1257" s="1" t="s">
-        <v>5674</v>
+        <v>5678</v>
       </c>
       <c r="C1257" t="s">
         <v>5664</v>
@@ -53838,12 +53838,12 @@
         <v>5549</v>
       </c>
       <c r="Q1257" t="s">
-        <v>5675</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="1258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1258" s="1" t="s">
-        <v>5676</v>
+        <v>5680</v>
       </c>
       <c r="C1258" t="s">
         <v>5664</v>
@@ -53851,22 +53851,19 @@
       <c r="D1258" s="1">
         <v>68000</v>
       </c>
-      <c r="E1258" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1258">
+      <c r="E1258">
         <v>68000</v>
       </c>
       <c r="L1258" t="s">
         <v>5549</v>
       </c>
       <c r="Q1258" t="s">
-        <v>5677</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="1259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1259" s="1" t="s">
-        <v>5678</v>
+        <v>5682</v>
       </c>
       <c r="C1259" t="s">
         <v>5664</v>
@@ -53874,22 +53871,19 @@
       <c r="D1259" s="1">
         <v>68000</v>
       </c>
-      <c r="E1259" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1259">
+      <c r="E1259">
         <v>68000</v>
       </c>
       <c r="L1259" t="s">
         <v>5549</v>
       </c>
       <c r="Q1259" t="s">
-        <v>5679</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="1260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1260" s="1" t="s">
-        <v>5680</v>
+        <v>5684</v>
       </c>
       <c r="C1260" t="s">
         <v>5664</v>
@@ -53897,19 +53891,22 @@
       <c r="D1260" s="1">
         <v>68000</v>
       </c>
-      <c r="E1260">
+      <c r="E1260" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F1260">
         <v>68000</v>
       </c>
       <c r="L1260" t="s">
         <v>5549</v>
       </c>
       <c r="Q1260" t="s">
-        <v>5681</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="1261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1261" s="1" t="s">
-        <v>5682</v>
+        <v>5686</v>
       </c>
       <c r="C1261" t="s">
         <v>5664</v>
@@ -53917,19 +53914,22 @@
       <c r="D1261" s="1">
         <v>68000</v>
       </c>
-      <c r="E1261">
+      <c r="E1261" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F1261">
         <v>68000</v>
       </c>
       <c r="L1261" t="s">
         <v>5549</v>
       </c>
       <c r="Q1261" t="s">
-        <v>5683</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="1262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1262" s="1" t="s">
-        <v>5684</v>
+        <v>5688</v>
       </c>
       <c r="C1262" t="s">
         <v>5664</v>
@@ -53937,22 +53937,19 @@
       <c r="D1262" s="1">
         <v>68000</v>
       </c>
-      <c r="E1262" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1262">
+      <c r="E1262">
         <v>68000</v>
       </c>
       <c r="L1262" t="s">
         <v>5549</v>
       </c>
       <c r="Q1262" t="s">
-        <v>5685</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="1263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1263" s="1" t="s">
-        <v>5686</v>
+        <v>5690</v>
       </c>
       <c r="C1263" t="s">
         <v>5664</v>
@@ -53970,12 +53967,12 @@
         <v>5549</v>
       </c>
       <c r="Q1263" t="s">
-        <v>5687</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="1264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1264" s="1" t="s">
-        <v>5688</v>
+        <v>5692</v>
       </c>
       <c r="C1264" t="s">
         <v>5664</v>
@@ -53983,68 +53980,68 @@
       <c r="D1264" s="1">
         <v>68000</v>
       </c>
-      <c r="E1264">
+      <c r="E1264" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F1264">
         <v>68000</v>
       </c>
       <c r="L1264" t="s">
         <v>5549</v>
       </c>
       <c r="Q1264" t="s">
-        <v>5689</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="1265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1265" s="1" t="s">
-        <v>5690</v>
+        <v>5694</v>
       </c>
       <c r="C1265" t="s">
-        <v>5664</v>
-      </c>
-      <c r="D1265" s="1">
-        <v>68000</v>
+        <v>5695</v>
+      </c>
+      <c r="D1265" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1265" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1265">
-        <v>68000</v>
+        <v>3892</v>
       </c>
       <c r="L1265" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1265" t="s">
-        <v>5691</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="1266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1266" s="1" t="s">
-        <v>5692</v>
+        <v>5698</v>
       </c>
       <c r="C1266" t="s">
-        <v>5664</v>
-      </c>
-      <c r="D1266" s="1">
-        <v>68000</v>
+        <v>5699</v>
+      </c>
+      <c r="D1266" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1266" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="F1266">
         <v>68000</v>
       </c>
       <c r="L1266" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1266" t="s">
-        <v>5693</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="1267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1267" s="1" t="s">
-        <v>5694</v>
+        <v>5701</v>
       </c>
       <c r="C1267" t="s">
-        <v>5695</v>
+        <v>5702</v>
       </c>
       <c r="D1267" s="1" t="s">
         <v>1652</v>
@@ -54056,55 +54053,52 @@
         <v>5696</v>
       </c>
       <c r="Q1267" t="s">
-        <v>5697</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="1268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1268" s="1" t="s">
-        <v>5698</v>
+        <v>1235</v>
       </c>
       <c r="C1268" t="s">
-        <v>5699</v>
-      </c>
-      <c r="D1268" s="1" t="s">
-        <v>1652</v>
+        <v>1236</v>
+      </c>
+      <c r="D1268" s="1">
+        <v>68000</v>
       </c>
       <c r="E1268" t="s">
-        <v>3892</v>
-      </c>
-      <c r="F1268">
-        <v>68000</v>
+        <v>2426</v>
       </c>
       <c r="L1268" t="s">
-        <v>5696</v>
+        <v>5549</v>
       </c>
       <c r="Q1268" t="s">
-        <v>5700</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1269" s="1" t="s">
-        <v>5701</v>
+        <v>1238</v>
       </c>
       <c r="C1269" t="s">
-        <v>5702</v>
-      </c>
-      <c r="D1269" s="1" t="s">
-        <v>1652</v>
+        <v>1236</v>
+      </c>
+      <c r="D1269" s="1">
+        <v>68000</v>
       </c>
       <c r="E1269" t="s">
-        <v>3892</v>
+        <v>2426</v>
       </c>
       <c r="L1269" t="s">
-        <v>5696</v>
+        <v>5549</v>
       </c>
       <c r="Q1269" t="s">
-        <v>5703</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1270" s="1" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="C1270" t="s">
         <v>1236</v>
@@ -54119,12 +54113,12 @@
         <v>5549</v>
       </c>
       <c r="Q1270" t="s">
-        <v>1237</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="1271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1271" s="1" t="s">
-        <v>1238</v>
+        <v>5705</v>
       </c>
       <c r="C1271" t="s">
         <v>1236</v>
@@ -54139,12 +54133,12 @@
         <v>5549</v>
       </c>
       <c r="Q1271" t="s">
-        <v>1239</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="1272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1272" s="1" t="s">
-        <v>1240</v>
+        <v>5707</v>
       </c>
       <c r="C1272" t="s">
         <v>1236</v>
@@ -54159,12 +54153,12 @@
         <v>5549</v>
       </c>
       <c r="Q1272" t="s">
-        <v>5704</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1273" s="1" t="s">
-        <v>5705</v>
+        <v>1242</v>
       </c>
       <c r="C1273" t="s">
         <v>1236</v>
@@ -54179,12 +54173,12 @@
         <v>5549</v>
       </c>
       <c r="Q1273" t="s">
-        <v>5706</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1274" s="1" t="s">
-        <v>5707</v>
+        <v>1244</v>
       </c>
       <c r="C1274" t="s">
         <v>1236</v>
@@ -54199,12 +54193,12 @@
         <v>5549</v>
       </c>
       <c r="Q1274" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1275" s="1" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="C1275" t="s">
         <v>1236</v>
@@ -54219,12 +54213,12 @@
         <v>5549</v>
       </c>
       <c r="Q1275" t="s">
-        <v>1243</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="1276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1276" s="1" t="s">
-        <v>1244</v>
+        <v>5709</v>
       </c>
       <c r="C1276" t="s">
         <v>1236</v>
@@ -54239,12 +54233,12 @@
         <v>5549</v>
       </c>
       <c r="Q1276" t="s">
-        <v>1245</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="1277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1277" s="1" t="s">
-        <v>1246</v>
+        <v>5711</v>
       </c>
       <c r="C1277" t="s">
         <v>1236</v>
@@ -54259,12 +54253,12 @@
         <v>5549</v>
       </c>
       <c r="Q1277" t="s">
-        <v>5708</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1278" s="1" t="s">
-        <v>5709</v>
+        <v>1248</v>
       </c>
       <c r="C1278" t="s">
         <v>1236</v>
@@ -54279,12 +54273,12 @@
         <v>5549</v>
       </c>
       <c r="Q1278" t="s">
-        <v>5710</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1279" s="1" t="s">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="C1279" t="s">
         <v>1236</v>
@@ -54296,15 +54290,15 @@
         <v>2426</v>
       </c>
       <c r="L1279" t="s">
-        <v>5549</v>
+        <v>5070</v>
       </c>
       <c r="Q1279" t="s">
-        <v>1247</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="1280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1280" s="1" t="s">
-        <v>1248</v>
+        <v>5714</v>
       </c>
       <c r="C1280" t="s">
         <v>1236</v>
@@ -54319,12 +54313,12 @@
         <v>5549</v>
       </c>
       <c r="Q1280" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1281" s="1" t="s">
-        <v>5712</v>
+        <v>1251</v>
       </c>
       <c r="C1281" t="s">
         <v>1236</v>
@@ -54336,15 +54330,15 @@
         <v>2426</v>
       </c>
       <c r="L1281" t="s">
-        <v>5070</v>
+        <v>5549</v>
       </c>
       <c r="Q1281" t="s">
-        <v>5713</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="1282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1282" s="1" t="s">
-        <v>5714</v>
+        <v>1252</v>
       </c>
       <c r="C1282" t="s">
         <v>1236</v>
@@ -54359,12 +54353,12 @@
         <v>5549</v>
       </c>
       <c r="Q1282" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1283" s="1" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="C1283" t="s">
         <v>1236</v>
@@ -54379,12 +54373,12 @@
         <v>5549</v>
       </c>
       <c r="Q1283" t="s">
-        <v>4001</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1284" s="1" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="C1284" t="s">
         <v>1236</v>
@@ -54399,12 +54393,12 @@
         <v>5549</v>
       </c>
       <c r="Q1284" t="s">
-        <v>1253</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1285" s="1" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C1285" t="s">
         <v>1236</v>
@@ -54419,12 +54413,12 @@
         <v>5549</v>
       </c>
       <c r="Q1285" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1286" s="1" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C1286" t="s">
         <v>1236</v>
@@ -54439,12 +54433,12 @@
         <v>5549</v>
       </c>
       <c r="Q1286" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1287" s="1" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C1287" t="s">
         <v>1236</v>
@@ -54459,12 +54453,12 @@
         <v>5549</v>
       </c>
       <c r="Q1287" t="s">
-        <v>1258</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="1288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1288" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C1288" t="s">
         <v>1236</v>
@@ -54479,12 +54473,12 @@
         <v>5549</v>
       </c>
       <c r="Q1288" t="s">
-        <v>4003</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1289" s="1" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="C1289" t="s">
         <v>1236</v>
@@ -54499,12 +54493,12 @@
         <v>5549</v>
       </c>
       <c r="Q1289" t="s">
-        <v>4722</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1290" s="1" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="C1290" t="s">
         <v>1236</v>
@@ -54519,12 +54513,12 @@
         <v>5549</v>
       </c>
       <c r="Q1290" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1291" s="1" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="C1291" t="s">
         <v>1236</v>
@@ -54539,12 +54533,12 @@
         <v>5549</v>
       </c>
       <c r="Q1291" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1292" s="1" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="C1292" t="s">
         <v>1236</v>
@@ -54559,12 +54553,12 @@
         <v>5549</v>
       </c>
       <c r="Q1292" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1293" s="1" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="C1293" t="s">
         <v>1236</v>
@@ -54579,12 +54573,12 @@
         <v>5549</v>
       </c>
       <c r="Q1293" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1294" s="1" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="C1294" t="s">
         <v>1236</v>
@@ -54599,12 +54593,12 @@
         <v>5549</v>
       </c>
       <c r="Q1294" t="s">
-        <v>1270</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1295" s="1" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C1295" t="s">
         <v>1236</v>
@@ -54619,12 +54613,12 @@
         <v>5549</v>
       </c>
       <c r="Q1295" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1296" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="C1296" t="s">
         <v>1236</v>
@@ -54639,12 +54633,12 @@
         <v>5549</v>
       </c>
       <c r="Q1296" t="s">
-        <v>4004</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1297" s="1" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="C1297" t="s">
         <v>1236</v>
@@ -54659,12 +54653,12 @@
         <v>5549</v>
       </c>
       <c r="Q1297" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1298" s="1" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="C1298" t="s">
         <v>1236</v>
@@ -54679,12 +54673,12 @@
         <v>5549</v>
       </c>
       <c r="Q1298" t="s">
-        <v>1277</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="1299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1299" s="1" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="C1299" t="s">
         <v>1236</v>
@@ -54699,12 +54693,12 @@
         <v>5549</v>
       </c>
       <c r="Q1299" t="s">
-        <v>1279</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1300" s="1" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C1300" t="s">
         <v>1236</v>
@@ -54719,12 +54713,12 @@
         <v>5549</v>
       </c>
       <c r="Q1300" t="s">
-        <v>4005</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1301" s="1" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C1301" t="s">
         <v>1236</v>
@@ -54739,12 +54733,12 @@
         <v>5549</v>
       </c>
       <c r="Q1301" t="s">
-        <v>4006</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1302" s="1" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C1302" t="s">
         <v>1236</v>
@@ -54759,12 +54753,12 @@
         <v>5549</v>
       </c>
       <c r="Q1302" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1303" s="1" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="C1303" t="s">
         <v>1236</v>
@@ -54779,12 +54773,12 @@
         <v>5549</v>
       </c>
       <c r="Q1303" t="s">
-        <v>1285</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1304" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="C1304" t="s">
         <v>1236</v>
@@ -54799,12 +54793,12 @@
         <v>5549</v>
       </c>
       <c r="Q1304" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1305" s="1" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="C1305" t="s">
         <v>1236</v>
@@ -54819,12 +54813,12 @@
         <v>5549</v>
       </c>
       <c r="Q1305" t="s">
-        <v>4723</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1306" s="1" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="C1306" t="s">
         <v>1236</v>
@@ -54839,12 +54833,12 @@
         <v>5549</v>
       </c>
       <c r="Q1306" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1307" s="1" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="C1307" t="s">
         <v>1236</v>
@@ -54859,12 +54853,12 @@
         <v>5549</v>
       </c>
       <c r="Q1307" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1308" s="1" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="C1308" t="s">
         <v>1236</v>
@@ -54879,12 +54873,12 @@
         <v>5549</v>
       </c>
       <c r="Q1308" t="s">
-        <v>1294</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="1309" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1309" s="1" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="C1309" t="s">
         <v>1236</v>
@@ -54899,12 +54893,12 @@
         <v>5549</v>
       </c>
       <c r="Q1309" t="s">
-        <v>1296</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1310" s="1" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C1310" t="s">
         <v>1236</v>
@@ -54919,12 +54913,12 @@
         <v>5549</v>
       </c>
       <c r="Q1310" t="s">
-        <v>4007</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1311" s="1" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="C1311" t="s">
         <v>1236</v>
@@ -54939,12 +54933,12 @@
         <v>5549</v>
       </c>
       <c r="Q1311" t="s">
-        <v>4008</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1312" s="1" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="C1312" t="s">
         <v>1236</v>
@@ -54959,12 +54953,12 @@
         <v>5549</v>
       </c>
       <c r="Q1312" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1313" s="1" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="C1313" t="s">
         <v>1236</v>
@@ -54979,12 +54973,12 @@
         <v>5549</v>
       </c>
       <c r="Q1313" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1314" s="1" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="C1314" t="s">
         <v>1236</v>
@@ -54999,12 +54993,12 @@
         <v>5549</v>
       </c>
       <c r="Q1314" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1315" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1315" s="1" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="C1315" t="s">
         <v>1236</v>
@@ -55019,12 +55013,12 @@
         <v>5549</v>
       </c>
       <c r="Q1315" t="s">
-        <v>1306</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="1316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1316" s="1" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C1316" t="s">
         <v>1236</v>
@@ -55039,12 +55033,12 @@
         <v>5549</v>
       </c>
       <c r="Q1316" t="s">
-        <v>1308</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1317" s="1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C1317" t="s">
         <v>1236</v>
@@ -55059,12 +55053,12 @@
         <v>5549</v>
       </c>
       <c r="Q1317" t="s">
-        <v>4009</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1318" s="1" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C1318" t="s">
         <v>1236</v>
@@ -55079,12 +55073,12 @@
         <v>5549</v>
       </c>
       <c r="Q1318" t="s">
-        <v>4010</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1319" s="1" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C1319" t="s">
         <v>1236</v>
@@ -55096,55 +55090,55 @@
         <v>2426</v>
       </c>
       <c r="L1319" t="s">
-        <v>5549</v>
+        <v>1687</v>
       </c>
       <c r="Q1319" t="s">
-        <v>4724</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1320" s="1" t="s">
-        <v>1312</v>
+        <v>5715</v>
       </c>
       <c r="C1320" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1320" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1320" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1320" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1320" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1320" t="s">
-        <v>1313</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="1321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1321" s="1" t="s">
-        <v>1314</v>
+        <v>5718</v>
       </c>
       <c r="C1321" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1321" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1321" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1321" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1321" t="s">
-        <v>1687</v>
+        <v>5696</v>
       </c>
       <c r="Q1321" t="s">
-        <v>1315</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="1322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1322" s="1" t="s">
-        <v>5715</v>
+        <v>5720</v>
       </c>
       <c r="C1322" t="s">
         <v>5716</v>
@@ -55159,12 +55153,12 @@
         <v>5696</v>
       </c>
       <c r="Q1322" t="s">
-        <v>5717</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="1323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1323" s="1" t="s">
-        <v>5718</v>
+        <v>5722</v>
       </c>
       <c r="C1323" t="s">
         <v>5716</v>
@@ -55179,12 +55173,12 @@
         <v>5696</v>
       </c>
       <c r="Q1323" t="s">
-        <v>5719</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="1324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1324" s="1" t="s">
-        <v>5720</v>
+        <v>5724</v>
       </c>
       <c r="C1324" t="s">
         <v>5716</v>
@@ -55199,12 +55193,12 @@
         <v>5696</v>
       </c>
       <c r="Q1324" t="s">
-        <v>5721</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="1325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1325" s="1" t="s">
-        <v>5722</v>
+        <v>5726</v>
       </c>
       <c r="C1325" t="s">
         <v>5716</v>
@@ -55219,12 +55213,12 @@
         <v>5696</v>
       </c>
       <c r="Q1325" t="s">
-        <v>5723</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="1326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1326" s="1" t="s">
-        <v>5724</v>
+        <v>5728</v>
       </c>
       <c r="C1326" t="s">
         <v>5716</v>
@@ -55239,12 +55233,12 @@
         <v>5696</v>
       </c>
       <c r="Q1326" t="s">
-        <v>5725</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="1327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1327" s="1" t="s">
-        <v>5726</v>
+        <v>5730</v>
       </c>
       <c r="C1327" t="s">
         <v>5716</v>
@@ -55259,12 +55253,12 @@
         <v>5696</v>
       </c>
       <c r="Q1327" t="s">
-        <v>5727</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="1328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1328" s="1" t="s">
-        <v>5728</v>
+        <v>5732</v>
       </c>
       <c r="C1328" t="s">
         <v>5716</v>
@@ -55279,12 +55273,12 @@
         <v>5696</v>
       </c>
       <c r="Q1328" t="s">
-        <v>5729</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="1329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1329" s="1" t="s">
-        <v>5730</v>
+        <v>5734</v>
       </c>
       <c r="C1329" t="s">
         <v>5716</v>
@@ -55299,12 +55293,12 @@
         <v>5696</v>
       </c>
       <c r="Q1329" t="s">
-        <v>5731</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="1330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1330" s="1" t="s">
-        <v>5732</v>
+        <v>5736</v>
       </c>
       <c r="C1330" t="s">
         <v>5716</v>
@@ -55319,12 +55313,12 @@
         <v>5696</v>
       </c>
       <c r="Q1330" t="s">
-        <v>5733</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="1331" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1331" s="1" t="s">
-        <v>5734</v>
+        <v>5738</v>
       </c>
       <c r="C1331" t="s">
         <v>5716</v>
@@ -55339,12 +55333,12 @@
         <v>5696</v>
       </c>
       <c r="Q1331" t="s">
-        <v>5735</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="1332" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1332" s="1" t="s">
-        <v>5736</v>
+        <v>5740</v>
       </c>
       <c r="C1332" t="s">
         <v>5716</v>
@@ -55359,12 +55353,12 @@
         <v>5696</v>
       </c>
       <c r="Q1332" t="s">
-        <v>5737</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="1333" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1333" s="1" t="s">
-        <v>5738</v>
+        <v>5742</v>
       </c>
       <c r="C1333" t="s">
         <v>5716</v>
@@ -55379,12 +55373,12 @@
         <v>5696</v>
       </c>
       <c r="Q1333" t="s">
-        <v>5739</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="1334" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1334" s="1" t="s">
-        <v>5740</v>
+        <v>5744</v>
       </c>
       <c r="C1334" t="s">
         <v>5716</v>
@@ -55399,12 +55393,12 @@
         <v>5696</v>
       </c>
       <c r="Q1334" t="s">
-        <v>5741</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="1335" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1335" s="1" t="s">
-        <v>5742</v>
+        <v>5746</v>
       </c>
       <c r="C1335" t="s">
         <v>5716</v>
@@ -55419,12 +55413,12 @@
         <v>5696</v>
       </c>
       <c r="Q1335" t="s">
-        <v>5743</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="1336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1336" s="1" t="s">
-        <v>5744</v>
+        <v>5748</v>
       </c>
       <c r="C1336" t="s">
         <v>5716</v>
@@ -55439,12 +55433,12 @@
         <v>5696</v>
       </c>
       <c r="Q1336" t="s">
-        <v>5745</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="1337" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1337" s="1" t="s">
-        <v>5746</v>
+        <v>5750</v>
       </c>
       <c r="C1337" t="s">
         <v>5716</v>
@@ -55459,12 +55453,12 @@
         <v>5696</v>
       </c>
       <c r="Q1337" t="s">
-        <v>5747</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="1338" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1338" s="1" t="s">
-        <v>5748</v>
+        <v>5752</v>
       </c>
       <c r="C1338" t="s">
         <v>5716</v>
@@ -55479,12 +55473,12 @@
         <v>5696</v>
       </c>
       <c r="Q1338" t="s">
-        <v>5749</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="1339" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1339" s="1" t="s">
-        <v>5750</v>
+        <v>5754</v>
       </c>
       <c r="C1339" t="s">
         <v>5716</v>
@@ -55499,12 +55493,12 @@
         <v>5696</v>
       </c>
       <c r="Q1339" t="s">
-        <v>5751</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="1340" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1340" s="1" t="s">
-        <v>5752</v>
+        <v>5756</v>
       </c>
       <c r="C1340" t="s">
         <v>5716</v>
@@ -55519,12 +55513,12 @@
         <v>5696</v>
       </c>
       <c r="Q1340" t="s">
-        <v>5753</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="1341" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1341" s="1" t="s">
-        <v>5754</v>
+        <v>5758</v>
       </c>
       <c r="C1341" t="s">
         <v>5716</v>
@@ -55539,12 +55533,12 @@
         <v>5696</v>
       </c>
       <c r="Q1341" t="s">
-        <v>5755</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="1342" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1342" s="1" t="s">
-        <v>5756</v>
+        <v>5760</v>
       </c>
       <c r="C1342" t="s">
         <v>5716</v>
@@ -55559,12 +55553,12 @@
         <v>5696</v>
       </c>
       <c r="Q1342" t="s">
-        <v>5757</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="1343" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1343" s="1" t="s">
-        <v>5758</v>
+        <v>5762</v>
       </c>
       <c r="C1343" t="s">
         <v>5716</v>
@@ -55579,12 +55573,12 @@
         <v>5696</v>
       </c>
       <c r="Q1343" t="s">
-        <v>5759</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="1344" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1344" s="1" t="s">
-        <v>5760</v>
+        <v>5764</v>
       </c>
       <c r="C1344" t="s">
         <v>5716</v>
@@ -55599,12 +55593,12 @@
         <v>5696</v>
       </c>
       <c r="Q1344" t="s">
-        <v>5761</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="1345" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1345" s="1" t="s">
-        <v>5762</v>
+        <v>5766</v>
       </c>
       <c r="C1345" t="s">
         <v>5716</v>
@@ -55619,12 +55613,12 @@
         <v>5696</v>
       </c>
       <c r="Q1345" t="s">
-        <v>5763</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="1346" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1346" s="1" t="s">
-        <v>5764</v>
+        <v>5768</v>
       </c>
       <c r="C1346" t="s">
         <v>5716</v>
@@ -55639,12 +55633,12 @@
         <v>5696</v>
       </c>
       <c r="Q1346" t="s">
-        <v>5765</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="1347" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1347" s="1" t="s">
-        <v>5766</v>
+        <v>5770</v>
       </c>
       <c r="C1347" t="s">
         <v>5716</v>
@@ -55659,12 +55653,12 @@
         <v>5696</v>
       </c>
       <c r="Q1347" t="s">
-        <v>5767</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="1348" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1348" s="1" t="s">
-        <v>5768</v>
+        <v>5772</v>
       </c>
       <c r="C1348" t="s">
         <v>5716</v>
@@ -55679,12 +55673,12 @@
         <v>5696</v>
       </c>
       <c r="Q1348" t="s">
-        <v>5769</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="1349" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1349" s="1" t="s">
-        <v>5770</v>
+        <v>5774</v>
       </c>
       <c r="C1349" t="s">
         <v>5716</v>
@@ -55699,12 +55693,12 @@
         <v>5696</v>
       </c>
       <c r="Q1349" t="s">
-        <v>5771</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="1350" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1350" s="1" t="s">
-        <v>5772</v>
+        <v>5776</v>
       </c>
       <c r="C1350" t="s">
         <v>5716</v>
@@ -55719,12 +55713,12 @@
         <v>5696</v>
       </c>
       <c r="Q1350" t="s">
-        <v>5773</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="1351" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1351" s="1" t="s">
-        <v>5774</v>
+        <v>5778</v>
       </c>
       <c r="C1351" t="s">
         <v>5716</v>
@@ -55739,12 +55733,12 @@
         <v>5696</v>
       </c>
       <c r="Q1351" t="s">
-        <v>5775</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="1352" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1352" s="1" t="s">
-        <v>5776</v>
+        <v>5780</v>
       </c>
       <c r="C1352" t="s">
         <v>5716</v>
@@ -55759,12 +55753,12 @@
         <v>5696</v>
       </c>
       <c r="Q1352" t="s">
-        <v>5777</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="1353" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1353" s="1" t="s">
-        <v>5778</v>
+        <v>5782</v>
       </c>
       <c r="C1353" t="s">
         <v>5716</v>
@@ -55779,12 +55773,12 @@
         <v>5696</v>
       </c>
       <c r="Q1353" t="s">
-        <v>5779</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="1354" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1354" s="1" t="s">
-        <v>5780</v>
+        <v>5784</v>
       </c>
       <c r="C1354" t="s">
         <v>5716</v>
@@ -55799,12 +55793,12 @@
         <v>5696</v>
       </c>
       <c r="Q1354" t="s">
-        <v>5781</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="1355" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1355" s="1" t="s">
-        <v>5782</v>
+        <v>5786</v>
       </c>
       <c r="C1355" t="s">
         <v>5716</v>
@@ -55819,12 +55813,12 @@
         <v>5696</v>
       </c>
       <c r="Q1355" t="s">
-        <v>5783</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="1356" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1356" s="1" t="s">
-        <v>5784</v>
+        <v>5788</v>
       </c>
       <c r="C1356" t="s">
         <v>5716</v>
@@ -55839,12 +55833,12 @@
         <v>5696</v>
       </c>
       <c r="Q1356" t="s">
-        <v>5785</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="1357" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1357" s="1" t="s">
-        <v>5786</v>
+        <v>5790</v>
       </c>
       <c r="C1357" t="s">
         <v>5716</v>
@@ -55859,12 +55853,12 @@
         <v>5696</v>
       </c>
       <c r="Q1357" t="s">
-        <v>5787</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="1358" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1358" s="1" t="s">
-        <v>5788</v>
+        <v>5792</v>
       </c>
       <c r="C1358" t="s">
         <v>5716</v>
@@ -55879,12 +55873,12 @@
         <v>5696</v>
       </c>
       <c r="Q1358" t="s">
-        <v>5789</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="1359" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1359" s="1" t="s">
-        <v>5790</v>
+        <v>5794</v>
       </c>
       <c r="C1359" t="s">
         <v>5716</v>
@@ -55899,12 +55893,12 @@
         <v>5696</v>
       </c>
       <c r="Q1359" t="s">
-        <v>5791</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="1360" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1360" s="1" t="s">
-        <v>5792</v>
+        <v>5796</v>
       </c>
       <c r="C1360" t="s">
         <v>5716</v>
@@ -55919,12 +55913,12 @@
         <v>5696</v>
       </c>
       <c r="Q1360" t="s">
-        <v>5793</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="1361" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1361" s="1" t="s">
-        <v>5794</v>
+        <v>5798</v>
       </c>
       <c r="C1361" t="s">
         <v>5716</v>
@@ -55939,12 +55933,12 @@
         <v>5696</v>
       </c>
       <c r="Q1361" t="s">
-        <v>5795</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="1362" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1362" s="1" t="s">
-        <v>5796</v>
+        <v>5800</v>
       </c>
       <c r="C1362" t="s">
         <v>5716</v>
@@ -55959,12 +55953,12 @@
         <v>5696</v>
       </c>
       <c r="Q1362" t="s">
-        <v>5797</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="1363" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1363" s="1" t="s">
-        <v>5798</v>
+        <v>5802</v>
       </c>
       <c r="C1363" t="s">
         <v>5716</v>
@@ -55979,12 +55973,12 @@
         <v>5696</v>
       </c>
       <c r="Q1363" t="s">
-        <v>5799</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="1364" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1364" s="1" t="s">
-        <v>5800</v>
+        <v>5804</v>
       </c>
       <c r="C1364" t="s">
         <v>5716</v>
@@ -55999,12 +55993,12 @@
         <v>5696</v>
       </c>
       <c r="Q1364" t="s">
-        <v>5801</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="1365" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1365" s="1" t="s">
-        <v>5802</v>
+        <v>5806</v>
       </c>
       <c r="C1365" t="s">
         <v>5716</v>
@@ -56019,12 +56013,12 @@
         <v>5696</v>
       </c>
       <c r="Q1365" t="s">
-        <v>5803</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="1366" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1366" s="1" t="s">
-        <v>5804</v>
+        <v>5808</v>
       </c>
       <c r="C1366" t="s">
         <v>5716</v>
@@ -56039,12 +56033,12 @@
         <v>5696</v>
       </c>
       <c r="Q1366" t="s">
-        <v>5805</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="1367" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1367" s="1" t="s">
-        <v>5806</v>
+        <v>5810</v>
       </c>
       <c r="C1367" t="s">
         <v>5716</v>
@@ -56059,12 +56053,12 @@
         <v>5696</v>
       </c>
       <c r="Q1367" t="s">
-        <v>5807</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="1368" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1368" s="1" t="s">
-        <v>5808</v>
+        <v>5812</v>
       </c>
       <c r="C1368" t="s">
         <v>5716</v>
@@ -56079,12 +56073,12 @@
         <v>5696</v>
       </c>
       <c r="Q1368" t="s">
-        <v>5809</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="1369" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1369" s="1" t="s">
-        <v>5810</v>
+        <v>5814</v>
       </c>
       <c r="C1369" t="s">
         <v>5716</v>
@@ -56099,12 +56093,12 @@
         <v>5696</v>
       </c>
       <c r="Q1369" t="s">
-        <v>5811</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="1370" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1370" s="1" t="s">
-        <v>5812</v>
+        <v>5816</v>
       </c>
       <c r="C1370" t="s">
         <v>5716</v>
@@ -56119,12 +56113,12 @@
         <v>5696</v>
       </c>
       <c r="Q1370" t="s">
-        <v>5813</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="1371" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1371" s="1" t="s">
-        <v>5814</v>
+        <v>5818</v>
       </c>
       <c r="C1371" t="s">
         <v>5716</v>
@@ -56139,12 +56133,12 @@
         <v>5696</v>
       </c>
       <c r="Q1371" t="s">
-        <v>5815</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="1372" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1372" s="1" t="s">
-        <v>5816</v>
+        <v>5820</v>
       </c>
       <c r="C1372" t="s">
         <v>5716</v>
@@ -56159,12 +56153,12 @@
         <v>5696</v>
       </c>
       <c r="Q1372" t="s">
-        <v>5817</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="1373" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1373" s="1" t="s">
-        <v>5818</v>
+        <v>5822</v>
       </c>
       <c r="C1373" t="s">
         <v>5716</v>
@@ -56179,12 +56173,12 @@
         <v>5696</v>
       </c>
       <c r="Q1373" t="s">
-        <v>5819</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="1374" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1374" s="1" t="s">
-        <v>5820</v>
+        <v>5824</v>
       </c>
       <c r="C1374" t="s">
         <v>5716</v>
@@ -56199,12 +56193,12 @@
         <v>5696</v>
       </c>
       <c r="Q1374" t="s">
-        <v>5821</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="1375" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1375" s="1" t="s">
-        <v>5822</v>
+        <v>5826</v>
       </c>
       <c r="C1375" t="s">
         <v>5716</v>
@@ -56219,12 +56213,12 @@
         <v>5696</v>
       </c>
       <c r="Q1375" t="s">
-        <v>5823</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="1376" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1376" s="1" t="s">
-        <v>5824</v>
+        <v>5828</v>
       </c>
       <c r="C1376" t="s">
         <v>5716</v>
@@ -56239,12 +56233,12 @@
         <v>5696</v>
       </c>
       <c r="Q1376" t="s">
-        <v>5825</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="1377" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1377" s="1" t="s">
-        <v>5826</v>
+        <v>5830</v>
       </c>
       <c r="C1377" t="s">
         <v>5716</v>
@@ -56259,12 +56253,12 @@
         <v>5696</v>
       </c>
       <c r="Q1377" t="s">
-        <v>5827</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="1378" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1378" s="1" t="s">
-        <v>5828</v>
+        <v>5832</v>
       </c>
       <c r="C1378" t="s">
         <v>5716</v>
@@ -56279,12 +56273,12 @@
         <v>5696</v>
       </c>
       <c r="Q1378" t="s">
-        <v>5829</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="1379" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1379" s="1" t="s">
-        <v>5830</v>
+        <v>5834</v>
       </c>
       <c r="C1379" t="s">
         <v>5716</v>
@@ -56299,12 +56293,12 @@
         <v>5696</v>
       </c>
       <c r="Q1379" t="s">
-        <v>5831</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="1380" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1380" s="1" t="s">
-        <v>5832</v>
+        <v>5836</v>
       </c>
       <c r="C1380" t="s">
         <v>5716</v>
@@ -56319,12 +56313,12 @@
         <v>5696</v>
       </c>
       <c r="Q1380" t="s">
-        <v>5833</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="1381" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1381" s="1" t="s">
-        <v>5834</v>
+        <v>5838</v>
       </c>
       <c r="C1381" t="s">
         <v>5716</v>
@@ -56339,12 +56333,12 @@
         <v>5696</v>
       </c>
       <c r="Q1381" t="s">
-        <v>5835</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="1382" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1382" s="1" t="s">
-        <v>5836</v>
+        <v>5840</v>
       </c>
       <c r="C1382" t="s">
         <v>5716</v>
@@ -56359,12 +56353,12 @@
         <v>5696</v>
       </c>
       <c r="Q1382" t="s">
-        <v>5837</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="1383" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1383" s="1" t="s">
-        <v>5838</v>
+        <v>5842</v>
       </c>
       <c r="C1383" t="s">
         <v>5716</v>
@@ -56379,12 +56373,12 @@
         <v>5696</v>
       </c>
       <c r="Q1383" t="s">
-        <v>5839</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="1384" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1384" s="1" t="s">
-        <v>5840</v>
+        <v>5844</v>
       </c>
       <c r="C1384" t="s">
         <v>5716</v>
@@ -56399,52 +56393,58 @@
         <v>5696</v>
       </c>
       <c r="Q1384" t="s">
-        <v>5841</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="1385" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1385" s="1" t="s">
-        <v>5842</v>
+        <v>1339</v>
       </c>
       <c r="C1385" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1385" s="1" t="s">
-        <v>1652</v>
+        <v>1340</v>
+      </c>
+      <c r="D1385" s="1">
+        <v>68000</v>
       </c>
       <c r="E1385" t="s">
-        <v>3892</v>
+        <v>2</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>4013</v>
       </c>
       <c r="L1385" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1385" t="s">
-        <v>5843</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1386" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1386" s="1" t="s">
-        <v>5844</v>
+        <v>1342</v>
       </c>
       <c r="C1386" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1386" s="1" t="s">
-        <v>1652</v>
+        <v>1340</v>
+      </c>
+      <c r="D1386" s="1">
+        <v>68000</v>
       </c>
       <c r="E1386" t="s">
-        <v>3892</v>
+        <v>2</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>4013</v>
       </c>
       <c r="L1386" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1386" t="s">
-        <v>5845</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1387" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1387" s="1" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="C1387" t="s">
         <v>1340</v>
@@ -56462,12 +56462,12 @@
         <v>5071</v>
       </c>
       <c r="Q1387" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1388" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1388" s="1" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="C1388" t="s">
         <v>1340</v>
@@ -56485,12 +56485,12 @@
         <v>5071</v>
       </c>
       <c r="Q1388" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1389" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1389" s="1" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="C1389" t="s">
         <v>1340</v>
@@ -56508,12 +56508,12 @@
         <v>5071</v>
       </c>
       <c r="Q1389" t="s">
-        <v>1345</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1390" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1390" s="1" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
       <c r="C1390" t="s">
         <v>1340</v>
@@ -56531,12 +56531,12 @@
         <v>5071</v>
       </c>
       <c r="Q1390" t="s">
-        <v>1347</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1391" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1391" s="1" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="C1391" t="s">
         <v>1340</v>
@@ -56554,58 +56554,52 @@
         <v>5071</v>
       </c>
       <c r="Q1391" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1392" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1392" s="1" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="C1392" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="D1392" s="1">
         <v>68000</v>
       </c>
       <c r="E1392" t="s">
         <v>2</v>
-      </c>
-      <c r="F1392" t="s">
-        <v>4013</v>
       </c>
       <c r="L1392" t="s">
         <v>5071</v>
       </c>
       <c r="Q1392" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1393" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1393" s="1" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="C1393" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="D1393" s="1">
         <v>68000</v>
       </c>
       <c r="E1393" t="s">
         <v>2</v>
-      </c>
-      <c r="F1393" t="s">
-        <v>4013</v>
       </c>
       <c r="L1393" t="s">
         <v>5071</v>
       </c>
       <c r="Q1393" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1394" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1394" s="1" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="C1394" t="s">
         <v>1362</v>
@@ -56620,12 +56614,12 @@
         <v>5071</v>
       </c>
       <c r="Q1394" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1395" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1395" s="1" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="C1395" t="s">
         <v>1362</v>
@@ -56640,12 +56634,12 @@
         <v>5071</v>
       </c>
       <c r="Q1395" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1396" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1396" s="1" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="C1396" t="s">
         <v>1362</v>
@@ -56656,16 +56650,19 @@
       <c r="E1396" t="s">
         <v>2</v>
       </c>
+      <c r="F1396" t="s">
+        <v>4013</v>
+      </c>
       <c r="L1396" t="s">
         <v>5071</v>
       </c>
       <c r="Q1396" t="s">
-        <v>1367</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1397" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1397" s="1" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="C1397" t="s">
         <v>1362</v>
@@ -56673,19 +56670,16 @@
       <c r="D1397" s="1">
         <v>68000</v>
       </c>
-      <c r="E1397" t="s">
-        <v>2</v>
-      </c>
       <c r="L1397" t="s">
         <v>5071</v>
       </c>
       <c r="Q1397" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1398" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1398" s="1" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="C1398" t="s">
         <v>1362</v>
@@ -56693,22 +56687,16 @@
       <c r="D1398" s="1">
         <v>68000</v>
       </c>
-      <c r="E1398" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1398" t="s">
-        <v>4013</v>
-      </c>
       <c r="L1398" t="s">
         <v>5071</v>
       </c>
       <c r="Q1398" t="s">
-        <v>4014</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1399" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1399" s="1" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="C1399" t="s">
         <v>1362</v>
@@ -56716,16 +56704,19 @@
       <c r="D1399" s="1">
         <v>68000</v>
       </c>
+      <c r="E1399" t="s">
+        <v>2</v>
+      </c>
       <c r="L1399" t="s">
         <v>5071</v>
       </c>
       <c r="Q1399" t="s">
-        <v>1372</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="1400" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1400" s="1" t="s">
-        <v>1373</v>
+        <v>5851</v>
       </c>
       <c r="C1400" t="s">
         <v>1362</v>
@@ -56733,16 +56724,19 @@
       <c r="D1400" s="1">
         <v>68000</v>
       </c>
+      <c r="E1400" t="s">
+        <v>2</v>
+      </c>
       <c r="L1400" t="s">
         <v>5071</v>
       </c>
       <c r="Q1400" t="s">
-        <v>1374</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="1401" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1401" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C1401" t="s">
         <v>1362</v>
@@ -56750,19 +56744,16 @@
       <c r="D1401" s="1">
         <v>68000</v>
       </c>
-      <c r="E1401" t="s">
-        <v>2</v>
-      </c>
       <c r="L1401" t="s">
         <v>5071</v>
       </c>
       <c r="Q1401" t="s">
-        <v>5850</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1402" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1402" s="1" t="s">
-        <v>5851</v>
+        <v>1378</v>
       </c>
       <c r="C1402" t="s">
         <v>1362</v>
@@ -56770,19 +56761,16 @@
       <c r="D1402" s="1">
         <v>68000</v>
       </c>
-      <c r="E1402" t="s">
-        <v>2</v>
-      </c>
       <c r="L1402" t="s">
         <v>5071</v>
       </c>
       <c r="Q1402" t="s">
-        <v>5852</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1403" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1403" s="1" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="C1403" t="s">
         <v>1362</v>
@@ -56794,46 +56782,52 @@
         <v>5071</v>
       </c>
       <c r="Q1403" t="s">
-        <v>1377</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1404" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1404" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C1404" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="D1404" s="1">
         <v>68000</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>2426</v>
       </c>
       <c r="L1404" t="s">
         <v>5071</v>
       </c>
       <c r="Q1404" t="s">
-        <v>1379</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1405" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1405" s="1" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C1405" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="D1405" s="1">
         <v>68000</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>2426</v>
       </c>
       <c r="L1405" t="s">
         <v>5071</v>
       </c>
       <c r="Q1405" t="s">
-        <v>4015</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1406" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1406" s="1" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="C1406" t="s">
         <v>1382</v>
@@ -56848,12 +56842,12 @@
         <v>5071</v>
       </c>
       <c r="Q1406" t="s">
-        <v>4016</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1407" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1407" s="1" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C1407" t="s">
         <v>1382</v>
@@ -56868,12 +56862,12 @@
         <v>5071</v>
       </c>
       <c r="Q1407" t="s">
-        <v>4017</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="1408" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1408" s="1" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C1408" t="s">
         <v>1382</v>
@@ -56888,52 +56882,46 @@
         <v>5071</v>
       </c>
       <c r="Q1408" t="s">
-        <v>4018</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1409" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1409" s="1" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="C1409" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="D1409" s="1">
         <v>68000</v>
-      </c>
-      <c r="E1409" t="s">
-        <v>2426</v>
       </c>
       <c r="L1409" t="s">
         <v>5071</v>
       </c>
       <c r="Q1409" t="s">
-        <v>4019</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1410" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1410" s="1" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="C1410" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="D1410" s="1">
         <v>68000</v>
       </c>
-      <c r="E1410" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1410" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="Q1410" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1411" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1411" s="1" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="C1411" t="s">
         <v>1389</v>
@@ -56942,15 +56930,18 @@
         <v>68000</v>
       </c>
       <c r="L1411" t="s">
-        <v>5071</v>
+        <v>5238</v>
+      </c>
+      <c r="M1411" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1411" t="s">
-        <v>1390</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1412" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1412" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="C1412" t="s">
         <v>1389</v>
@@ -56961,13 +56952,16 @@
       <c r="L1412" t="s">
         <v>5238</v>
       </c>
+      <c r="M1412" t="s">
+        <v>1687</v>
+      </c>
       <c r="Q1412" t="s">
-        <v>1392</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="1413" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1413" s="1" t="s">
-        <v>1393</v>
+        <v>5853</v>
       </c>
       <c r="C1413" t="s">
         <v>1389</v>
@@ -56982,12 +56976,12 @@
         <v>1687</v>
       </c>
       <c r="Q1413" t="s">
-        <v>4020</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1414" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1414" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C1414" t="s">
         <v>1389</v>
@@ -56995,19 +56989,19 @@
       <c r="D1414" s="1">
         <v>68000</v>
       </c>
+      <c r="E1414" t="s">
+        <v>2</v>
+      </c>
       <c r="L1414" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1414" t="s">
-        <v>1687</v>
+        <v>5071</v>
       </c>
       <c r="Q1414" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1415" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1415" s="1" t="s">
-        <v>5853</v>
+        <v>1396</v>
       </c>
       <c r="C1415" t="s">
         <v>1389</v>
@@ -57015,19 +57009,19 @@
       <c r="D1415" s="1">
         <v>68000</v>
       </c>
+      <c r="E1415" t="s">
+        <v>2</v>
+      </c>
       <c r="L1415" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1415" t="s">
-        <v>1687</v>
+        <v>5071</v>
       </c>
       <c r="Q1415" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1416" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1416" s="1" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C1416" t="s">
         <v>1389</v>
@@ -57042,12 +57036,12 @@
         <v>5071</v>
       </c>
       <c r="Q1416" t="s">
-        <v>4022</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1417" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1417" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C1417" t="s">
         <v>1389</v>
@@ -57055,19 +57049,16 @@
       <c r="D1417" s="1">
         <v>68000</v>
       </c>
-      <c r="E1417" t="s">
-        <v>2</v>
-      </c>
       <c r="L1417" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="Q1417" t="s">
-        <v>4726</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1418" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1418" s="1" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="C1418" t="s">
         <v>1389</v>
@@ -57075,19 +57066,16 @@
       <c r="D1418" s="1">
         <v>68000</v>
       </c>
-      <c r="E1418" t="s">
-        <v>2</v>
-      </c>
       <c r="L1418" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="Q1418" t="s">
-        <v>4727</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1419" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1419" s="1" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="C1419" t="s">
         <v>1389</v>
@@ -57098,13 +57086,16 @@
       <c r="L1419" t="s">
         <v>5238</v>
       </c>
+      <c r="M1419" t="s">
+        <v>1687</v>
+      </c>
       <c r="Q1419" t="s">
-        <v>1399</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1420" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1420" s="1" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="C1420" t="s">
         <v>1389</v>
@@ -57115,13 +57106,16 @@
       <c r="L1420" t="s">
         <v>5238</v>
       </c>
+      <c r="M1420" t="s">
+        <v>1687</v>
+      </c>
       <c r="Q1420" t="s">
-        <v>1401</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1421" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1421" s="1" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C1421" t="s">
         <v>1389</v>
@@ -57136,12 +57130,12 @@
         <v>1687</v>
       </c>
       <c r="Q1421" t="s">
-        <v>4023</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="1422" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1422" s="1" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C1422" t="s">
         <v>1389</v>
@@ -57149,6 +57143,9 @@
       <c r="D1422" s="1">
         <v>68000</v>
       </c>
+      <c r="E1422" t="s">
+        <v>2</v>
+      </c>
       <c r="L1422" t="s">
         <v>5238</v>
       </c>
@@ -57156,12 +57153,12 @@
         <v>1687</v>
       </c>
       <c r="Q1422" t="s">
-        <v>4024</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1423" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1423" s="1" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="C1423" t="s">
         <v>1389</v>
@@ -57169,6 +57166,9 @@
       <c r="D1423" s="1">
         <v>68000</v>
       </c>
+      <c r="E1423" t="s">
+        <v>2</v>
+      </c>
       <c r="L1423" t="s">
         <v>5238</v>
       </c>
@@ -57176,12 +57176,12 @@
         <v>1687</v>
       </c>
       <c r="Q1423" t="s">
-        <v>4025</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1424" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1424" s="1" t="s">
-        <v>1405</v>
+        <v>5854</v>
       </c>
       <c r="C1424" t="s">
         <v>1389</v>
@@ -57199,12 +57199,12 @@
         <v>1687</v>
       </c>
       <c r="Q1424" t="s">
-        <v>4026</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="1425" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1425" s="1" t="s">
-        <v>1406</v>
+        <v>5856</v>
       </c>
       <c r="C1425" t="s">
         <v>1389</v>
@@ -57219,15 +57219,15 @@
         <v>5238</v>
       </c>
       <c r="M1425" t="s">
-        <v>1687</v>
+        <v>3315</v>
       </c>
       <c r="Q1425" t="s">
-        <v>4027</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="1426" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1426" s="1" t="s">
-        <v>5854</v>
+        <v>5858</v>
       </c>
       <c r="C1426" t="s">
         <v>1389</v>
@@ -57242,18 +57242,18 @@
         <v>5238</v>
       </c>
       <c r="M1426" t="s">
-        <v>1687</v>
+        <v>3315</v>
       </c>
       <c r="Q1426" t="s">
-        <v>5855</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="1427" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1427" s="1" t="s">
-        <v>5856</v>
+        <v>5860</v>
       </c>
       <c r="C1427" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1427" s="1">
         <v>68000</v>
@@ -57262,41 +57262,35 @@
         <v>2</v>
       </c>
       <c r="L1427" t="s">
-        <v>5238</v>
+        <v>5070</v>
       </c>
       <c r="M1427" t="s">
-        <v>3315</v>
+        <v>1687</v>
       </c>
       <c r="Q1427" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="1428" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1428" s="1" t="s">
-        <v>5858</v>
+        <v>5862</v>
       </c>
       <c r="C1428" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1428" s="1">
         <v>68000</v>
       </c>
-      <c r="E1428" t="s">
-        <v>2</v>
-      </c>
       <c r="L1428" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1428" t="s">
         <v>3315</v>
       </c>
       <c r="Q1428" t="s">
-        <v>5859</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="1429" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1429" s="1" t="s">
-        <v>5860</v>
+        <v>5864</v>
       </c>
       <c r="C1429" t="s">
         <v>1408</v>
@@ -57305,21 +57299,21 @@
         <v>68000</v>
       </c>
       <c r="E1429" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1429" t="s">
-        <v>5070</v>
+        <v>5238</v>
       </c>
       <c r="M1429" t="s">
-        <v>1687</v>
+        <v>3315</v>
       </c>
       <c r="Q1429" t="s">
-        <v>5861</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="1430" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1430" s="1" t="s">
-        <v>5862</v>
+        <v>5866</v>
       </c>
       <c r="C1430" t="s">
         <v>1408</v>
@@ -57327,16 +57321,22 @@
       <c r="D1430" s="1">
         <v>68000</v>
       </c>
+      <c r="E1430" t="s">
+        <v>2</v>
+      </c>
       <c r="L1430" t="s">
+        <v>5238</v>
+      </c>
+      <c r="M1430" t="s">
         <v>3315</v>
       </c>
       <c r="Q1430" t="s">
-        <v>5863</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="1431" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1431" s="1" t="s">
-        <v>5864</v>
+        <v>5868</v>
       </c>
       <c r="C1431" t="s">
         <v>1408</v>
@@ -57348,18 +57348,18 @@
         <v>2426</v>
       </c>
       <c r="L1431" t="s">
-        <v>5238</v>
+        <v>5070</v>
       </c>
       <c r="M1431" t="s">
-        <v>3315</v>
+        <v>1687</v>
       </c>
       <c r="Q1431" t="s">
-        <v>5865</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="1432" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1432" s="1" t="s">
-        <v>5866</v>
+        <v>1407</v>
       </c>
       <c r="C1432" t="s">
         <v>1408</v>
@@ -57367,22 +57367,16 @@
       <c r="D1432" s="1">
         <v>68000</v>
       </c>
-      <c r="E1432" t="s">
-        <v>2</v>
-      </c>
       <c r="L1432" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1432" t="s">
-        <v>3315</v>
+        <v>1409</v>
       </c>
       <c r="Q1432" t="s">
-        <v>5867</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="1433" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1433" s="1" t="s">
-        <v>5868</v>
+        <v>1410</v>
       </c>
       <c r="C1433" t="s">
         <v>1408</v>
@@ -57390,22 +57384,16 @@
       <c r="D1433" s="1">
         <v>68000</v>
       </c>
-      <c r="E1433" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1433" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1433" t="s">
-        <v>1687</v>
+        <v>1409</v>
       </c>
       <c r="Q1433" t="s">
-        <v>5869</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1434" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1434" s="1" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="C1434" t="s">
         <v>1408</v>
@@ -57417,12 +57405,12 @@
         <v>1409</v>
       </c>
       <c r="Q1434" t="s">
-        <v>5870</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1435" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1435" s="1" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="C1435" t="s">
         <v>1408</v>
@@ -57434,12 +57422,12 @@
         <v>1409</v>
       </c>
       <c r="Q1435" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1436" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1436" s="1" t="s">
-        <v>1412</v>
+        <v>5871</v>
       </c>
       <c r="C1436" t="s">
         <v>1408</v>
@@ -57451,46 +57439,52 @@
         <v>1409</v>
       </c>
       <c r="Q1436" t="s">
-        <v>1413</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="1437" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1437" s="1" t="s">
-        <v>1414</v>
+        <v>6139</v>
       </c>
       <c r="C1437" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1437" s="1">
         <v>68000</v>
       </c>
+      <c r="E1437" t="s">
+        <v>404</v>
+      </c>
       <c r="L1437" t="s">
-        <v>1409</v>
+        <v>6141</v>
       </c>
       <c r="Q1437" t="s">
-        <v>1415</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="1438" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1438" s="1" t="s">
-        <v>5871</v>
+        <v>6143</v>
       </c>
       <c r="C1438" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1438" s="1">
         <v>68000</v>
       </c>
+      <c r="E1438" t="s">
+        <v>404</v>
+      </c>
       <c r="L1438" t="s">
-        <v>1409</v>
+        <v>6141</v>
       </c>
       <c r="Q1438" t="s">
-        <v>5872</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="1439" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1439" s="1" t="s">
-        <v>6139</v>
+        <v>6145</v>
       </c>
       <c r="C1439" t="s">
         <v>6140</v>
@@ -57505,12 +57499,12 @@
         <v>6141</v>
       </c>
       <c r="Q1439" t="s">
-        <v>6142</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="1440" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1440" s="1" t="s">
-        <v>6143</v>
+        <v>6147</v>
       </c>
       <c r="C1440" t="s">
         <v>6140</v>
@@ -57525,12 +57519,12 @@
         <v>6141</v>
       </c>
       <c r="Q1440" t="s">
-        <v>6144</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="1441" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1441" s="1" t="s">
-        <v>6145</v>
+        <v>6149</v>
       </c>
       <c r="C1441" t="s">
         <v>6140</v>
@@ -57545,12 +57539,12 @@
         <v>6141</v>
       </c>
       <c r="Q1441" t="s">
-        <v>6146</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="1442" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1442" s="1" t="s">
-        <v>6147</v>
+        <v>6151</v>
       </c>
       <c r="C1442" t="s">
         <v>6140</v>
@@ -57565,12 +57559,12 @@
         <v>6141</v>
       </c>
       <c r="Q1442" t="s">
-        <v>6148</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="1443" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1443" s="1" t="s">
-        <v>6149</v>
+        <v>6153</v>
       </c>
       <c r="C1443" t="s">
         <v>6140</v>
@@ -57585,12 +57579,12 @@
         <v>6141</v>
       </c>
       <c r="Q1443" t="s">
-        <v>6150</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="1444" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1444" s="1" t="s">
-        <v>6151</v>
+        <v>6155</v>
       </c>
       <c r="C1444" t="s">
         <v>6140</v>
@@ -57605,18 +57599,18 @@
         <v>6141</v>
       </c>
       <c r="Q1444" t="s">
-        <v>6152</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="1445" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1445" s="1" t="s">
-        <v>6153</v>
+        <v>6157</v>
       </c>
       <c r="C1445" t="s">
         <v>6140</v>
       </c>
-      <c r="D1445" s="1">
-        <v>68000</v>
+      <c r="D1445" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1445" t="s">
         <v>404</v>
@@ -57625,18 +57619,18 @@
         <v>6141</v>
       </c>
       <c r="Q1445" t="s">
-        <v>6154</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="1446" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1446" s="1" t="s">
-        <v>6155</v>
+        <v>6159</v>
       </c>
       <c r="C1446" t="s">
         <v>6140</v>
       </c>
-      <c r="D1446" s="1">
-        <v>68000</v>
+      <c r="D1446" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1446" t="s">
         <v>404</v>
@@ -57645,12 +57639,12 @@
         <v>6141</v>
       </c>
       <c r="Q1446" t="s">
-        <v>6156</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="1447" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1447" s="1" t="s">
-        <v>6157</v>
+        <v>6161</v>
       </c>
       <c r="C1447" t="s">
         <v>6140</v>
@@ -57665,12 +57659,12 @@
         <v>6141</v>
       </c>
       <c r="Q1447" t="s">
-        <v>6158</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="1448" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1448" s="1" t="s">
-        <v>6159</v>
+        <v>6163</v>
       </c>
       <c r="C1448" t="s">
         <v>6140</v>
@@ -57685,51 +57679,11 @@
         <v>6141</v>
       </c>
       <c r="Q1448" t="s">
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="1449" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1449" s="1" t="s">
-        <v>6161</v>
-      </c>
-      <c r="C1449" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1449" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E1449" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1449" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1449" t="s">
-        <v>6162</v>
-      </c>
-    </row>
-    <row r="1450" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1450" s="1" t="s">
-        <v>6163</v>
-      </c>
-      <c r="C1450" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1450" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E1450" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1450" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1450" t="s">
         <v>6164</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1450"/>
+  <autoFilter ref="B1:R1448"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -70095,10 +70049,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q917"/>
+  <dimension ref="B1:Q919"/>
   <sheetViews>
-    <sheetView topLeftCell="A898" workbookViewId="0">
-      <selection activeCell="A917" sqref="A917:XFD917"/>
+    <sheetView topLeftCell="A904" workbookViewId="0">
+      <selection activeCell="A918" sqref="A918:XFD919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -89799,6 +89753,52 @@
         <v>3465</v>
       </c>
     </row>
+    <row r="918" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B918" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C918" t="s">
+        <v>925</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E918" t="s">
+        <v>3901</v>
+      </c>
+      <c r="L918" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M918" t="s">
+        <v>3902</v>
+      </c>
+      <c r="Q918" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="919" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B919" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C919" t="s">
+        <v>925</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E919" t="s">
+        <v>3901</v>
+      </c>
+      <c r="L919" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M919" t="s">
+        <v>3902</v>
+      </c>
+      <c r="Q919" t="s">
+        <v>3908</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/compatibility_list.xlsx
+++ b/compatibility_list.xlsx
@@ -21,7 +21,7 @@
     <sheet name="To Check" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1448</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WIP!$B$1:$R$1439</definedName>
     <definedName name="DETAILS" localSheetId="4">WIP!#REF!</definedName>
     <definedName name="DETAILS_1" localSheetId="4">WIP!$B$1:$Q$1005</definedName>
   </definedNames>
@@ -25890,10 +25890,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R1448"/>
+  <dimension ref="B1:R1439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1083" workbookViewId="0">
-      <selection activeCell="A1097" sqref="A1097:XFD1098"/>
+    <sheetView tabSelected="1" topLeftCell="A1161" workbookViewId="0">
+      <selection activeCell="C1163" sqref="C1163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51698,255 +51698,246 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="1163" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1163" s="3" t="s">
-        <v>5511</v>
-      </c>
-      <c r="C1163" s="6" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1163" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1163" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1163" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1163" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q1163" s="6" t="s">
-        <v>5512</v>
+    <row r="1163" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B1163" s="1" t="s">
+        <v>5526</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>5527</v>
+      </c>
+      <c r="D1163" s="1">
+        <v>68000</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F1163">
+        <v>68000</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L1163" t="s">
+        <v>5505</v>
+      </c>
+      <c r="M1163" t="s">
+        <v>3974</v>
+      </c>
+      <c r="Q1163" t="s">
+        <v>5528</v>
       </c>
     </row>
     <row r="1164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1164" s="1" t="s">
-        <v>1098</v>
+        <v>5529</v>
       </c>
       <c r="C1164" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1164" s="1" t="s">
-        <v>2</v>
+        <v>5527</v>
+      </c>
+      <c r="D1164" s="1">
+        <v>68000</v>
       </c>
       <c r="E1164" t="s">
         <v>2426</v>
       </c>
-      <c r="F1164" t="s">
+      <c r="F1164">
+        <v>68000</v>
+      </c>
+      <c r="G1164" t="s">
         <v>2426</v>
       </c>
       <c r="L1164" t="s">
-        <v>55</v>
+        <v>5505</v>
       </c>
       <c r="M1164" t="s">
-        <v>2605</v>
+        <v>3974</v>
       </c>
       <c r="Q1164" t="s">
-        <v>3976</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="1165" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1165" s="1" t="s">
-        <v>1100</v>
+        <v>5531</v>
       </c>
       <c r="C1165" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1165" s="1" t="s">
-        <v>2</v>
+        <v>5527</v>
+      </c>
+      <c r="D1165" s="1">
+        <v>68000</v>
       </c>
       <c r="E1165" t="s">
         <v>2426</v>
       </c>
-      <c r="F1165" t="s">
+      <c r="F1165">
+        <v>68000</v>
+      </c>
+      <c r="G1165" t="s">
         <v>2426</v>
       </c>
       <c r="L1165" t="s">
-        <v>55</v>
+        <v>5505</v>
       </c>
       <c r="M1165" t="s">
-        <v>2605</v>
+        <v>3974</v>
       </c>
       <c r="Q1165" t="s">
-        <v>3977</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="1166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1166" s="1" t="s">
-        <v>1101</v>
+        <v>5533</v>
       </c>
       <c r="C1166" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1166" s="1" t="s">
-        <v>2</v>
+        <v>5527</v>
+      </c>
+      <c r="D1166" s="1">
+        <v>68000</v>
       </c>
       <c r="E1166" t="s">
         <v>2426</v>
       </c>
-      <c r="F1166" t="s">
+      <c r="F1166">
+        <v>68000</v>
+      </c>
+      <c r="G1166" t="s">
         <v>2426</v>
       </c>
       <c r="L1166" t="s">
-        <v>55</v>
+        <v>5505</v>
       </c>
       <c r="M1166" t="s">
-        <v>2605</v>
+        <v>3974</v>
       </c>
       <c r="Q1166" t="s">
-        <v>3978</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="1167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1167" s="1" t="s">
-        <v>1102</v>
+        <v>1129</v>
       </c>
       <c r="C1167" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1167" s="1" t="s">
-        <v>2</v>
+        <v>1130</v>
+      </c>
+      <c r="D1167" s="1">
+        <v>68000</v>
       </c>
       <c r="E1167" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1167" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1167" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="M1167" t="s">
-        <v>2605</v>
+        <v>3986</v>
       </c>
       <c r="Q1167" t="s">
-        <v>4708</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="1168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1168" s="1" t="s">
-        <v>5513</v>
+        <v>1131</v>
       </c>
       <c r="C1168" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1168" s="1" t="s">
-        <v>2</v>
+        <v>1130</v>
+      </c>
+      <c r="D1168" s="1">
+        <v>68000</v>
       </c>
       <c r="E1168" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1168" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G1168" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1168" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="M1168" t="s">
-        <v>2605</v>
+        <v>3986</v>
       </c>
       <c r="Q1168" t="s">
-        <v>5514</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1169" s="1" t="s">
-        <v>5515</v>
+        <v>1132</v>
       </c>
       <c r="C1169" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1169" s="1" t="s">
-        <v>2</v>
+        <v>1130</v>
+      </c>
+      <c r="D1169" s="1">
+        <v>68000</v>
       </c>
       <c r="E1169" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1169" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G1169" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1169" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="M1169" t="s">
-        <v>2605</v>
+        <v>3986</v>
       </c>
       <c r="Q1169" t="s">
-        <v>5516</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1170" s="1" t="s">
-        <v>5517</v>
+        <v>1133</v>
       </c>
       <c r="C1170" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1170" s="1" t="s">
-        <v>2</v>
+        <v>1130</v>
+      </c>
+      <c r="D1170" s="1">
+        <v>68000</v>
       </c>
       <c r="E1170" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1170" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G1170" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1170" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="M1170" t="s">
-        <v>2605</v>
+        <v>3986</v>
       </c>
       <c r="Q1170" t="s">
-        <v>5518</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1171" s="1" t="s">
-        <v>5519</v>
+        <v>5535</v>
       </c>
       <c r="C1171" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1171" s="1" t="s">
-        <v>2</v>
+        <v>5536</v>
+      </c>
+      <c r="D1171" s="1">
+        <v>68000</v>
       </c>
       <c r="E1171" t="s">
         <v>2426</v>
       </c>
-      <c r="F1171" t="s">
-        <v>2426</v>
-      </c>
-      <c r="G1171" t="s">
-        <v>2426</v>
+      <c r="F1171">
+        <v>68000</v>
       </c>
       <c r="L1171" t="s">
-        <v>55</v>
+        <v>5238</v>
       </c>
       <c r="M1171" t="s">
-        <v>2605</v>
+        <v>3986</v>
       </c>
       <c r="Q1171" t="s">
-        <v>5520</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="1172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1172" s="1" t="s">
-        <v>5526</v>
+        <v>5538</v>
       </c>
       <c r="C1172" t="s">
-        <v>5527</v>
+        <v>5536</v>
       </c>
       <c r="D1172" s="1">
         <v>68000</v>
@@ -51957,25 +51948,22 @@
       <c r="F1172">
         <v>68000</v>
       </c>
-      <c r="G1172" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1172" t="s">
-        <v>5505</v>
+        <v>5238</v>
       </c>
       <c r="M1172" t="s">
-        <v>3974</v>
+        <v>3986</v>
       </c>
       <c r="Q1172" t="s">
-        <v>5528</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="1173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1173" s="1" t="s">
-        <v>5529</v>
+        <v>5540</v>
       </c>
       <c r="C1173" t="s">
-        <v>5527</v>
+        <v>5536</v>
       </c>
       <c r="D1173" s="1">
         <v>68000</v>
@@ -51986,129 +51974,114 @@
       <c r="F1173">
         <v>68000</v>
       </c>
-      <c r="G1173" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1173" t="s">
-        <v>5505</v>
+        <v>5238</v>
       </c>
       <c r="M1173" t="s">
-        <v>3974</v>
+        <v>3986</v>
       </c>
       <c r="Q1173" t="s">
-        <v>5530</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="1174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1174" s="1" t="s">
-        <v>5531</v>
+        <v>5542</v>
       </c>
       <c r="C1174" t="s">
-        <v>5527</v>
+        <v>5543</v>
       </c>
       <c r="D1174" s="1">
         <v>68000</v>
       </c>
       <c r="E1174" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1174">
-        <v>68000</v>
-      </c>
-      <c r="G1174" t="s">
-        <v>2426</v>
+        <v>2</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>2</v>
       </c>
       <c r="L1174" t="s">
-        <v>5505</v>
+        <v>5238</v>
       </c>
       <c r="M1174" t="s">
-        <v>3974</v>
+        <v>4528</v>
       </c>
       <c r="Q1174" t="s">
-        <v>5532</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="1175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1175" s="1" t="s">
-        <v>5533</v>
+        <v>5545</v>
       </c>
       <c r="C1175" t="s">
-        <v>5527</v>
+        <v>5543</v>
       </c>
       <c r="D1175" s="1">
         <v>68000</v>
       </c>
       <c r="E1175" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1175">
-        <v>68000</v>
-      </c>
-      <c r="G1175" t="s">
-        <v>2426</v>
+        <v>2</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>2</v>
       </c>
       <c r="L1175" t="s">
-        <v>5505</v>
+        <v>5238</v>
       </c>
       <c r="M1175" t="s">
-        <v>3974</v>
+        <v>4528</v>
       </c>
       <c r="Q1175" t="s">
-        <v>5534</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="1176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1176" s="1" t="s">
-        <v>1129</v>
+        <v>5547</v>
       </c>
       <c r="C1176" t="s">
-        <v>1130</v>
+        <v>5548</v>
       </c>
       <c r="D1176" s="1">
         <v>68000</v>
       </c>
       <c r="E1176" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1176" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1176" t="s">
-        <v>3986</v>
+        <v>5549</v>
       </c>
       <c r="Q1176" t="s">
-        <v>3987</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="1177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1177" s="1" t="s">
-        <v>1131</v>
+        <v>5551</v>
       </c>
       <c r="C1177" t="s">
-        <v>1130</v>
+        <v>5548</v>
       </c>
       <c r="D1177" s="1">
         <v>68000</v>
       </c>
       <c r="E1177" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1177" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1177" t="s">
-        <v>3986</v>
+        <v>5549</v>
       </c>
       <c r="Q1177" t="s">
-        <v>3988</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="1178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1178" s="1" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C1178" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="D1178" s="1">
         <v>68000</v>
@@ -52119,19 +52092,16 @@
       <c r="L1178" t="s">
         <v>5238</v>
       </c>
-      <c r="M1178" t="s">
-        <v>3986</v>
-      </c>
       <c r="Q1178" t="s">
-        <v>3989</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="1179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1179" s="1" t="s">
-        <v>1133</v>
+        <v>5554</v>
       </c>
       <c r="C1179" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="D1179" s="1">
         <v>68000</v>
@@ -52142,97 +52112,76 @@
       <c r="L1179" t="s">
         <v>5238</v>
       </c>
-      <c r="M1179" t="s">
-        <v>3986</v>
-      </c>
       <c r="Q1179" t="s">
-        <v>3990</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="1180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1180" s="1" t="s">
-        <v>5535</v>
+        <v>1136</v>
       </c>
       <c r="C1180" t="s">
-        <v>5536</v>
+        <v>1135</v>
       </c>
       <c r="D1180" s="1">
         <v>68000</v>
       </c>
       <c r="E1180" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1180">
-        <v>68000</v>
+        <v>2</v>
       </c>
       <c r="L1180" t="s">
         <v>5238</v>
       </c>
-      <c r="M1180" t="s">
-        <v>3986</v>
-      </c>
       <c r="Q1180" t="s">
-        <v>5537</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1181" s="1" t="s">
-        <v>5538</v>
+        <v>1138</v>
       </c>
       <c r="C1181" t="s">
-        <v>5536</v>
+        <v>1135</v>
       </c>
       <c r="D1181" s="1">
         <v>68000</v>
       </c>
       <c r="E1181" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1181">
-        <v>68000</v>
+        <v>2</v>
       </c>
       <c r="L1181" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1181" t="s">
-        <v>3986</v>
+        <v>5505</v>
       </c>
       <c r="Q1181" t="s">
-        <v>5539</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1182" s="1" t="s">
-        <v>5540</v>
+        <v>5559</v>
       </c>
       <c r="C1182" t="s">
-        <v>5536</v>
+        <v>5560</v>
       </c>
       <c r="D1182" s="1">
         <v>68000</v>
       </c>
       <c r="E1182" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1182">
-        <v>68000</v>
+        <v>2</v>
       </c>
       <c r="L1182" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1182" t="s">
-        <v>3986</v>
+        <v>5070</v>
       </c>
       <c r="Q1182" t="s">
-        <v>5541</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="1183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1183" s="1" t="s">
-        <v>5542</v>
+        <v>5562</v>
       </c>
       <c r="C1183" t="s">
-        <v>5543</v>
+        <v>5563</v>
       </c>
       <c r="D1183" s="1">
         <v>68000</v>
@@ -52240,25 +52189,19 @@
       <c r="E1183" t="s">
         <v>2</v>
       </c>
-      <c r="F1183" t="s">
-        <v>2</v>
-      </c>
       <c r="L1183" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1183" t="s">
-        <v>4528</v>
+        <v>5549</v>
       </c>
       <c r="Q1183" t="s">
-        <v>5544</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="1184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1184" s="1" t="s">
-        <v>5545</v>
+        <v>5565</v>
       </c>
       <c r="C1184" t="s">
-        <v>5543</v>
+        <v>5563</v>
       </c>
       <c r="D1184" s="1">
         <v>68000</v>
@@ -52266,65 +52209,62 @@
       <c r="E1184" t="s">
         <v>2</v>
       </c>
-      <c r="F1184" t="s">
-        <v>2</v>
-      </c>
       <c r="L1184" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1184" t="s">
-        <v>4528</v>
+        <v>5549</v>
       </c>
       <c r="Q1184" t="s">
-        <v>5546</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="1185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1185" s="1" t="s">
-        <v>5547</v>
+        <v>5567</v>
       </c>
       <c r="C1185" t="s">
-        <v>5548</v>
+        <v>5563</v>
       </c>
       <c r="D1185" s="1">
         <v>68000</v>
       </c>
       <c r="E1185" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1185" t="s">
         <v>5549</v>
       </c>
       <c r="Q1185" t="s">
-        <v>5550</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="1186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1186" s="1" t="s">
-        <v>5551</v>
+        <v>5569</v>
       </c>
       <c r="C1186" t="s">
-        <v>5548</v>
+        <v>5563</v>
       </c>
       <c r="D1186" s="1">
         <v>68000</v>
       </c>
       <c r="E1186" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1186" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1186" t="s">
+        <v>3986</v>
       </c>
       <c r="Q1186" t="s">
-        <v>5552</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="1187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1187" s="1" t="s">
-        <v>1134</v>
+        <v>5571</v>
       </c>
       <c r="C1187" t="s">
-        <v>1135</v>
+        <v>5563</v>
       </c>
       <c r="D1187" s="1">
         <v>68000</v>
@@ -52335,16 +52275,19 @@
       <c r="L1187" t="s">
         <v>5238</v>
       </c>
+      <c r="M1187" t="s">
+        <v>3986</v>
+      </c>
       <c r="Q1187" t="s">
-        <v>5553</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="1188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1188" s="1" t="s">
-        <v>5554</v>
+        <v>5573</v>
       </c>
       <c r="C1188" t="s">
-        <v>1135</v>
+        <v>5563</v>
       </c>
       <c r="D1188" s="1">
         <v>68000</v>
@@ -52355,16 +52298,19 @@
       <c r="L1188" t="s">
         <v>5238</v>
       </c>
+      <c r="M1188" t="s">
+        <v>3986</v>
+      </c>
       <c r="Q1188" t="s">
-        <v>5555</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="1189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1189" s="1" t="s">
-        <v>1136</v>
+        <v>5575</v>
       </c>
       <c r="C1189" t="s">
-        <v>1135</v>
+        <v>5563</v>
       </c>
       <c r="D1189" s="1">
         <v>68000</v>
@@ -52375,16 +52321,19 @@
       <c r="L1189" t="s">
         <v>5238</v>
       </c>
+      <c r="M1189" t="s">
+        <v>3986</v>
+      </c>
       <c r="Q1189" t="s">
-        <v>1137</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="1190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1190" s="1" t="s">
-        <v>1138</v>
+        <v>5577</v>
       </c>
       <c r="C1190" t="s">
-        <v>1135</v>
+        <v>5563</v>
       </c>
       <c r="D1190" s="1">
         <v>68000</v>
@@ -52393,18 +52342,21 @@
         <v>2</v>
       </c>
       <c r="L1190" t="s">
-        <v>5505</v>
+        <v>5238</v>
+      </c>
+      <c r="M1190" t="s">
+        <v>3986</v>
       </c>
       <c r="Q1190" t="s">
-        <v>1139</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="1191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1191" s="1" t="s">
-        <v>5559</v>
+        <v>5579</v>
       </c>
       <c r="C1191" t="s">
-        <v>5560</v>
+        <v>5580</v>
       </c>
       <c r="D1191" s="1">
         <v>68000</v>
@@ -52413,18 +52365,21 @@
         <v>2</v>
       </c>
       <c r="L1191" t="s">
-        <v>5070</v>
+        <v>5238</v>
+      </c>
+      <c r="M1191" t="s">
+        <v>3986</v>
       </c>
       <c r="Q1191" t="s">
-        <v>5561</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="1192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1192" s="1" t="s">
-        <v>5562</v>
+        <v>5582</v>
       </c>
       <c r="C1192" t="s">
-        <v>5563</v>
+        <v>5580</v>
       </c>
       <c r="D1192" s="1">
         <v>68000</v>
@@ -52433,18 +52388,21 @@
         <v>2</v>
       </c>
       <c r="L1192" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1192" t="s">
+        <v>3986</v>
       </c>
       <c r="Q1192" t="s">
-        <v>5564</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="1193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1193" s="1" t="s">
-        <v>5565</v>
+        <v>5584</v>
       </c>
       <c r="C1193" t="s">
-        <v>5563</v>
+        <v>5580</v>
       </c>
       <c r="D1193" s="1">
         <v>68000</v>
@@ -52453,18 +52411,21 @@
         <v>2</v>
       </c>
       <c r="L1193" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1193" t="s">
+        <v>3986</v>
       </c>
       <c r="Q1193" t="s">
-        <v>5566</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="1194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1194" s="1" t="s">
-        <v>5567</v>
+        <v>5586</v>
       </c>
       <c r="C1194" t="s">
-        <v>5563</v>
+        <v>5580</v>
       </c>
       <c r="D1194" s="1">
         <v>68000</v>
@@ -52473,18 +52434,21 @@
         <v>2</v>
       </c>
       <c r="L1194" t="s">
-        <v>5549</v>
+        <v>5238</v>
+      </c>
+      <c r="M1194" t="s">
+        <v>3986</v>
       </c>
       <c r="Q1194" t="s">
-        <v>5568</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="1195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1195" s="1" t="s">
-        <v>5569</v>
+        <v>5588</v>
       </c>
       <c r="C1195" t="s">
-        <v>5563</v>
+        <v>5580</v>
       </c>
       <c r="D1195" s="1">
         <v>68000</v>
@@ -52499,245 +52463,251 @@
         <v>3986</v>
       </c>
       <c r="Q1195" t="s">
-        <v>5570</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="1196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1196" s="1" t="s">
-        <v>5571</v>
+        <v>5590</v>
       </c>
       <c r="C1196" t="s">
-        <v>5563</v>
+        <v>5591</v>
       </c>
       <c r="D1196" s="1">
         <v>68000</v>
       </c>
       <c r="E1196" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1196">
+        <v>68000</v>
       </c>
       <c r="L1196" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1196" t="s">
-        <v>3986</v>
+        <v>5549</v>
       </c>
       <c r="Q1196" t="s">
-        <v>5572</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="1197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1197" s="1" t="s">
-        <v>5573</v>
+        <v>5593</v>
       </c>
       <c r="C1197" t="s">
-        <v>5563</v>
+        <v>5591</v>
       </c>
       <c r="D1197" s="1">
         <v>68000</v>
       </c>
       <c r="E1197" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1197">
+        <v>68000</v>
       </c>
       <c r="L1197" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1197" t="s">
-        <v>3986</v>
+        <v>5549</v>
       </c>
       <c r="Q1197" t="s">
-        <v>5574</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="1198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1198" s="1" t="s">
-        <v>5575</v>
+        <v>5595</v>
       </c>
       <c r="C1198" t="s">
-        <v>5563</v>
+        <v>5591</v>
       </c>
       <c r="D1198" s="1">
         <v>68000</v>
       </c>
       <c r="E1198" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1198">
+        <v>68000</v>
       </c>
       <c r="L1198" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1198" t="s">
-        <v>3986</v>
+        <v>5549</v>
       </c>
       <c r="Q1198" t="s">
-        <v>5576</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="1199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1199" s="1" t="s">
-        <v>5577</v>
+        <v>5597</v>
       </c>
       <c r="C1199" t="s">
-        <v>5563</v>
+        <v>5591</v>
       </c>
       <c r="D1199" s="1">
         <v>68000</v>
       </c>
       <c r="E1199" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1199">
+        <v>68000</v>
       </c>
       <c r="L1199" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1199" t="s">
-        <v>3986</v>
+        <v>5549</v>
       </c>
       <c r="Q1199" t="s">
-        <v>5578</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="1200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1200" s="1" t="s">
-        <v>5579</v>
+        <v>5599</v>
       </c>
       <c r="C1200" t="s">
-        <v>5580</v>
+        <v>5600</v>
       </c>
       <c r="D1200" s="1">
         <v>68000</v>
       </c>
       <c r="E1200" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1200" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1200" t="s">
-        <v>3986</v>
+        <v>5601</v>
       </c>
       <c r="Q1200" t="s">
-        <v>5581</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="1201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1201" s="1" t="s">
-        <v>5582</v>
+        <v>5603</v>
       </c>
       <c r="C1201" t="s">
-        <v>5580</v>
+        <v>5604</v>
       </c>
       <c r="D1201" s="1">
         <v>68000</v>
       </c>
       <c r="E1201" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1201">
+        <v>68000</v>
       </c>
       <c r="L1201" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="M1201" t="s">
-        <v>3986</v>
+        <v>77</v>
       </c>
       <c r="Q1201" t="s">
-        <v>5583</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="1202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1202" s="1" t="s">
-        <v>5584</v>
+        <v>5606</v>
       </c>
       <c r="C1202" t="s">
-        <v>5580</v>
+        <v>5604</v>
       </c>
       <c r="D1202" s="1">
         <v>68000</v>
       </c>
       <c r="E1202" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1202">
+        <v>68000</v>
       </c>
       <c r="L1202" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="M1202" t="s">
-        <v>3986</v>
+        <v>77</v>
       </c>
       <c r="Q1202" t="s">
-        <v>5585</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="1203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1203" s="1" t="s">
-        <v>5586</v>
+        <v>5608</v>
       </c>
       <c r="C1203" t="s">
-        <v>5580</v>
+        <v>5604</v>
       </c>
       <c r="D1203" s="1">
         <v>68000</v>
       </c>
       <c r="E1203" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1203">
+        <v>68000</v>
       </c>
       <c r="L1203" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="M1203" t="s">
-        <v>3986</v>
+        <v>77</v>
       </c>
       <c r="Q1203" t="s">
-        <v>5587</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="1204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1204" s="1" t="s">
-        <v>5588</v>
+        <v>5610</v>
       </c>
       <c r="C1204" t="s">
-        <v>5580</v>
+        <v>5611</v>
       </c>
       <c r="D1204" s="1">
         <v>68000</v>
       </c>
       <c r="E1204" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1204" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="M1204" t="s">
-        <v>3986</v>
+        <v>77</v>
       </c>
       <c r="Q1204" t="s">
-        <v>5589</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="1205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1205" s="1" t="s">
-        <v>5590</v>
+        <v>5613</v>
       </c>
       <c r="C1205" t="s">
-        <v>5591</v>
+        <v>5611</v>
       </c>
       <c r="D1205" s="1">
         <v>68000</v>
       </c>
       <c r="E1205" t="s">
         <v>2426</v>
-      </c>
-      <c r="F1205">
-        <v>68000</v>
       </c>
       <c r="L1205" t="s">
         <v>5549</v>
       </c>
+      <c r="M1205" t="s">
+        <v>77</v>
+      </c>
       <c r="Q1205" t="s">
-        <v>5592</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="1206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1206" s="1" t="s">
-        <v>5593</v>
+        <v>5615</v>
       </c>
       <c r="C1206" t="s">
-        <v>5591</v>
+        <v>5611</v>
       </c>
       <c r="D1206" s="1">
         <v>68000</v>
@@ -52745,232 +52715,199 @@
       <c r="E1206" t="s">
         <v>2426</v>
       </c>
-      <c r="F1206">
-        <v>68000</v>
-      </c>
       <c r="L1206" t="s">
-        <v>5549</v>
+        <v>5601</v>
       </c>
       <c r="Q1206" t="s">
-        <v>5594</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="1207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1207" s="1" t="s">
-        <v>5595</v>
+        <v>1159</v>
       </c>
       <c r="C1207" t="s">
-        <v>5591</v>
+        <v>5617</v>
       </c>
       <c r="D1207" s="1">
         <v>68000</v>
       </c>
       <c r="E1207" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1207">
-        <v>68000</v>
+        <v>2</v>
       </c>
       <c r="L1207" t="s">
         <v>5549</v>
       </c>
       <c r="Q1207" t="s">
-        <v>5596</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1208" s="1" t="s">
-        <v>5597</v>
+        <v>5618</v>
       </c>
       <c r="C1208" t="s">
-        <v>5591</v>
+        <v>5617</v>
       </c>
       <c r="D1208" s="1">
         <v>68000</v>
       </c>
       <c r="E1208" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1208">
-        <v>68000</v>
+        <v>2</v>
       </c>
       <c r="L1208" t="s">
-        <v>5549</v>
+        <v>5238</v>
       </c>
       <c r="Q1208" t="s">
-        <v>5598</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="1209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1209" s="1" t="s">
-        <v>5599</v>
+        <v>5620</v>
       </c>
       <c r="C1209" t="s">
-        <v>5600</v>
+        <v>5617</v>
       </c>
       <c r="D1209" s="1">
         <v>68000</v>
       </c>
       <c r="E1209" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1209" t="s">
-        <v>5601</v>
+        <v>5238</v>
       </c>
       <c r="Q1209" t="s">
-        <v>5602</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="1210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1210" s="1" t="s">
-        <v>5603</v>
+        <v>5622</v>
       </c>
       <c r="C1210" t="s">
-        <v>5604</v>
+        <v>5617</v>
       </c>
       <c r="D1210" s="1">
         <v>68000</v>
       </c>
       <c r="E1210" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1210">
-        <v>68000</v>
+        <v>2</v>
       </c>
       <c r="L1210" t="s">
-        <v>5549</v>
-      </c>
-      <c r="M1210" t="s">
-        <v>77</v>
+        <v>5238</v>
       </c>
       <c r="Q1210" t="s">
-        <v>5605</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="1211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1211" s="1" t="s">
-        <v>5606</v>
+        <v>5624</v>
       </c>
       <c r="C1211" t="s">
-        <v>5604</v>
+        <v>5617</v>
       </c>
       <c r="D1211" s="1">
         <v>68000</v>
       </c>
       <c r="E1211" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1211">
-        <v>68000</v>
+        <v>2</v>
       </c>
       <c r="L1211" t="s">
         <v>5549</v>
       </c>
-      <c r="M1211" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1211" t="s">
-        <v>5607</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="1212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1212" s="1" t="s">
-        <v>5608</v>
+        <v>5626</v>
       </c>
       <c r="C1212" t="s">
-        <v>5604</v>
+        <v>5617</v>
       </c>
       <c r="D1212" s="1">
         <v>68000</v>
       </c>
       <c r="E1212" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1212">
-        <v>68000</v>
+        <v>2</v>
       </c>
       <c r="L1212" t="s">
         <v>5549</v>
       </c>
-      <c r="M1212" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1212" t="s">
-        <v>5609</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="1213" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1213" s="1" t="s">
-        <v>5610</v>
+        <v>5639</v>
       </c>
       <c r="C1213" t="s">
-        <v>5611</v>
+        <v>5640</v>
       </c>
       <c r="D1213" s="1">
         <v>68000</v>
       </c>
       <c r="E1213" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1213" t="s">
         <v>5549</v>
       </c>
-      <c r="M1213" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1213" t="s">
-        <v>5612</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="1214" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1214" s="1" t="s">
-        <v>5613</v>
+        <v>5642</v>
       </c>
       <c r="C1214" t="s">
-        <v>5611</v>
+        <v>5640</v>
       </c>
       <c r="D1214" s="1">
         <v>68000</v>
       </c>
       <c r="E1214" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1214" t="s">
         <v>5549</v>
       </c>
-      <c r="M1214" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1214" t="s">
-        <v>5614</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="1215" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1215" s="1" t="s">
-        <v>5615</v>
+        <v>5644</v>
       </c>
       <c r="C1215" t="s">
-        <v>5611</v>
+        <v>5640</v>
       </c>
       <c r="D1215" s="1">
         <v>68000</v>
       </c>
       <c r="E1215" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1215" t="s">
-        <v>5601</v>
+        <v>5549</v>
       </c>
       <c r="Q1215" t="s">
-        <v>5616</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="1216" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1216" s="1" t="s">
-        <v>1159</v>
+        <v>1206</v>
       </c>
       <c r="C1216" t="s">
-        <v>5617</v>
+        <v>1207</v>
       </c>
       <c r="D1216" s="1">
         <v>68000</v>
@@ -52979,18 +52916,18 @@
         <v>2</v>
       </c>
       <c r="L1216" t="s">
-        <v>5549</v>
+        <v>5070</v>
       </c>
       <c r="Q1216" t="s">
-        <v>1160</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1217" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1217" s="1" t="s">
-        <v>5618</v>
+        <v>1209</v>
       </c>
       <c r="C1217" t="s">
-        <v>5617</v>
+        <v>1207</v>
       </c>
       <c r="D1217" s="1">
         <v>68000</v>
@@ -52999,18 +52936,18 @@
         <v>2</v>
       </c>
       <c r="L1217" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="Q1217" t="s">
-        <v>5619</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1218" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1218" s="1" t="s">
-        <v>5620</v>
+        <v>1211</v>
       </c>
       <c r="C1218" t="s">
-        <v>5617</v>
+        <v>1207</v>
       </c>
       <c r="D1218" s="1">
         <v>68000</v>
@@ -53019,18 +52956,18 @@
         <v>2</v>
       </c>
       <c r="L1218" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="Q1218" t="s">
-        <v>5621</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1219" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1219" s="1" t="s">
-        <v>5622</v>
+        <v>1213</v>
       </c>
       <c r="C1219" t="s">
-        <v>5617</v>
+        <v>1207</v>
       </c>
       <c r="D1219" s="1">
         <v>68000</v>
@@ -53039,18 +52976,18 @@
         <v>2</v>
       </c>
       <c r="L1219" t="s">
-        <v>5238</v>
+        <v>5549</v>
       </c>
       <c r="Q1219" t="s">
-        <v>5623</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1220" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1220" s="1" t="s">
-        <v>5624</v>
+        <v>1215</v>
       </c>
       <c r="C1220" t="s">
-        <v>5617</v>
+        <v>1207</v>
       </c>
       <c r="D1220" s="1">
         <v>68000</v>
@@ -53062,15 +52999,15 @@
         <v>5549</v>
       </c>
       <c r="Q1220" t="s">
-        <v>5625</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="1221" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1221" s="1" t="s">
-        <v>5626</v>
+        <v>5647</v>
       </c>
       <c r="C1221" t="s">
-        <v>5617</v>
+        <v>1207</v>
       </c>
       <c r="D1221" s="1">
         <v>68000</v>
@@ -53082,15 +53019,15 @@
         <v>5549</v>
       </c>
       <c r="Q1221" t="s">
-        <v>5627</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="1222" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1222" s="1" t="s">
-        <v>5639</v>
+        <v>1216</v>
       </c>
       <c r="C1222" t="s">
-        <v>5640</v>
+        <v>1207</v>
       </c>
       <c r="D1222" s="1">
         <v>68000</v>
@@ -53102,15 +53039,15 @@
         <v>5549</v>
       </c>
       <c r="Q1222" t="s">
-        <v>5641</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="1223" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1223" s="1" t="s">
-        <v>5642</v>
+        <v>1217</v>
       </c>
       <c r="C1223" t="s">
-        <v>5640</v>
+        <v>1207</v>
       </c>
       <c r="D1223" s="1">
         <v>68000</v>
@@ -53122,15 +53059,15 @@
         <v>5549</v>
       </c>
       <c r="Q1223" t="s">
-        <v>5643</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1224" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1224" s="1" t="s">
-        <v>5644</v>
+        <v>1219</v>
       </c>
       <c r="C1224" t="s">
-        <v>5640</v>
+        <v>1207</v>
       </c>
       <c r="D1224" s="1">
         <v>68000</v>
@@ -53142,12 +53079,12 @@
         <v>5549</v>
       </c>
       <c r="Q1224" t="s">
-        <v>5645</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1225" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1225" s="1" t="s">
-        <v>1206</v>
+        <v>1221</v>
       </c>
       <c r="C1225" t="s">
         <v>1207</v>
@@ -53159,15 +53096,15 @@
         <v>2</v>
       </c>
       <c r="L1225" t="s">
-        <v>5070</v>
+        <v>5549</v>
       </c>
       <c r="Q1225" t="s">
-        <v>1208</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1226" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1226" s="1" t="s">
-        <v>1209</v>
+        <v>1223</v>
       </c>
       <c r="C1226" t="s">
         <v>1207</v>
@@ -53182,12 +53119,12 @@
         <v>5549</v>
       </c>
       <c r="Q1226" t="s">
-        <v>1210</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1227" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1227" s="1" t="s">
-        <v>1211</v>
+        <v>1225</v>
       </c>
       <c r="C1227" t="s">
         <v>1207</v>
@@ -53199,15 +53136,18 @@
         <v>2</v>
       </c>
       <c r="L1227" t="s">
-        <v>5549</v>
+        <v>5070</v>
+      </c>
+      <c r="M1227" t="s">
+        <v>3315</v>
       </c>
       <c r="Q1227" t="s">
-        <v>1212</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1228" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1228" s="1" t="s">
-        <v>1213</v>
+        <v>1226</v>
       </c>
       <c r="C1228" t="s">
         <v>1207</v>
@@ -53222,12 +53162,12 @@
         <v>5549</v>
       </c>
       <c r="Q1228" t="s">
-        <v>1214</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1229" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1229" s="1" t="s">
-        <v>1215</v>
+        <v>1228</v>
       </c>
       <c r="C1229" t="s">
         <v>1207</v>
@@ -53242,12 +53182,12 @@
         <v>5549</v>
       </c>
       <c r="Q1229" t="s">
-        <v>5646</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1230" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1230" s="1" t="s">
-        <v>5647</v>
+        <v>1230</v>
       </c>
       <c r="C1230" t="s">
         <v>1207</v>
@@ -53259,15 +53199,18 @@
         <v>2</v>
       </c>
       <c r="L1230" t="s">
-        <v>5549</v>
+        <v>5070</v>
+      </c>
+      <c r="M1230" t="s">
+        <v>3315</v>
       </c>
       <c r="Q1230" t="s">
-        <v>5648</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="1231" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1231" s="1" t="s">
-        <v>1216</v>
+        <v>5650</v>
       </c>
       <c r="C1231" t="s">
         <v>1207</v>
@@ -53279,15 +53222,15 @@
         <v>2</v>
       </c>
       <c r="L1231" t="s">
-        <v>5549</v>
+        <v>5601</v>
       </c>
       <c r="Q1231" t="s">
-        <v>5649</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="1232" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1232" s="1" t="s">
-        <v>1217</v>
+        <v>5652</v>
       </c>
       <c r="C1232" t="s">
         <v>1207</v>
@@ -53302,12 +53245,12 @@
         <v>5549</v>
       </c>
       <c r="Q1232" t="s">
-        <v>1218</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="1233" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1233" s="1" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="C1233" t="s">
         <v>1207</v>
@@ -53322,12 +53265,12 @@
         <v>5549</v>
       </c>
       <c r="Q1233" t="s">
-        <v>1220</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1234" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1234" s="1" t="s">
-        <v>1221</v>
+        <v>5654</v>
       </c>
       <c r="C1234" t="s">
         <v>1207</v>
@@ -53342,12 +53285,12 @@
         <v>5549</v>
       </c>
       <c r="Q1234" t="s">
-        <v>1222</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="1235" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1235" s="1" t="s">
-        <v>1223</v>
+        <v>5656</v>
       </c>
       <c r="C1235" t="s">
         <v>1207</v>
@@ -53362,12 +53305,12 @@
         <v>5549</v>
       </c>
       <c r="Q1235" t="s">
-        <v>1224</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="1236" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1236" s="1" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="C1236" t="s">
         <v>1207</v>
@@ -53379,18 +53322,15 @@
         <v>2</v>
       </c>
       <c r="L1236" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1236" t="s">
-        <v>3315</v>
+        <v>5601</v>
       </c>
       <c r="Q1236" t="s">
-        <v>3998</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1237" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1237" s="1" t="s">
-        <v>1226</v>
+        <v>3606</v>
       </c>
       <c r="C1237" t="s">
         <v>1207</v>
@@ -53402,15 +53342,15 @@
         <v>2</v>
       </c>
       <c r="L1237" t="s">
-        <v>5549</v>
+        <v>5601</v>
       </c>
       <c r="Q1237" t="s">
-        <v>1227</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1238" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1238" s="1" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="C1238" t="s">
         <v>1207</v>
@@ -53425,12 +53365,12 @@
         <v>5549</v>
       </c>
       <c r="Q1238" t="s">
-        <v>1229</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="1239" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1239" s="1" t="s">
-        <v>1230</v>
+        <v>5659</v>
       </c>
       <c r="C1239" t="s">
         <v>1207</v>
@@ -53442,18 +53382,15 @@
         <v>2</v>
       </c>
       <c r="L1239" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1239" t="s">
-        <v>3315</v>
+        <v>5549</v>
       </c>
       <c r="Q1239" t="s">
-        <v>3999</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="1240" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1240" s="1" t="s">
-        <v>5650</v>
+        <v>5661</v>
       </c>
       <c r="C1240" t="s">
         <v>1207</v>
@@ -53465,195 +53402,225 @@
         <v>2</v>
       </c>
       <c r="L1240" t="s">
-        <v>5601</v>
+        <v>5549</v>
       </c>
       <c r="Q1240" t="s">
-        <v>5651</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="1241" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1241" s="1" t="s">
-        <v>5652</v>
+        <v>5663</v>
       </c>
       <c r="C1241" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1241" s="1">
         <v>68000</v>
       </c>
       <c r="E1241" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1241">
+        <v>68000</v>
       </c>
       <c r="L1241" t="s">
         <v>5549</v>
       </c>
+      <c r="M1241" t="s">
+        <v>77</v>
+      </c>
       <c r="Q1241" t="s">
-        <v>5653</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="1242" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1242" s="1" t="s">
-        <v>1233</v>
+        <v>5666</v>
       </c>
       <c r="C1242" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1242" s="1">
         <v>68000</v>
       </c>
       <c r="E1242" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1242">
+        <v>68000</v>
       </c>
       <c r="L1242" t="s">
         <v>5549</v>
       </c>
+      <c r="M1242" t="s">
+        <v>77</v>
+      </c>
       <c r="Q1242" t="s">
-        <v>1234</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="1243" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1243" s="1" t="s">
-        <v>5654</v>
+        <v>5668</v>
       </c>
       <c r="C1243" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1243" s="1">
         <v>68000</v>
       </c>
       <c r="E1243" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1243">
+        <v>68000</v>
       </c>
       <c r="L1243" t="s">
         <v>5549</v>
       </c>
       <c r="Q1243" t="s">
-        <v>5655</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="1244" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1244" s="1" t="s">
-        <v>5656</v>
+        <v>5670</v>
       </c>
       <c r="C1244" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1244" s="1">
         <v>68000</v>
       </c>
       <c r="E1244" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1244">
+        <v>68000</v>
       </c>
       <c r="L1244" t="s">
         <v>5549</v>
       </c>
       <c r="Q1244" t="s">
-        <v>5657</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="1245" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1245" s="1" t="s">
-        <v>1231</v>
+        <v>5672</v>
       </c>
       <c r="C1245" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1245" s="1">
         <v>68000</v>
       </c>
       <c r="E1245" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1245">
+        <v>68000</v>
       </c>
       <c r="L1245" t="s">
-        <v>5601</v>
+        <v>5549</v>
       </c>
       <c r="Q1245" t="s">
-        <v>4721</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="1246" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1246" s="1" t="s">
-        <v>3606</v>
+        <v>5674</v>
       </c>
       <c r="C1246" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1246" s="1">
         <v>68000</v>
       </c>
       <c r="E1246" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1246">
+        <v>68000</v>
       </c>
       <c r="L1246" t="s">
-        <v>5601</v>
+        <v>5549</v>
       </c>
       <c r="Q1246" t="s">
-        <v>4000</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="1247" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1247" s="1" t="s">
-        <v>1232</v>
+        <v>5676</v>
       </c>
       <c r="C1247" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1247" s="1">
         <v>68000</v>
       </c>
       <c r="E1247" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1247">
+        <v>68000</v>
       </c>
       <c r="L1247" t="s">
         <v>5549</v>
       </c>
       <c r="Q1247" t="s">
-        <v>5658</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="1248" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1248" s="1" t="s">
-        <v>5659</v>
+        <v>5678</v>
       </c>
       <c r="C1248" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1248" s="1">
         <v>68000</v>
       </c>
       <c r="E1248" t="s">
-        <v>2</v>
+        <v>2426</v>
+      </c>
+      <c r="F1248">
+        <v>68000</v>
       </c>
       <c r="L1248" t="s">
         <v>5549</v>
       </c>
       <c r="Q1248" t="s">
-        <v>5660</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="1249" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1249" s="1" t="s">
-        <v>5661</v>
+        <v>5680</v>
       </c>
       <c r="C1249" t="s">
-        <v>1207</v>
+        <v>5664</v>
       </c>
       <c r="D1249" s="1">
         <v>68000</v>
       </c>
-      <c r="E1249" t="s">
-        <v>2</v>
+      <c r="E1249">
+        <v>68000</v>
       </c>
       <c r="L1249" t="s">
         <v>5549</v>
       </c>
       <c r="Q1249" t="s">
-        <v>5662</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="1250" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1250" s="1" t="s">
-        <v>5663</v>
+        <v>5682</v>
       </c>
       <c r="C1250" t="s">
         <v>5664</v>
@@ -53661,25 +53628,19 @@
       <c r="D1250" s="1">
         <v>68000</v>
       </c>
-      <c r="E1250" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1250">
+      <c r="E1250">
         <v>68000</v>
       </c>
       <c r="L1250" t="s">
         <v>5549</v>
       </c>
-      <c r="M1250" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1250" t="s">
-        <v>5665</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="1251" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1251" s="1" t="s">
-        <v>5666</v>
+        <v>5684</v>
       </c>
       <c r="C1251" t="s">
         <v>5664</v>
@@ -53696,16 +53657,13 @@
       <c r="L1251" t="s">
         <v>5549</v>
       </c>
-      <c r="M1251" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1251" t="s">
-        <v>5667</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="1252" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1252" s="1" t="s">
-        <v>5668</v>
+        <v>5686</v>
       </c>
       <c r="C1252" t="s">
         <v>5664</v>
@@ -53723,12 +53681,12 @@
         <v>5549</v>
       </c>
       <c r="Q1252" t="s">
-        <v>5669</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="1253" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1253" s="1" t="s">
-        <v>5670</v>
+        <v>5688</v>
       </c>
       <c r="C1253" t="s">
         <v>5664</v>
@@ -53736,22 +53694,19 @@
       <c r="D1253" s="1">
         <v>68000</v>
       </c>
-      <c r="E1253" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1253">
+      <c r="E1253">
         <v>68000</v>
       </c>
       <c r="L1253" t="s">
         <v>5549</v>
       </c>
       <c r="Q1253" t="s">
-        <v>5671</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="1254" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1254" s="1" t="s">
-        <v>5672</v>
+        <v>5690</v>
       </c>
       <c r="C1254" t="s">
         <v>5664</v>
@@ -53769,12 +53724,12 @@
         <v>5549</v>
       </c>
       <c r="Q1254" t="s">
-        <v>5673</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="1255" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1255" s="1" t="s">
-        <v>5674</v>
+        <v>5692</v>
       </c>
       <c r="C1255" t="s">
         <v>5664</v>
@@ -53792,273 +53747,255 @@
         <v>5549</v>
       </c>
       <c r="Q1255" t="s">
-        <v>5675</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="1256" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1256" s="1" t="s">
-        <v>5676</v>
+        <v>5694</v>
       </c>
       <c r="C1256" t="s">
-        <v>5664</v>
-      </c>
-      <c r="D1256" s="1">
-        <v>68000</v>
+        <v>5695</v>
+      </c>
+      <c r="D1256" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1256" t="s">
-        <v>2426</v>
-      </c>
-      <c r="F1256">
-        <v>68000</v>
+        <v>3892</v>
       </c>
       <c r="L1256" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1256" t="s">
-        <v>5677</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="1257" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1257" s="1" t="s">
-        <v>5678</v>
+        <v>5698</v>
       </c>
       <c r="C1257" t="s">
-        <v>5664</v>
-      </c>
-      <c r="D1257" s="1">
-        <v>68000</v>
+        <v>5699</v>
+      </c>
+      <c r="D1257" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1257" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="F1257">
         <v>68000</v>
       </c>
       <c r="L1257" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1257" t="s">
-        <v>5679</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="1258" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1258" s="1" t="s">
-        <v>5680</v>
+        <v>5701</v>
       </c>
       <c r="C1258" t="s">
-        <v>5664</v>
-      </c>
-      <c r="D1258" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1258">
-        <v>68000</v>
+        <v>5702</v>
+      </c>
+      <c r="D1258" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>3892</v>
       </c>
       <c r="L1258" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1258" t="s">
-        <v>5681</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="1259" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1259" s="1" t="s">
-        <v>5682</v>
+        <v>1235</v>
       </c>
       <c r="C1259" t="s">
-        <v>5664</v>
+        <v>1236</v>
       </c>
       <c r="D1259" s="1">
         <v>68000</v>
       </c>
-      <c r="E1259">
-        <v>68000</v>
+      <c r="E1259" t="s">
+        <v>2426</v>
       </c>
       <c r="L1259" t="s">
         <v>5549</v>
       </c>
       <c r="Q1259" t="s">
-        <v>5683</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1260" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1260" s="1" t="s">
-        <v>5684</v>
+        <v>1238</v>
       </c>
       <c r="C1260" t="s">
-        <v>5664</v>
+        <v>1236</v>
       </c>
       <c r="D1260" s="1">
         <v>68000</v>
       </c>
       <c r="E1260" t="s">
         <v>2426</v>
-      </c>
-      <c r="F1260">
-        <v>68000</v>
       </c>
       <c r="L1260" t="s">
         <v>5549</v>
       </c>
       <c r="Q1260" t="s">
-        <v>5685</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1261" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1261" s="1" t="s">
-        <v>5686</v>
+        <v>1240</v>
       </c>
       <c r="C1261" t="s">
-        <v>5664</v>
+        <v>1236</v>
       </c>
       <c r="D1261" s="1">
         <v>68000</v>
       </c>
       <c r="E1261" t="s">
         <v>2426</v>
-      </c>
-      <c r="F1261">
-        <v>68000</v>
       </c>
       <c r="L1261" t="s">
         <v>5549</v>
       </c>
       <c r="Q1261" t="s">
-        <v>5687</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="1262" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1262" s="1" t="s">
-        <v>5688</v>
+        <v>5705</v>
       </c>
       <c r="C1262" t="s">
-        <v>5664</v>
+        <v>1236</v>
       </c>
       <c r="D1262" s="1">
         <v>68000</v>
       </c>
-      <c r="E1262">
-        <v>68000</v>
+      <c r="E1262" t="s">
+        <v>2426</v>
       </c>
       <c r="L1262" t="s">
         <v>5549</v>
       </c>
       <c r="Q1262" t="s">
-        <v>5689</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="1263" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1263" s="1" t="s">
-        <v>5690</v>
+        <v>5707</v>
       </c>
       <c r="C1263" t="s">
-        <v>5664</v>
+        <v>1236</v>
       </c>
       <c r="D1263" s="1">
         <v>68000</v>
       </c>
       <c r="E1263" t="s">
         <v>2426</v>
-      </c>
-      <c r="F1263">
-        <v>68000</v>
       </c>
       <c r="L1263" t="s">
         <v>5549</v>
       </c>
       <c r="Q1263" t="s">
-        <v>5691</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1264" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1264" s="1" t="s">
-        <v>5692</v>
+        <v>1242</v>
       </c>
       <c r="C1264" t="s">
-        <v>5664</v>
+        <v>1236</v>
       </c>
       <c r="D1264" s="1">
         <v>68000</v>
       </c>
       <c r="E1264" t="s">
         <v>2426</v>
-      </c>
-      <c r="F1264">
-        <v>68000</v>
       </c>
       <c r="L1264" t="s">
         <v>5549</v>
       </c>
       <c r="Q1264" t="s">
-        <v>5693</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1265" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1265" s="1" t="s">
-        <v>5694</v>
+        <v>1244</v>
       </c>
       <c r="C1265" t="s">
-        <v>5695</v>
-      </c>
-      <c r="D1265" s="1" t="s">
-        <v>1652</v>
+        <v>1236</v>
+      </c>
+      <c r="D1265" s="1">
+        <v>68000</v>
       </c>
       <c r="E1265" t="s">
-        <v>3892</v>
+        <v>2426</v>
       </c>
       <c r="L1265" t="s">
-        <v>5696</v>
+        <v>5549</v>
       </c>
       <c r="Q1265" t="s">
-        <v>5697</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1266" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1266" s="1" t="s">
-        <v>5698</v>
+        <v>1246</v>
       </c>
       <c r="C1266" t="s">
-        <v>5699</v>
-      </c>
-      <c r="D1266" s="1" t="s">
-        <v>1652</v>
+        <v>1236</v>
+      </c>
+      <c r="D1266" s="1">
+        <v>68000</v>
       </c>
       <c r="E1266" t="s">
-        <v>3892</v>
-      </c>
-      <c r="F1266">
-        <v>68000</v>
+        <v>2426</v>
       </c>
       <c r="L1266" t="s">
-        <v>5696</v>
+        <v>5549</v>
       </c>
       <c r="Q1266" t="s">
-        <v>5700</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="1267" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1267" s="1" t="s">
-        <v>5701</v>
+        <v>5709</v>
       </c>
       <c r="C1267" t="s">
-        <v>5702</v>
-      </c>
-      <c r="D1267" s="1" t="s">
-        <v>1652</v>
+        <v>1236</v>
+      </c>
+      <c r="D1267" s="1">
+        <v>68000</v>
       </c>
       <c r="E1267" t="s">
-        <v>3892</v>
+        <v>2426</v>
       </c>
       <c r="L1267" t="s">
-        <v>5696</v>
+        <v>5549</v>
       </c>
       <c r="Q1267" t="s">
-        <v>5703</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="1268" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1268" s="1" t="s">
-        <v>1235</v>
+        <v>5711</v>
       </c>
       <c r="C1268" t="s">
         <v>1236</v>
@@ -54073,12 +54010,12 @@
         <v>5549</v>
       </c>
       <c r="Q1268" t="s">
-        <v>1237</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1269" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1269" s="1" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
       <c r="C1269" t="s">
         <v>1236</v>
@@ -54093,12 +54030,12 @@
         <v>5549</v>
       </c>
       <c r="Q1269" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1270" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1270" s="1" t="s">
-        <v>1240</v>
+        <v>5712</v>
       </c>
       <c r="C1270" t="s">
         <v>1236</v>
@@ -54110,15 +54047,15 @@
         <v>2426</v>
       </c>
       <c r="L1270" t="s">
-        <v>5549</v>
+        <v>5070</v>
       </c>
       <c r="Q1270" t="s">
-        <v>5704</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="1271" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1271" s="1" t="s">
-        <v>5705</v>
+        <v>5714</v>
       </c>
       <c r="C1271" t="s">
         <v>1236</v>
@@ -54133,12 +54070,12 @@
         <v>5549</v>
       </c>
       <c r="Q1271" t="s">
-        <v>5706</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1272" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1272" s="1" t="s">
-        <v>5707</v>
+        <v>1251</v>
       </c>
       <c r="C1272" t="s">
         <v>1236</v>
@@ -54153,12 +54090,12 @@
         <v>5549</v>
       </c>
       <c r="Q1272" t="s">
-        <v>1241</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="1273" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1273" s="1" t="s">
-        <v>1242</v>
+        <v>1252</v>
       </c>
       <c r="C1273" t="s">
         <v>1236</v>
@@ -54173,12 +54110,12 @@
         <v>5549</v>
       </c>
       <c r="Q1273" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1274" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1274" s="1" t="s">
-        <v>1244</v>
+        <v>1254</v>
       </c>
       <c r="C1274" t="s">
         <v>1236</v>
@@ -54193,12 +54130,12 @@
         <v>5549</v>
       </c>
       <c r="Q1274" t="s">
-        <v>1245</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1275" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1275" s="1" t="s">
-        <v>1246</v>
+        <v>1256</v>
       </c>
       <c r="C1275" t="s">
         <v>1236</v>
@@ -54213,12 +54150,12 @@
         <v>5549</v>
       </c>
       <c r="Q1275" t="s">
-        <v>5708</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1276" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1276" s="1" t="s">
-        <v>5709</v>
+        <v>1257</v>
       </c>
       <c r="C1276" t="s">
         <v>1236</v>
@@ -54233,12 +54170,12 @@
         <v>5549</v>
       </c>
       <c r="Q1276" t="s">
-        <v>5710</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1277" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1277" s="1" t="s">
-        <v>5711</v>
+        <v>1259</v>
       </c>
       <c r="C1277" t="s">
         <v>1236</v>
@@ -54253,12 +54190,12 @@
         <v>5549</v>
       </c>
       <c r="Q1277" t="s">
-        <v>1247</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1278" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1278" s="1" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="C1278" t="s">
         <v>1236</v>
@@ -54273,12 +54210,12 @@
         <v>5549</v>
       </c>
       <c r="Q1278" t="s">
-        <v>1250</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="1279" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1279" s="1" t="s">
-        <v>5712</v>
+        <v>1261</v>
       </c>
       <c r="C1279" t="s">
         <v>1236</v>
@@ -54290,15 +54227,15 @@
         <v>2426</v>
       </c>
       <c r="L1279" t="s">
-        <v>5070</v>
+        <v>5549</v>
       </c>
       <c r="Q1279" t="s">
-        <v>5713</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1280" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1280" s="1" t="s">
-        <v>5714</v>
+        <v>1263</v>
       </c>
       <c r="C1280" t="s">
         <v>1236</v>
@@ -54313,12 +54250,12 @@
         <v>5549</v>
       </c>
       <c r="Q1280" t="s">
-        <v>1249</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1281" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1281" s="1" t="s">
-        <v>1251</v>
+        <v>1265</v>
       </c>
       <c r="C1281" t="s">
         <v>1236</v>
@@ -54333,12 +54270,12 @@
         <v>5549</v>
       </c>
       <c r="Q1281" t="s">
-        <v>4001</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1282" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1282" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="C1282" t="s">
         <v>1236</v>
@@ -54353,12 +54290,12 @@
         <v>5549</v>
       </c>
       <c r="Q1282" t="s">
-        <v>1253</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1283" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1283" s="1" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
       <c r="C1283" t="s">
         <v>1236</v>
@@ -54373,12 +54310,12 @@
         <v>5549</v>
       </c>
       <c r="Q1283" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1284" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1284" s="1" t="s">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="C1284" t="s">
         <v>1236</v>
@@ -54393,12 +54330,12 @@
         <v>5549</v>
       </c>
       <c r="Q1284" t="s">
-        <v>4002</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1285" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1285" s="1" t="s">
-        <v>1257</v>
+        <v>1273</v>
       </c>
       <c r="C1285" t="s">
         <v>1236</v>
@@ -54413,12 +54350,12 @@
         <v>5549</v>
       </c>
       <c r="Q1285" t="s">
-        <v>1258</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1286" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1286" s="1" t="s">
-        <v>1259</v>
+        <v>1274</v>
       </c>
       <c r="C1286" t="s">
         <v>1236</v>
@@ -54433,12 +54370,12 @@
         <v>5549</v>
       </c>
       <c r="Q1286" t="s">
-        <v>4003</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1287" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1287" s="1" t="s">
-        <v>1260</v>
+        <v>1276</v>
       </c>
       <c r="C1287" t="s">
         <v>1236</v>
@@ -54453,12 +54390,12 @@
         <v>5549</v>
       </c>
       <c r="Q1287" t="s">
-        <v>4722</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1288" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1288" s="1" t="s">
-        <v>1261</v>
+        <v>1278</v>
       </c>
       <c r="C1288" t="s">
         <v>1236</v>
@@ -54473,12 +54410,12 @@
         <v>5549</v>
       </c>
       <c r="Q1288" t="s">
-        <v>1262</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1289" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1289" s="1" t="s">
-        <v>1263</v>
+        <v>1280</v>
       </c>
       <c r="C1289" t="s">
         <v>1236</v>
@@ -54493,12 +54430,12 @@
         <v>5549</v>
       </c>
       <c r="Q1289" t="s">
-        <v>1264</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="1290" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1290" s="1" t="s">
-        <v>1265</v>
+        <v>1281</v>
       </c>
       <c r="C1290" t="s">
         <v>1236</v>
@@ -54513,12 +54450,12 @@
         <v>5549</v>
       </c>
       <c r="Q1290" t="s">
-        <v>1266</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1291" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1291" s="1" t="s">
-        <v>1267</v>
+        <v>1282</v>
       </c>
       <c r="C1291" t="s">
         <v>1236</v>
@@ -54533,12 +54470,12 @@
         <v>5549</v>
       </c>
       <c r="Q1291" t="s">
-        <v>1268</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1292" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1292" s="1" t="s">
-        <v>1269</v>
+        <v>1284</v>
       </c>
       <c r="C1292" t="s">
         <v>1236</v>
@@ -54553,12 +54490,12 @@
         <v>5549</v>
       </c>
       <c r="Q1292" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1293" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1293" s="1" t="s">
-        <v>1271</v>
+        <v>1286</v>
       </c>
       <c r="C1293" t="s">
         <v>1236</v>
@@ -54573,12 +54510,12 @@
         <v>5549</v>
       </c>
       <c r="Q1293" t="s">
-        <v>1272</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1294" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1294" s="1" t="s">
-        <v>1273</v>
+        <v>1288</v>
       </c>
       <c r="C1294" t="s">
         <v>1236</v>
@@ -54593,12 +54530,12 @@
         <v>5549</v>
       </c>
       <c r="Q1294" t="s">
-        <v>4004</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1295" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1295" s="1" t="s">
-        <v>1274</v>
+        <v>1289</v>
       </c>
       <c r="C1295" t="s">
         <v>1236</v>
@@ -54613,12 +54550,12 @@
         <v>5549</v>
       </c>
       <c r="Q1295" t="s">
-        <v>1275</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1296" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1296" s="1" t="s">
-        <v>1276</v>
+        <v>1291</v>
       </c>
       <c r="C1296" t="s">
         <v>1236</v>
@@ -54633,12 +54570,12 @@
         <v>5549</v>
       </c>
       <c r="Q1296" t="s">
-        <v>1277</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1297" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1297" s="1" t="s">
-        <v>1278</v>
+        <v>1293</v>
       </c>
       <c r="C1297" t="s">
         <v>1236</v>
@@ -54653,12 +54590,12 @@
         <v>5549</v>
       </c>
       <c r="Q1297" t="s">
-        <v>1279</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1298" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1298" s="1" t="s">
-        <v>1280</v>
+        <v>1295</v>
       </c>
       <c r="C1298" t="s">
         <v>1236</v>
@@ -54673,12 +54610,12 @@
         <v>5549</v>
       </c>
       <c r="Q1298" t="s">
-        <v>4005</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1299" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1299" s="1" t="s">
-        <v>1281</v>
+        <v>1297</v>
       </c>
       <c r="C1299" t="s">
         <v>1236</v>
@@ -54693,12 +54630,12 @@
         <v>5549</v>
       </c>
       <c r="Q1299" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="1300" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1300" s="1" t="s">
-        <v>1282</v>
+        <v>1298</v>
       </c>
       <c r="C1300" t="s">
         <v>1236</v>
@@ -54713,12 +54650,12 @@
         <v>5549</v>
       </c>
       <c r="Q1300" t="s">
-        <v>1283</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1301" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1301" s="1" t="s">
-        <v>1284</v>
+        <v>1299</v>
       </c>
       <c r="C1301" t="s">
         <v>1236</v>
@@ -54733,12 +54670,12 @@
         <v>5549</v>
       </c>
       <c r="Q1301" t="s">
-        <v>1285</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1302" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1302" s="1" t="s">
-        <v>1286</v>
+        <v>1301</v>
       </c>
       <c r="C1302" t="s">
         <v>1236</v>
@@ -54753,12 +54690,12 @@
         <v>5549</v>
       </c>
       <c r="Q1302" t="s">
-        <v>1287</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1303" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1303" s="1" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
       <c r="C1303" t="s">
         <v>1236</v>
@@ -54773,12 +54710,12 @@
         <v>5549</v>
       </c>
       <c r="Q1303" t="s">
-        <v>4723</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1304" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1304" s="1" t="s">
-        <v>1289</v>
+        <v>1305</v>
       </c>
       <c r="C1304" t="s">
         <v>1236</v>
@@ -54793,12 +54730,12 @@
         <v>5549</v>
       </c>
       <c r="Q1304" t="s">
-        <v>1290</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1305" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1305" s="1" t="s">
-        <v>1291</v>
+        <v>1307</v>
       </c>
       <c r="C1305" t="s">
         <v>1236</v>
@@ -54813,12 +54750,12 @@
         <v>5549</v>
       </c>
       <c r="Q1305" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1306" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1306" s="1" t="s">
-        <v>1293</v>
+        <v>1309</v>
       </c>
       <c r="C1306" t="s">
         <v>1236</v>
@@ -54833,12 +54770,12 @@
         <v>5549</v>
       </c>
       <c r="Q1306" t="s">
-        <v>1294</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="1307" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1307" s="1" t="s">
-        <v>1295</v>
+        <v>1310</v>
       </c>
       <c r="C1307" t="s">
         <v>1236</v>
@@ -54853,12 +54790,12 @@
         <v>5549</v>
       </c>
       <c r="Q1307" t="s">
-        <v>1296</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1308" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1308" s="1" t="s">
-        <v>1297</v>
+        <v>1311</v>
       </c>
       <c r="C1308" t="s">
         <v>1236</v>
@@ -54873,12 +54810,12 @@
         <v>5549</v>
       </c>
       <c r="Q1308" t="s">
-        <v>4007</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1309" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1309" s="1" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="C1309" t="s">
         <v>1236</v>
@@ -54893,12 +54830,12 @@
         <v>5549</v>
       </c>
       <c r="Q1309" t="s">
-        <v>4008</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1310" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1310" s="1" t="s">
-        <v>1299</v>
+        <v>1314</v>
       </c>
       <c r="C1310" t="s">
         <v>1236</v>
@@ -54910,195 +54847,195 @@
         <v>2426</v>
       </c>
       <c r="L1310" t="s">
-        <v>5549</v>
+        <v>1687</v>
       </c>
       <c r="Q1310" t="s">
-        <v>1300</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1311" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1311" s="1" t="s">
-        <v>1301</v>
+        <v>5715</v>
       </c>
       <c r="C1311" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1311" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1311" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1311" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1311" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1311" t="s">
-        <v>1302</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="1312" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1312" s="1" t="s">
-        <v>1303</v>
+        <v>5718</v>
       </c>
       <c r="C1312" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1312" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1312" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1312" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1312" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1312" t="s">
-        <v>1304</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="1313" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1313" s="1" t="s">
-        <v>1305</v>
+        <v>5720</v>
       </c>
       <c r="C1313" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1313" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1313" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1313" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1313" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1313" t="s">
-        <v>1306</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="1314" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1314" s="1" t="s">
-        <v>1307</v>
+        <v>5722</v>
       </c>
       <c r="C1314" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1314" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1314" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1314" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1314" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1314" t="s">
-        <v>1308</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="1315" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1315" s="1" t="s">
-        <v>1309</v>
+        <v>5724</v>
       </c>
       <c r="C1315" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1315" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1315" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1315" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1315" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1315" t="s">
-        <v>4009</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="1316" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1316" s="1" t="s">
-        <v>1310</v>
+        <v>5726</v>
       </c>
       <c r="C1316" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1316" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1316" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1316" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1316" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1316" t="s">
-        <v>4010</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="1317" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1317" s="1" t="s">
-        <v>1311</v>
+        <v>5728</v>
       </c>
       <c r="C1317" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1317" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1317" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1317" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1317" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1317" t="s">
-        <v>4724</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="1318" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1318" s="1" t="s">
-        <v>1312</v>
+        <v>5730</v>
       </c>
       <c r="C1318" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1318" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1318" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1318" t="s">
-        <v>5549</v>
+        <v>5696</v>
       </c>
       <c r="Q1318" t="s">
-        <v>1313</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="1319" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1319" s="1" t="s">
-        <v>1314</v>
+        <v>5732</v>
       </c>
       <c r="C1319" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1319" s="1">
-        <v>68000</v>
+        <v>5716</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1319" t="s">
-        <v>2426</v>
+        <v>3892</v>
       </c>
       <c r="L1319" t="s">
-        <v>1687</v>
+        <v>5696</v>
       </c>
       <c r="Q1319" t="s">
-        <v>1315</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="1320" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1320" s="1" t="s">
-        <v>5715</v>
+        <v>5734</v>
       </c>
       <c r="C1320" t="s">
         <v>5716</v>
@@ -55113,12 +55050,12 @@
         <v>5696</v>
       </c>
       <c r="Q1320" t="s">
-        <v>5717</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="1321" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1321" s="1" t="s">
-        <v>5718</v>
+        <v>5736</v>
       </c>
       <c r="C1321" t="s">
         <v>5716</v>
@@ -55133,12 +55070,12 @@
         <v>5696</v>
       </c>
       <c r="Q1321" t="s">
-        <v>5719</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="1322" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1322" s="1" t="s">
-        <v>5720</v>
+        <v>5738</v>
       </c>
       <c r="C1322" t="s">
         <v>5716</v>
@@ -55153,12 +55090,12 @@
         <v>5696</v>
       </c>
       <c r="Q1322" t="s">
-        <v>5721</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="1323" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1323" s="1" t="s">
-        <v>5722</v>
+        <v>5740</v>
       </c>
       <c r="C1323" t="s">
         <v>5716</v>
@@ -55173,12 +55110,12 @@
         <v>5696</v>
       </c>
       <c r="Q1323" t="s">
-        <v>5723</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="1324" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1324" s="1" t="s">
-        <v>5724</v>
+        <v>5742</v>
       </c>
       <c r="C1324" t="s">
         <v>5716</v>
@@ -55193,12 +55130,12 @@
         <v>5696</v>
       </c>
       <c r="Q1324" t="s">
-        <v>5725</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="1325" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1325" s="1" t="s">
-        <v>5726</v>
+        <v>5744</v>
       </c>
       <c r="C1325" t="s">
         <v>5716</v>
@@ -55213,12 +55150,12 @@
         <v>5696</v>
       </c>
       <c r="Q1325" t="s">
-        <v>5727</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="1326" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1326" s="1" t="s">
-        <v>5728</v>
+        <v>5746</v>
       </c>
       <c r="C1326" t="s">
         <v>5716</v>
@@ -55233,12 +55170,12 @@
         <v>5696</v>
       </c>
       <c r="Q1326" t="s">
-        <v>5729</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="1327" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1327" s="1" t="s">
-        <v>5730</v>
+        <v>5748</v>
       </c>
       <c r="C1327" t="s">
         <v>5716</v>
@@ -55253,12 +55190,12 @@
         <v>5696</v>
       </c>
       <c r="Q1327" t="s">
-        <v>5731</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="1328" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1328" s="1" t="s">
-        <v>5732</v>
+        <v>5750</v>
       </c>
       <c r="C1328" t="s">
         <v>5716</v>
@@ -55273,12 +55210,12 @@
         <v>5696</v>
       </c>
       <c r="Q1328" t="s">
-        <v>5733</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="1329" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1329" s="1" t="s">
-        <v>5734</v>
+        <v>5752</v>
       </c>
       <c r="C1329" t="s">
         <v>5716</v>
@@ -55293,12 +55230,12 @@
         <v>5696</v>
       </c>
       <c r="Q1329" t="s">
-        <v>5735</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="1330" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1330" s="1" t="s">
-        <v>5736</v>
+        <v>5754</v>
       </c>
       <c r="C1330" t="s">
         <v>5716</v>
@@ -55313,12 +55250,12 @@
         <v>5696</v>
       </c>
       <c r="Q1330" t="s">
-        <v>5737</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="1331" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1331" s="1" t="s">
-        <v>5738</v>
+        <v>5756</v>
       </c>
       <c r="C1331" t="s">
         <v>5716</v>
@@ -55333,12 +55270,12 @@
         <v>5696</v>
       </c>
       <c r="Q1331" t="s">
-        <v>5739</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="1332" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1332" s="1" t="s">
-        <v>5740</v>
+        <v>5758</v>
       </c>
       <c r="C1332" t="s">
         <v>5716</v>
@@ -55353,12 +55290,12 @@
         <v>5696</v>
       </c>
       <c r="Q1332" t="s">
-        <v>5741</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="1333" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1333" s="1" t="s">
-        <v>5742</v>
+        <v>5760</v>
       </c>
       <c r="C1333" t="s">
         <v>5716</v>
@@ -55373,12 +55310,12 @@
         <v>5696</v>
       </c>
       <c r="Q1333" t="s">
-        <v>5743</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="1334" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1334" s="1" t="s">
-        <v>5744</v>
+        <v>5762</v>
       </c>
       <c r="C1334" t="s">
         <v>5716</v>
@@ -55393,12 +55330,12 @@
         <v>5696</v>
       </c>
       <c r="Q1334" t="s">
-        <v>5745</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="1335" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1335" s="1" t="s">
-        <v>5746</v>
+        <v>5764</v>
       </c>
       <c r="C1335" t="s">
         <v>5716</v>
@@ -55413,12 +55350,12 @@
         <v>5696</v>
       </c>
       <c r="Q1335" t="s">
-        <v>5747</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="1336" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1336" s="1" t="s">
-        <v>5748</v>
+        <v>5766</v>
       </c>
       <c r="C1336" t="s">
         <v>5716</v>
@@ -55433,12 +55370,12 @@
         <v>5696</v>
       </c>
       <c r="Q1336" t="s">
-        <v>5749</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="1337" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1337" s="1" t="s">
-        <v>5750</v>
+        <v>5768</v>
       </c>
       <c r="C1337" t="s">
         <v>5716</v>
@@ -55453,12 +55390,12 @@
         <v>5696</v>
       </c>
       <c r="Q1337" t="s">
-        <v>5751</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="1338" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1338" s="1" t="s">
-        <v>5752</v>
+        <v>5770</v>
       </c>
       <c r="C1338" t="s">
         <v>5716</v>
@@ -55473,12 +55410,12 @@
         <v>5696</v>
       </c>
       <c r="Q1338" t="s">
-        <v>5753</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="1339" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1339" s="1" t="s">
-        <v>5754</v>
+        <v>5772</v>
       </c>
       <c r="C1339" t="s">
         <v>5716</v>
@@ -55493,12 +55430,12 @@
         <v>5696</v>
       </c>
       <c r="Q1339" t="s">
-        <v>5755</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="1340" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1340" s="1" t="s">
-        <v>5756</v>
+        <v>5774</v>
       </c>
       <c r="C1340" t="s">
         <v>5716</v>
@@ -55513,12 +55450,12 @@
         <v>5696</v>
       </c>
       <c r="Q1340" t="s">
-        <v>5757</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="1341" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1341" s="1" t="s">
-        <v>5758</v>
+        <v>5776</v>
       </c>
       <c r="C1341" t="s">
         <v>5716</v>
@@ -55533,12 +55470,12 @@
         <v>5696</v>
       </c>
       <c r="Q1341" t="s">
-        <v>5759</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="1342" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1342" s="1" t="s">
-        <v>5760</v>
+        <v>5778</v>
       </c>
       <c r="C1342" t="s">
         <v>5716</v>
@@ -55553,12 +55490,12 @@
         <v>5696</v>
       </c>
       <c r="Q1342" t="s">
-        <v>5761</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="1343" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1343" s="1" t="s">
-        <v>5762</v>
+        <v>5780</v>
       </c>
       <c r="C1343" t="s">
         <v>5716</v>
@@ -55573,12 +55510,12 @@
         <v>5696</v>
       </c>
       <c r="Q1343" t="s">
-        <v>5763</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="1344" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1344" s="1" t="s">
-        <v>5764</v>
+        <v>5782</v>
       </c>
       <c r="C1344" t="s">
         <v>5716</v>
@@ -55593,12 +55530,12 @@
         <v>5696</v>
       </c>
       <c r="Q1344" t="s">
-        <v>5765</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="1345" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1345" s="1" t="s">
-        <v>5766</v>
+        <v>5784</v>
       </c>
       <c r="C1345" t="s">
         <v>5716</v>
@@ -55613,12 +55550,12 @@
         <v>5696</v>
       </c>
       <c r="Q1345" t="s">
-        <v>5767</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="1346" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1346" s="1" t="s">
-        <v>5768</v>
+        <v>5786</v>
       </c>
       <c r="C1346" t="s">
         <v>5716</v>
@@ -55633,12 +55570,12 @@
         <v>5696</v>
       </c>
       <c r="Q1346" t="s">
-        <v>5769</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="1347" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1347" s="1" t="s">
-        <v>5770</v>
+        <v>5788</v>
       </c>
       <c r="C1347" t="s">
         <v>5716</v>
@@ -55653,12 +55590,12 @@
         <v>5696</v>
       </c>
       <c r="Q1347" t="s">
-        <v>5771</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="1348" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1348" s="1" t="s">
-        <v>5772</v>
+        <v>5790</v>
       </c>
       <c r="C1348" t="s">
         <v>5716</v>
@@ -55673,12 +55610,12 @@
         <v>5696</v>
       </c>
       <c r="Q1348" t="s">
-        <v>5773</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="1349" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1349" s="1" t="s">
-        <v>5774</v>
+        <v>5792</v>
       </c>
       <c r="C1349" t="s">
         <v>5716</v>
@@ -55693,12 +55630,12 @@
         <v>5696</v>
       </c>
       <c r="Q1349" t="s">
-        <v>5775</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="1350" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1350" s="1" t="s">
-        <v>5776</v>
+        <v>5794</v>
       </c>
       <c r="C1350" t="s">
         <v>5716</v>
@@ -55713,12 +55650,12 @@
         <v>5696</v>
       </c>
       <c r="Q1350" t="s">
-        <v>5777</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="1351" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1351" s="1" t="s">
-        <v>5778</v>
+        <v>5796</v>
       </c>
       <c r="C1351" t="s">
         <v>5716</v>
@@ -55733,12 +55670,12 @@
         <v>5696</v>
       </c>
       <c r="Q1351" t="s">
-        <v>5779</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="1352" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1352" s="1" t="s">
-        <v>5780</v>
+        <v>5798</v>
       </c>
       <c r="C1352" t="s">
         <v>5716</v>
@@ -55753,12 +55690,12 @@
         <v>5696</v>
       </c>
       <c r="Q1352" t="s">
-        <v>5781</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="1353" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1353" s="1" t="s">
-        <v>5782</v>
+        <v>5800</v>
       </c>
       <c r="C1353" t="s">
         <v>5716</v>
@@ -55773,12 +55710,12 @@
         <v>5696</v>
       </c>
       <c r="Q1353" t="s">
-        <v>5783</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="1354" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1354" s="1" t="s">
-        <v>5784</v>
+        <v>5802</v>
       </c>
       <c r="C1354" t="s">
         <v>5716</v>
@@ -55793,12 +55730,12 @@
         <v>5696</v>
       </c>
       <c r="Q1354" t="s">
-        <v>5785</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="1355" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1355" s="1" t="s">
-        <v>5786</v>
+        <v>5804</v>
       </c>
       <c r="C1355" t="s">
         <v>5716</v>
@@ -55813,12 +55750,12 @@
         <v>5696</v>
       </c>
       <c r="Q1355" t="s">
-        <v>5787</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="1356" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1356" s="1" t="s">
-        <v>5788</v>
+        <v>5806</v>
       </c>
       <c r="C1356" t="s">
         <v>5716</v>
@@ -55833,12 +55770,12 @@
         <v>5696</v>
       </c>
       <c r="Q1356" t="s">
-        <v>5789</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="1357" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1357" s="1" t="s">
-        <v>5790</v>
+        <v>5808</v>
       </c>
       <c r="C1357" t="s">
         <v>5716</v>
@@ -55853,12 +55790,12 @@
         <v>5696</v>
       </c>
       <c r="Q1357" t="s">
-        <v>5791</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="1358" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1358" s="1" t="s">
-        <v>5792</v>
+        <v>5810</v>
       </c>
       <c r="C1358" t="s">
         <v>5716</v>
@@ -55873,12 +55810,12 @@
         <v>5696</v>
       </c>
       <c r="Q1358" t="s">
-        <v>5793</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="1359" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1359" s="1" t="s">
-        <v>5794</v>
+        <v>5812</v>
       </c>
       <c r="C1359" t="s">
         <v>5716</v>
@@ -55893,12 +55830,12 @@
         <v>5696</v>
       </c>
       <c r="Q1359" t="s">
-        <v>5795</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="1360" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1360" s="1" t="s">
-        <v>5796</v>
+        <v>5814</v>
       </c>
       <c r="C1360" t="s">
         <v>5716</v>
@@ -55913,12 +55850,12 @@
         <v>5696</v>
       </c>
       <c r="Q1360" t="s">
-        <v>5797</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="1361" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1361" s="1" t="s">
-        <v>5798</v>
+        <v>5816</v>
       </c>
       <c r="C1361" t="s">
         <v>5716</v>
@@ -55933,12 +55870,12 @@
         <v>5696</v>
       </c>
       <c r="Q1361" t="s">
-        <v>5799</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="1362" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1362" s="1" t="s">
-        <v>5800</v>
+        <v>5818</v>
       </c>
       <c r="C1362" t="s">
         <v>5716</v>
@@ -55953,12 +55890,12 @@
         <v>5696</v>
       </c>
       <c r="Q1362" t="s">
-        <v>5801</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="1363" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1363" s="1" t="s">
-        <v>5802</v>
+        <v>5820</v>
       </c>
       <c r="C1363" t="s">
         <v>5716</v>
@@ -55973,12 +55910,12 @@
         <v>5696</v>
       </c>
       <c r="Q1363" t="s">
-        <v>5803</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="1364" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1364" s="1" t="s">
-        <v>5804</v>
+        <v>5822</v>
       </c>
       <c r="C1364" t="s">
         <v>5716</v>
@@ -55993,12 +55930,12 @@
         <v>5696</v>
       </c>
       <c r="Q1364" t="s">
-        <v>5805</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="1365" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1365" s="1" t="s">
-        <v>5806</v>
+        <v>5824</v>
       </c>
       <c r="C1365" t="s">
         <v>5716</v>
@@ -56013,12 +55950,12 @@
         <v>5696</v>
       </c>
       <c r="Q1365" t="s">
-        <v>5807</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="1366" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1366" s="1" t="s">
-        <v>5808</v>
+        <v>5826</v>
       </c>
       <c r="C1366" t="s">
         <v>5716</v>
@@ -56033,12 +55970,12 @@
         <v>5696</v>
       </c>
       <c r="Q1366" t="s">
-        <v>5809</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="1367" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1367" s="1" t="s">
-        <v>5810</v>
+        <v>5828</v>
       </c>
       <c r="C1367" t="s">
         <v>5716</v>
@@ -56053,12 +55990,12 @@
         <v>5696</v>
       </c>
       <c r="Q1367" t="s">
-        <v>5811</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="1368" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1368" s="1" t="s">
-        <v>5812</v>
+        <v>5830</v>
       </c>
       <c r="C1368" t="s">
         <v>5716</v>
@@ -56073,12 +56010,12 @@
         <v>5696</v>
       </c>
       <c r="Q1368" t="s">
-        <v>5813</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="1369" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1369" s="1" t="s">
-        <v>5814</v>
+        <v>5832</v>
       </c>
       <c r="C1369" t="s">
         <v>5716</v>
@@ -56093,12 +56030,12 @@
         <v>5696</v>
       </c>
       <c r="Q1369" t="s">
-        <v>5815</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="1370" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1370" s="1" t="s">
-        <v>5816</v>
+        <v>5834</v>
       </c>
       <c r="C1370" t="s">
         <v>5716</v>
@@ -56113,12 +56050,12 @@
         <v>5696</v>
       </c>
       <c r="Q1370" t="s">
-        <v>5817</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="1371" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1371" s="1" t="s">
-        <v>5818</v>
+        <v>5836</v>
       </c>
       <c r="C1371" t="s">
         <v>5716</v>
@@ -56133,12 +56070,12 @@
         <v>5696</v>
       </c>
       <c r="Q1371" t="s">
-        <v>5819</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="1372" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1372" s="1" t="s">
-        <v>5820</v>
+        <v>5838</v>
       </c>
       <c r="C1372" t="s">
         <v>5716</v>
@@ -56153,12 +56090,12 @@
         <v>5696</v>
       </c>
       <c r="Q1372" t="s">
-        <v>5821</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="1373" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1373" s="1" t="s">
-        <v>5822</v>
+        <v>5840</v>
       </c>
       <c r="C1373" t="s">
         <v>5716</v>
@@ -56173,12 +56110,12 @@
         <v>5696</v>
       </c>
       <c r="Q1373" t="s">
-        <v>5823</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="1374" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1374" s="1" t="s">
-        <v>5824</v>
+        <v>5842</v>
       </c>
       <c r="C1374" t="s">
         <v>5716</v>
@@ -56193,12 +56130,12 @@
         <v>5696</v>
       </c>
       <c r="Q1374" t="s">
-        <v>5825</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="1375" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1375" s="1" t="s">
-        <v>5826</v>
+        <v>5844</v>
       </c>
       <c r="C1375" t="s">
         <v>5716</v>
@@ -56213,241 +56150,256 @@
         <v>5696</v>
       </c>
       <c r="Q1375" t="s">
-        <v>5827</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="1376" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1376" s="1" t="s">
-        <v>5828</v>
+        <v>1339</v>
       </c>
       <c r="C1376" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1376" s="1" t="s">
-        <v>1652</v>
+        <v>1340</v>
+      </c>
+      <c r="D1376" s="1">
+        <v>68000</v>
       </c>
       <c r="E1376" t="s">
-        <v>3892</v>
+        <v>2</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>4013</v>
       </c>
       <c r="L1376" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1376" t="s">
-        <v>5829</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1377" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1377" s="1" t="s">
-        <v>5830</v>
+        <v>1342</v>
       </c>
       <c r="C1377" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1377" s="1" t="s">
-        <v>1652</v>
+        <v>1340</v>
+      </c>
+      <c r="D1377" s="1">
+        <v>68000</v>
       </c>
       <c r="E1377" t="s">
-        <v>3892</v>
+        <v>2</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>4013</v>
       </c>
       <c r="L1377" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1377" t="s">
-        <v>5831</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1378" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1378" s="1" t="s">
-        <v>5832</v>
+        <v>1344</v>
       </c>
       <c r="C1378" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1378" s="1" t="s">
-        <v>1652</v>
+        <v>1340</v>
+      </c>
+      <c r="D1378" s="1">
+        <v>68000</v>
       </c>
       <c r="E1378" t="s">
-        <v>3892</v>
+        <v>2</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>4013</v>
       </c>
       <c r="L1378" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1378" t="s">
-        <v>5833</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1379" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1379" s="1" t="s">
-        <v>5834</v>
+        <v>1346</v>
       </c>
       <c r="C1379" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1379" s="1" t="s">
-        <v>1652</v>
+        <v>1340</v>
+      </c>
+      <c r="D1379" s="1">
+        <v>68000</v>
       </c>
       <c r="E1379" t="s">
-        <v>3892</v>
+        <v>2</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>4013</v>
       </c>
       <c r="L1379" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1379" t="s">
-        <v>5835</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1380" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1380" s="1" t="s">
-        <v>5836</v>
+        <v>1355</v>
       </c>
       <c r="C1380" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1380" s="1" t="s">
-        <v>1652</v>
+        <v>1340</v>
+      </c>
+      <c r="D1380" s="1">
+        <v>68000</v>
       </c>
       <c r="E1380" t="s">
-        <v>3892</v>
+        <v>2</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>4013</v>
       </c>
       <c r="L1380" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1380" t="s">
-        <v>5837</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1381" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1381" s="1" t="s">
-        <v>5838</v>
+        <v>1357</v>
       </c>
       <c r="C1381" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1381" s="1" t="s">
-        <v>1652</v>
+        <v>1340</v>
+      </c>
+      <c r="D1381" s="1">
+        <v>68000</v>
       </c>
       <c r="E1381" t="s">
-        <v>3892</v>
+        <v>2</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>4013</v>
       </c>
       <c r="L1381" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1381" t="s">
-        <v>5839</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1382" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1382" s="1" t="s">
-        <v>5840</v>
+        <v>1359</v>
       </c>
       <c r="C1382" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1382" s="1" t="s">
-        <v>1652</v>
+        <v>1340</v>
+      </c>
+      <c r="D1382" s="1">
+        <v>68000</v>
       </c>
       <c r="E1382" t="s">
-        <v>3892</v>
+        <v>2</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>4013</v>
       </c>
       <c r="L1382" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1382" t="s">
-        <v>5841</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1383" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1383" s="1" t="s">
-        <v>5842</v>
+        <v>1361</v>
       </c>
       <c r="C1383" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1383" s="1" t="s">
-        <v>1652</v>
+        <v>1362</v>
+      </c>
+      <c r="D1383" s="1">
+        <v>68000</v>
       </c>
       <c r="E1383" t="s">
-        <v>3892</v>
+        <v>2</v>
       </c>
       <c r="L1383" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1383" t="s">
-        <v>5843</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1384" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1384" s="1" t="s">
-        <v>5844</v>
+        <v>1364</v>
       </c>
       <c r="C1384" t="s">
-        <v>5716</v>
-      </c>
-      <c r="D1384" s="1" t="s">
-        <v>1652</v>
+        <v>1362</v>
+      </c>
+      <c r="D1384" s="1">
+        <v>68000</v>
       </c>
       <c r="E1384" t="s">
-        <v>3892</v>
+        <v>2</v>
       </c>
       <c r="L1384" t="s">
-        <v>5696</v>
+        <v>5071</v>
       </c>
       <c r="Q1384" t="s">
-        <v>5845</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1385" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1385" s="1" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="C1385" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="D1385" s="1">
         <v>68000</v>
       </c>
       <c r="E1385" t="s">
         <v>2</v>
-      </c>
-      <c r="F1385" t="s">
-        <v>4013</v>
       </c>
       <c r="L1385" t="s">
         <v>5071</v>
       </c>
       <c r="Q1385" t="s">
-        <v>1341</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1386" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1386" s="1" t="s">
-        <v>1342</v>
+        <v>1368</v>
       </c>
       <c r="C1386" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="D1386" s="1">
         <v>68000</v>
       </c>
       <c r="E1386" t="s">
         <v>2</v>
-      </c>
-      <c r="F1386" t="s">
-        <v>4013</v>
       </c>
       <c r="L1386" t="s">
         <v>5071</v>
       </c>
       <c r="Q1386" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1387" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1387" s="1" t="s">
-        <v>1344</v>
+        <v>1370</v>
       </c>
       <c r="C1387" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="D1387" s="1">
         <v>68000</v>
@@ -56462,104 +56414,86 @@
         <v>5071</v>
       </c>
       <c r="Q1387" t="s">
-        <v>1345</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1388" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1388" s="1" t="s">
-        <v>1346</v>
+        <v>1371</v>
       </c>
       <c r="C1388" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="D1388" s="1">
         <v>68000</v>
-      </c>
-      <c r="E1388" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1388" t="s">
-        <v>4013</v>
       </c>
       <c r="L1388" t="s">
         <v>5071</v>
       </c>
       <c r="Q1388" t="s">
-        <v>1347</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1389" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1389" s="1" t="s">
-        <v>1355</v>
+        <v>1373</v>
       </c>
       <c r="C1389" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="D1389" s="1">
         <v>68000</v>
-      </c>
-      <c r="E1389" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1389" t="s">
-        <v>4013</v>
       </c>
       <c r="L1389" t="s">
         <v>5071</v>
       </c>
       <c r="Q1389" t="s">
-        <v>1356</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1390" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1390" s="1" t="s">
-        <v>1357</v>
+        <v>1375</v>
       </c>
       <c r="C1390" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="D1390" s="1">
         <v>68000</v>
       </c>
       <c r="E1390" t="s">
         <v>2</v>
-      </c>
-      <c r="F1390" t="s">
-        <v>4013</v>
       </c>
       <c r="L1390" t="s">
         <v>5071</v>
       </c>
       <c r="Q1390" t="s">
-        <v>1358</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="1391" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1391" s="1" t="s">
-        <v>1359</v>
+        <v>5851</v>
       </c>
       <c r="C1391" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="D1391" s="1">
         <v>68000</v>
       </c>
       <c r="E1391" t="s">
         <v>2</v>
-      </c>
-      <c r="F1391" t="s">
-        <v>4013</v>
       </c>
       <c r="L1391" t="s">
         <v>5071</v>
       </c>
       <c r="Q1391" t="s">
-        <v>1360</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="1392" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1392" s="1" t="s">
-        <v>1361</v>
+        <v>1376</v>
       </c>
       <c r="C1392" t="s">
         <v>1362</v>
@@ -56567,19 +56501,16 @@
       <c r="D1392" s="1">
         <v>68000</v>
       </c>
-      <c r="E1392" t="s">
-        <v>2</v>
-      </c>
       <c r="L1392" t="s">
         <v>5071</v>
       </c>
       <c r="Q1392" t="s">
-        <v>1363</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1393" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1393" s="1" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
       <c r="C1393" t="s">
         <v>1362</v>
@@ -56587,19 +56518,16 @@
       <c r="D1393" s="1">
         <v>68000</v>
       </c>
-      <c r="E1393" t="s">
-        <v>2</v>
-      </c>
       <c r="L1393" t="s">
         <v>5071</v>
       </c>
       <c r="Q1393" t="s">
-        <v>1365</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1394" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1394" s="1" t="s">
-        <v>1366</v>
+        <v>1380</v>
       </c>
       <c r="C1394" t="s">
         <v>1362</v>
@@ -56607,287 +56535,287 @@
       <c r="D1394" s="1">
         <v>68000</v>
       </c>
-      <c r="E1394" t="s">
-        <v>2</v>
-      </c>
       <c r="L1394" t="s">
         <v>5071</v>
       </c>
       <c r="Q1394" t="s">
-        <v>1367</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1395" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1395" s="1" t="s">
-        <v>1368</v>
+        <v>1381</v>
       </c>
       <c r="C1395" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="D1395" s="1">
         <v>68000</v>
       </c>
       <c r="E1395" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1395" t="s">
         <v>5071</v>
       </c>
       <c r="Q1395" t="s">
-        <v>1369</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1396" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1396" s="1" t="s">
-        <v>1370</v>
+        <v>1383</v>
       </c>
       <c r="C1396" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="D1396" s="1">
         <v>68000</v>
       </c>
       <c r="E1396" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1396" t="s">
-        <v>4013</v>
+        <v>2426</v>
       </c>
       <c r="L1396" t="s">
         <v>5071</v>
       </c>
       <c r="Q1396" t="s">
-        <v>4014</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1397" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1397" s="1" t="s">
-        <v>1371</v>
+        <v>1384</v>
       </c>
       <c r="C1397" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="D1397" s="1">
         <v>68000</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>2426</v>
       </c>
       <c r="L1397" t="s">
         <v>5071</v>
       </c>
       <c r="Q1397" t="s">
-        <v>1372</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1398" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1398" s="1" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
       <c r="C1398" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="D1398" s="1">
         <v>68000</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>2426</v>
       </c>
       <c r="L1398" t="s">
         <v>5071</v>
       </c>
       <c r="Q1398" t="s">
-        <v>1374</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="1399" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1399" s="1" t="s">
-        <v>1375</v>
+        <v>1386</v>
       </c>
       <c r="C1399" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="D1399" s="1">
         <v>68000</v>
       </c>
       <c r="E1399" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1399" t="s">
         <v>5071</v>
       </c>
       <c r="Q1399" t="s">
-        <v>5850</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1400" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1400" s="1" t="s">
-        <v>5851</v>
+        <v>1388</v>
       </c>
       <c r="C1400" t="s">
-        <v>1362</v>
+        <v>1389</v>
       </c>
       <c r="D1400" s="1">
         <v>68000</v>
-      </c>
-      <c r="E1400" t="s">
-        <v>2</v>
       </c>
       <c r="L1400" t="s">
         <v>5071</v>
       </c>
       <c r="Q1400" t="s">
-        <v>5852</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1401" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1401" s="1" t="s">
-        <v>1376</v>
+        <v>1391</v>
       </c>
       <c r="C1401" t="s">
-        <v>1362</v>
+        <v>1389</v>
       </c>
       <c r="D1401" s="1">
         <v>68000</v>
       </c>
       <c r="L1401" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="Q1401" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1402" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1402" s="1" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="C1402" t="s">
-        <v>1362</v>
+        <v>1389</v>
       </c>
       <c r="D1402" s="1">
         <v>68000</v>
       </c>
       <c r="L1402" t="s">
-        <v>5071</v>
+        <v>5238</v>
+      </c>
+      <c r="M1402" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1402" t="s">
-        <v>1379</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1403" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1403" s="1" t="s">
-        <v>1380</v>
+        <v>1394</v>
       </c>
       <c r="C1403" t="s">
-        <v>1362</v>
+        <v>1389</v>
       </c>
       <c r="D1403" s="1">
         <v>68000</v>
       </c>
       <c r="L1403" t="s">
-        <v>5071</v>
+        <v>5238</v>
+      </c>
+      <c r="M1403" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1403" t="s">
-        <v>4015</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="1404" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1404" s="1" t="s">
-        <v>1381</v>
+        <v>5853</v>
       </c>
       <c r="C1404" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="D1404" s="1">
         <v>68000</v>
       </c>
-      <c r="E1404" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1404" t="s">
-        <v>5071</v>
+        <v>5238</v>
+      </c>
+      <c r="M1404" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1404" t="s">
-        <v>4016</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1405" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1405" s="1" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="C1405" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="D1405" s="1">
         <v>68000</v>
       </c>
       <c r="E1405" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1405" t="s">
         <v>5071</v>
       </c>
       <c r="Q1405" t="s">
-        <v>4017</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1406" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1406" s="1" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="C1406" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="D1406" s="1">
         <v>68000</v>
       </c>
       <c r="E1406" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1406" t="s">
         <v>5071</v>
       </c>
       <c r="Q1406" t="s">
-        <v>4018</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1407" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1407" s="1" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="C1407" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="D1407" s="1">
         <v>68000</v>
       </c>
       <c r="E1407" t="s">
-        <v>2426</v>
+        <v>2</v>
       </c>
       <c r="L1407" t="s">
         <v>5071</v>
       </c>
       <c r="Q1407" t="s">
-        <v>4019</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1408" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1408" s="1" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="C1408" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
       <c r="D1408" s="1">
         <v>68000</v>
       </c>
-      <c r="E1408" t="s">
-        <v>2426</v>
-      </c>
       <c r="L1408" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="Q1408" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1409" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1409" s="1" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="C1409" t="s">
         <v>1389</v>
@@ -56896,15 +56824,15 @@
         <v>68000</v>
       </c>
       <c r="L1409" t="s">
-        <v>5071</v>
+        <v>5238</v>
       </c>
       <c r="Q1409" t="s">
-        <v>1390</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1410" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1410" s="1" t="s">
-        <v>1391</v>
+        <v>1402</v>
       </c>
       <c r="C1410" t="s">
         <v>1389</v>
@@ -56915,13 +56843,16 @@
       <c r="L1410" t="s">
         <v>5238</v>
       </c>
+      <c r="M1410" t="s">
+        <v>1687</v>
+      </c>
       <c r="Q1410" t="s">
-        <v>1392</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1411" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1411" s="1" t="s">
-        <v>1393</v>
+        <v>1403</v>
       </c>
       <c r="C1411" t="s">
         <v>1389</v>
@@ -56936,12 +56867,12 @@
         <v>1687</v>
       </c>
       <c r="Q1411" t="s">
-        <v>4020</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1412" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1412" s="1" t="s">
-        <v>1394</v>
+        <v>1404</v>
       </c>
       <c r="C1412" t="s">
         <v>1389</v>
@@ -56956,12 +56887,12 @@
         <v>1687</v>
       </c>
       <c r="Q1412" t="s">
-        <v>4021</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="1413" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1413" s="1" t="s">
-        <v>5853</v>
+        <v>1405</v>
       </c>
       <c r="C1413" t="s">
         <v>1389</v>
@@ -56969,6 +56900,9 @@
       <c r="D1413" s="1">
         <v>68000</v>
       </c>
+      <c r="E1413" t="s">
+        <v>2</v>
+      </c>
       <c r="L1413" t="s">
         <v>5238</v>
       </c>
@@ -56976,12 +56910,12 @@
         <v>1687</v>
       </c>
       <c r="Q1413" t="s">
-        <v>4725</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1414" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1414" s="1" t="s">
-        <v>1395</v>
+        <v>1406</v>
       </c>
       <c r="C1414" t="s">
         <v>1389</v>
@@ -56993,15 +56927,18 @@
         <v>2</v>
       </c>
       <c r="L1414" t="s">
-        <v>5071</v>
+        <v>5238</v>
+      </c>
+      <c r="M1414" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1414" t="s">
-        <v>4022</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1415" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1415" s="1" t="s">
-        <v>1396</v>
+        <v>5854</v>
       </c>
       <c r="C1415" t="s">
         <v>1389</v>
@@ -57013,15 +56950,18 @@
         <v>2</v>
       </c>
       <c r="L1415" t="s">
-        <v>5071</v>
+        <v>5238</v>
+      </c>
+      <c r="M1415" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1415" t="s">
-        <v>4726</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="1416" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1416" s="1" t="s">
-        <v>1397</v>
+        <v>5856</v>
       </c>
       <c r="C1416" t="s">
         <v>1389</v>
@@ -57033,15 +56973,18 @@
         <v>2</v>
       </c>
       <c r="L1416" t="s">
-        <v>5071</v>
+        <v>5238</v>
+      </c>
+      <c r="M1416" t="s">
+        <v>3315</v>
       </c>
       <c r="Q1416" t="s">
-        <v>4727</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="1417" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1417" s="1" t="s">
-        <v>1398</v>
+        <v>5858</v>
       </c>
       <c r="C1417" t="s">
         <v>1389</v>
@@ -57049,208 +56992,199 @@
       <c r="D1417" s="1">
         <v>68000</v>
       </c>
+      <c r="E1417" t="s">
+        <v>2</v>
+      </c>
       <c r="L1417" t="s">
         <v>5238</v>
       </c>
+      <c r="M1417" t="s">
+        <v>3315</v>
+      </c>
       <c r="Q1417" t="s">
-        <v>1399</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="1418" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1418" s="1" t="s">
-        <v>1400</v>
+        <v>5860</v>
       </c>
       <c r="C1418" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1418" s="1">
         <v>68000</v>
       </c>
+      <c r="E1418" t="s">
+        <v>2</v>
+      </c>
       <c r="L1418" t="s">
-        <v>5238</v>
+        <v>5070</v>
+      </c>
+      <c r="M1418" t="s">
+        <v>1687</v>
       </c>
       <c r="Q1418" t="s">
-        <v>1401</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="1419" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1419" s="1" t="s">
-        <v>1402</v>
+        <v>5862</v>
       </c>
       <c r="C1419" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1419" s="1">
         <v>68000</v>
       </c>
       <c r="L1419" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1419" t="s">
-        <v>1687</v>
+        <v>3315</v>
       </c>
       <c r="Q1419" t="s">
-        <v>4023</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="1420" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1420" s="1" t="s">
-        <v>1403</v>
+        <v>5864</v>
       </c>
       <c r="C1420" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1420" s="1">
         <v>68000</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>2426</v>
       </c>
       <c r="L1420" t="s">
         <v>5238</v>
       </c>
       <c r="M1420" t="s">
-        <v>1687</v>
+        <v>3315</v>
       </c>
       <c r="Q1420" t="s">
-        <v>4024</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="1421" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1421" s="1" t="s">
-        <v>1404</v>
+        <v>5866</v>
       </c>
       <c r="C1421" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1421" s="1">
         <v>68000</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>2</v>
       </c>
       <c r="L1421" t="s">
         <v>5238</v>
       </c>
       <c r="M1421" t="s">
-        <v>1687</v>
+        <v>3315</v>
       </c>
       <c r="Q1421" t="s">
-        <v>4025</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="1422" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1422" s="1" t="s">
-        <v>1405</v>
+        <v>5868</v>
       </c>
       <c r="C1422" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1422" s="1">
         <v>68000</v>
       </c>
       <c r="E1422" t="s">
-        <v>2</v>
+        <v>2426</v>
       </c>
       <c r="L1422" t="s">
-        <v>5238</v>
+        <v>5070</v>
       </c>
       <c r="M1422" t="s">
         <v>1687</v>
       </c>
       <c r="Q1422" t="s">
-        <v>4026</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="1423" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1423" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C1423" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1423" s="1">
         <v>68000</v>
       </c>
-      <c r="E1423" t="s">
-        <v>2</v>
-      </c>
       <c r="L1423" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1423" t="s">
-        <v>1687</v>
+        <v>1409</v>
       </c>
       <c r="Q1423" t="s">
-        <v>4027</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="1424" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1424" s="1" t="s">
-        <v>5854</v>
+        <v>1410</v>
       </c>
       <c r="C1424" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1424" s="1">
         <v>68000</v>
       </c>
-      <c r="E1424" t="s">
-        <v>2</v>
-      </c>
       <c r="L1424" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1424" t="s">
-        <v>1687</v>
+        <v>1409</v>
       </c>
       <c r="Q1424" t="s">
-        <v>5855</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1425" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1425" s="1" t="s">
-        <v>5856</v>
+        <v>1412</v>
       </c>
       <c r="C1425" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1425" s="1">
         <v>68000</v>
       </c>
-      <c r="E1425" t="s">
-        <v>2</v>
-      </c>
       <c r="L1425" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1425" t="s">
-        <v>3315</v>
+        <v>1409</v>
       </c>
       <c r="Q1425" t="s">
-        <v>5857</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1426" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1426" s="1" t="s">
-        <v>5858</v>
+        <v>1414</v>
       </c>
       <c r="C1426" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D1426" s="1">
         <v>68000</v>
       </c>
-      <c r="E1426" t="s">
-        <v>2</v>
-      </c>
       <c r="L1426" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1426" t="s">
-        <v>3315</v>
+        <v>1409</v>
       </c>
       <c r="Q1426" t="s">
-        <v>5859</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1427" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1427" s="1" t="s">
-        <v>5860</v>
+        <v>5871</v>
       </c>
       <c r="C1427" t="s">
         <v>1408</v>
@@ -57258,199 +57192,202 @@
       <c r="D1427" s="1">
         <v>68000</v>
       </c>
-      <c r="E1427" t="s">
-        <v>2</v>
-      </c>
       <c r="L1427" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1427" t="s">
-        <v>1687</v>
+        <v>1409</v>
       </c>
       <c r="Q1427" t="s">
-        <v>5861</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="1428" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1428" s="1" t="s">
-        <v>5862</v>
+        <v>6139</v>
       </c>
       <c r="C1428" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1428" s="1">
         <v>68000</v>
       </c>
+      <c r="E1428" t="s">
+        <v>404</v>
+      </c>
       <c r="L1428" t="s">
-        <v>3315</v>
+        <v>6141</v>
       </c>
       <c r="Q1428" t="s">
-        <v>5863</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="1429" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1429" s="1" t="s">
-        <v>5864</v>
+        <v>6143</v>
       </c>
       <c r="C1429" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1429" s="1">
         <v>68000</v>
       </c>
       <c r="E1429" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L1429" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1429" t="s">
-        <v>3315</v>
+        <v>6141</v>
       </c>
       <c r="Q1429" t="s">
-        <v>5865</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="1430" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1430" s="1" t="s">
-        <v>5866</v>
+        <v>6145</v>
       </c>
       <c r="C1430" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1430" s="1">
         <v>68000</v>
       </c>
       <c r="E1430" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="L1430" t="s">
-        <v>5238</v>
-      </c>
-      <c r="M1430" t="s">
-        <v>3315</v>
+        <v>6141</v>
       </c>
       <c r="Q1430" t="s">
-        <v>5867</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="1431" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1431" s="1" t="s">
-        <v>5868</v>
+        <v>6147</v>
       </c>
       <c r="C1431" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1431" s="1">
         <v>68000</v>
       </c>
       <c r="E1431" t="s">
-        <v>2426</v>
+        <v>404</v>
       </c>
       <c r="L1431" t="s">
-        <v>5070</v>
-      </c>
-      <c r="M1431" t="s">
-        <v>1687</v>
+        <v>6141</v>
       </c>
       <c r="Q1431" t="s">
-        <v>5869</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="1432" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1432" s="1" t="s">
-        <v>1407</v>
+        <v>6149</v>
       </c>
       <c r="C1432" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1432" s="1">
         <v>68000</v>
       </c>
+      <c r="E1432" t="s">
+        <v>404</v>
+      </c>
       <c r="L1432" t="s">
-        <v>1409</v>
+        <v>6141</v>
       </c>
       <c r="Q1432" t="s">
-        <v>5870</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="1433" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1433" s="1" t="s">
-        <v>1410</v>
+        <v>6151</v>
       </c>
       <c r="C1433" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1433" s="1">
         <v>68000</v>
       </c>
+      <c r="E1433" t="s">
+        <v>404</v>
+      </c>
       <c r="L1433" t="s">
-        <v>1409</v>
+        <v>6141</v>
       </c>
       <c r="Q1433" t="s">
-        <v>1411</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="1434" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1434" s="1" t="s">
-        <v>1412</v>
+        <v>6153</v>
       </c>
       <c r="C1434" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1434" s="1">
         <v>68000</v>
       </c>
+      <c r="E1434" t="s">
+        <v>404</v>
+      </c>
       <c r="L1434" t="s">
-        <v>1409</v>
+        <v>6141</v>
       </c>
       <c r="Q1434" t="s">
-        <v>1413</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="1435" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1435" s="1" t="s">
-        <v>1414</v>
+        <v>6155</v>
       </c>
       <c r="C1435" t="s">
-        <v>1408</v>
+        <v>6140</v>
       </c>
       <c r="D1435" s="1">
         <v>68000</v>
       </c>
+      <c r="E1435" t="s">
+        <v>404</v>
+      </c>
       <c r="L1435" t="s">
-        <v>1409</v>
+        <v>6141</v>
       </c>
       <c r="Q1435" t="s">
-        <v>1415</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="1436" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1436" s="1" t="s">
-        <v>5871</v>
+        <v>6157</v>
       </c>
       <c r="C1436" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D1436" s="1">
-        <v>68000</v>
+        <v>6140</v>
+      </c>
+      <c r="D1436" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>404</v>
       </c>
       <c r="L1436" t="s">
-        <v>1409</v>
+        <v>6141</v>
       </c>
       <c r="Q1436" t="s">
-        <v>5872</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="1437" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1437" s="1" t="s">
-        <v>6139</v>
+        <v>6159</v>
       </c>
       <c r="C1437" t="s">
         <v>6140</v>
       </c>
-      <c r="D1437" s="1">
-        <v>68000</v>
+      <c r="D1437" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1437" t="s">
         <v>404</v>
@@ -57459,18 +57396,18 @@
         <v>6141</v>
       </c>
       <c r="Q1437" t="s">
-        <v>6142</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="1438" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1438" s="1" t="s">
-        <v>6143</v>
+        <v>6161</v>
       </c>
       <c r="C1438" t="s">
         <v>6140</v>
       </c>
-      <c r="D1438" s="1">
-        <v>68000</v>
+      <c r="D1438" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1438" t="s">
         <v>404</v>
@@ -57479,18 +57416,18 @@
         <v>6141</v>
       </c>
       <c r="Q1438" t="s">
-        <v>6144</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="1439" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1439" s="1" t="s">
-        <v>6145</v>
+        <v>6163</v>
       </c>
       <c r="C1439" t="s">
         <v>6140</v>
       </c>
-      <c r="D1439" s="1">
-        <v>68000</v>
+      <c r="D1439" s="1" t="s">
+        <v>1652</v>
       </c>
       <c r="E1439" t="s">
         <v>404</v>
@@ -57499,191 +57436,11 @@
         <v>6141</v>
       </c>
       <c r="Q1439" t="s">
-        <v>6146</v>
-      </c>
-    </row>
-    <row r="1440" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1440" s="1" t="s">
-        <v>6147</v>
-      </c>
-      <c r="C1440" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1440" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1440" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1440" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1440" t="s">
-        <v>6148</v>
-      </c>
-    </row>
-    <row r="1441" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1441" s="1" t="s">
-        <v>6149</v>
-      </c>
-      <c r="C1441" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1441" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1441" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1441" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1441" t="s">
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="1442" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1442" s="1" t="s">
-        <v>6151</v>
-      </c>
-      <c r="C1442" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1442" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1442" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1442" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1442" t="s">
-        <v>6152</v>
-      </c>
-    </row>
-    <row r="1443" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1443" s="1" t="s">
-        <v>6153</v>
-      </c>
-      <c r="C1443" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1443" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1443" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1443" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1443" t="s">
-        <v>6154</v>
-      </c>
-    </row>
-    <row r="1444" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1444" s="1" t="s">
-        <v>6155</v>
-      </c>
-      <c r="C1444" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1444" s="1">
-        <v>68000</v>
-      </c>
-      <c r="E1444" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1444" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1444" t="s">
-        <v>6156</v>
-      </c>
-    </row>
-    <row r="1445" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1445" s="1" t="s">
-        <v>6157</v>
-      </c>
-      <c r="C1445" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1445" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E1445" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1445" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1445" t="s">
-        <v>6158</v>
-      </c>
-    </row>
-    <row r="1446" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1446" s="1" t="s">
-        <v>6159</v>
-      </c>
-      <c r="C1446" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1446" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E1446" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1446" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1446" t="s">
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="1447" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1447" s="1" t="s">
-        <v>6161</v>
-      </c>
-      <c r="C1447" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1447" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E1447" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1447" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1447" t="s">
-        <v>6162</v>
-      </c>
-    </row>
-    <row r="1448" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B1448" s="1" t="s">
-        <v>6163</v>
-      </c>
-      <c r="C1448" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D1448" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E1448" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1448" t="s">
-        <v>6141</v>
-      </c>
-      <c r="Q1448" t="s">
         <v>6164</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1448"/>
+  <autoFilter ref="B1:R1439"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -70049,10 +69806,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q919"/>
+  <dimension ref="B1:Q928"/>
   <sheetViews>
-    <sheetView topLeftCell="A904" workbookViewId="0">
-      <selection activeCell="A918" sqref="A918:XFD919"/>
+    <sheetView topLeftCell="A910" workbookViewId="0">
+      <selection activeCell="A920" sqref="A920:XFD928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -89799,6 +89556,249 @@
         <v>3908</v>
       </c>
     </row>
+    <row r="920" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B920" s="3" t="s">
+        <v>5511</v>
+      </c>
+      <c r="C920" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D920" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E920" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L920" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M920" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q920" s="6" t="s">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="921" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B921" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C921" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E921" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F921" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L921" t="s">
+        <v>55</v>
+      </c>
+      <c r="M921" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q921" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="922" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B922" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E922" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F922" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L922" t="s">
+        <v>55</v>
+      </c>
+      <c r="M922" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q922" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="923" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B923" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E923" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F923" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L923" t="s">
+        <v>55</v>
+      </c>
+      <c r="M923" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q923" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="924" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B924" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E924" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F924" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L924" t="s">
+        <v>55</v>
+      </c>
+      <c r="M924" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q924" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="925" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B925" s="1" t="s">
+        <v>5513</v>
+      </c>
+      <c r="C925" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E925" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F925" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G925" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L925" t="s">
+        <v>55</v>
+      </c>
+      <c r="M925" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q925" t="s">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="926" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B926" s="1" t="s">
+        <v>5515</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E926" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F926" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G926" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L926" t="s">
+        <v>55</v>
+      </c>
+      <c r="M926" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q926" t="s">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="927" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B927" s="1" t="s">
+        <v>5517</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E927" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F927" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G927" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L927" t="s">
+        <v>55</v>
+      </c>
+      <c r="M927" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q927" t="s">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="928" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B928" s="1" t="s">
+        <v>5519</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E928" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F928" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G928" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L928" t="s">
+        <v>55</v>
+      </c>
+      <c r="M928" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Q928" t="s">
+        <v>5520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
